--- a/Code/Results/Cases/Case_0_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_line/loading_percent.xlsx
@@ -415,25 +415,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.693593752173219</v>
+        <v>3.693593752173213</v>
       </c>
       <c r="D2">
-        <v>5.108849224387411</v>
+        <v>5.108849224387349</v>
       </c>
       <c r="E2">
-        <v>18.42536800029107</v>
+        <v>18.42536800029112</v>
       </c>
       <c r="F2">
-        <v>32.03491736142831</v>
+        <v>32.0349173614285</v>
       </c>
       <c r="G2">
-        <v>23.73624524526296</v>
+        <v>23.73624524526307</v>
       </c>
       <c r="H2">
-        <v>23.03541977081764</v>
+        <v>23.03541977081773</v>
       </c>
       <c r="I2">
-        <v>13.12936178930069</v>
+        <v>13.12936178930071</v>
       </c>
       <c r="J2">
         <v>100.7562100298965</v>
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.327737183175261</v>
+        <v>3.327737183175274</v>
       </c>
       <c r="D3">
-        <v>4.67060149825939</v>
+        <v>4.670601498259439</v>
       </c>
       <c r="E3">
-        <v>16.95495623001486</v>
+        <v>16.95495623001482</v>
       </c>
       <c r="F3">
-        <v>28.55704717961893</v>
+        <v>28.5570471796188</v>
       </c>
       <c r="G3">
-        <v>20.96886974795624</v>
+        <v>20.96886974795614</v>
       </c>
       <c r="H3">
-        <v>20.45403319250305</v>
+        <v>20.45403319250295</v>
       </c>
       <c r="I3">
-        <v>12.03721108878229</v>
+        <v>12.03721108878226</v>
       </c>
       <c r="J3">
-        <v>93.29894286961729</v>
+        <v>93.29894286961718</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.106050042469952</v>
+        <v>3.106050042469863</v>
       </c>
       <c r="D4">
-        <v>4.402817895852844</v>
+        <v>4.402817895852851</v>
       </c>
       <c r="E4">
-        <v>16.02976397450297</v>
+        <v>16.02976397450299</v>
       </c>
       <c r="F4">
-        <v>26.4878338410703</v>
+        <v>26.48783384107036</v>
       </c>
       <c r="G4">
-        <v>19.31974819589642</v>
+        <v>19.3197481958965</v>
       </c>
       <c r="H4">
-        <v>18.90734784190622</v>
+        <v>18.90734784190629</v>
       </c>
       <c r="I4">
-        <v>11.35692392490338</v>
+        <v>11.35692392490339</v>
       </c>
       <c r="J4">
-        <v>88.55372954584406</v>
+        <v>88.55372954584426</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.015960982038854</v>
+        <v>3.01596098203869</v>
       </c>
       <c r="D5">
-        <v>4.293503257163796</v>
+        <v>4.2935032571637</v>
       </c>
       <c r="E5">
-        <v>15.6460978685532</v>
+        <v>15.64609786855321</v>
       </c>
       <c r="F5">
-        <v>25.65826771915272</v>
+        <v>25.65826771915264</v>
       </c>
       <c r="G5">
-        <v>18.65775605001478</v>
+        <v>18.65775605001468</v>
       </c>
       <c r="H5">
-        <v>18.28424665725807</v>
+        <v>18.28424665725798</v>
       </c>
       <c r="I5">
-        <v>11.07631968653967</v>
+        <v>11.07631968653964</v>
       </c>
       <c r="J5">
-        <v>86.5742936762787</v>
+        <v>86.57429367627859</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,28 +567,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.001004342229653</v>
+        <v>3.001004342229735</v>
       </c>
       <c r="D6">
-        <v>4.275326976985515</v>
+        <v>4.275326976985607</v>
       </c>
       <c r="E6">
-        <v>15.58196319547895</v>
+        <v>15.5819631954789</v>
       </c>
       <c r="F6">
-        <v>25.52127810620116</v>
+        <v>25.52127810620084</v>
       </c>
       <c r="G6">
-        <v>18.54838229074865</v>
+        <v>18.54838229074834</v>
       </c>
       <c r="H6">
-        <v>18.18115902104451</v>
+        <v>18.18115902104421</v>
       </c>
       <c r="I6">
-        <v>11.02949743801066</v>
+        <v>11.02949743801065</v>
       </c>
       <c r="J6">
-        <v>86.24274834979859</v>
+        <v>86.24274834979839</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,28 +605,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.104834634819555</v>
+        <v>3.104834634819542</v>
       </c>
       <c r="D7">
-        <v>4.401345019555233</v>
+        <v>4.40134501955519</v>
       </c>
       <c r="E7">
-        <v>16.02461781551669</v>
+        <v>16.02461781551664</v>
       </c>
       <c r="F7">
-        <v>26.47659384238275</v>
+        <v>26.47659384238282</v>
       </c>
       <c r="G7">
-        <v>19.31078237882966</v>
+        <v>19.31078237882967</v>
       </c>
       <c r="H7">
         <v>18.89891802758034</v>
       </c>
       <c r="I7">
-        <v>11.35315439312373</v>
+        <v>11.35315439312365</v>
       </c>
       <c r="J7">
-        <v>88.52722391615117</v>
+        <v>88.52722391615116</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,28 +643,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.566503503020511</v>
+        <v>3.566503503020599</v>
       </c>
       <c r="D8">
-        <v>4.957121859268</v>
+        <v>4.95712185926813</v>
       </c>
       <c r="E8">
-        <v>17.92232143953485</v>
+        <v>17.92232143953478</v>
       </c>
       <c r="F8">
-        <v>30.81980701644044</v>
+        <v>30.81980701644027</v>
       </c>
       <c r="G8">
-        <v>22.76981245980458</v>
+        <v>22.76981245980447</v>
       </c>
       <c r="H8">
-        <v>22.13566248698319</v>
+        <v>22.13566248698312</v>
       </c>
       <c r="I8">
-        <v>12.75416593920061</v>
+        <v>12.7541659392006</v>
       </c>
       <c r="J8">
-        <v>98.21690176307045</v>
+        <v>98.21690176307037</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.525043855824379</v>
+        <v>4.52504385582448</v>
       </c>
       <c r="D9">
-        <v>6.088875745494626</v>
+        <v>6.088875745494687</v>
       </c>
       <c r="E9">
-        <v>21.52851981075048</v>
+        <v>21.52851981075049</v>
       </c>
       <c r="F9">
-        <v>40.07963800799132</v>
+        <v>40.07963800799119</v>
       </c>
       <c r="G9">
-        <v>30.13104519423027</v>
+        <v>30.13104519423019</v>
       </c>
       <c r="H9">
-        <v>28.95467125476413</v>
+        <v>28.954671254764</v>
       </c>
       <c r="I9">
         <v>15.48225318013658</v>
       </c>
       <c r="J9">
-        <v>116.127407385803</v>
+        <v>116.1274073858031</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.324102539435809</v>
+        <v>5.324102539435907</v>
       </c>
       <c r="D10">
-        <v>7.011958350862617</v>
+        <v>7.011958350862618</v>
       </c>
       <c r="E10">
-        <v>24.23853163798486</v>
+        <v>24.23853163798494</v>
       </c>
       <c r="F10">
-        <v>47.84104712952665</v>
+        <v>47.84104712952754</v>
       </c>
       <c r="G10">
-        <v>36.30587971844448</v>
+        <v>36.3058797184452</v>
       </c>
       <c r="H10">
-        <v>34.63023149081344</v>
+        <v>34.63023149081407</v>
       </c>
       <c r="I10">
-        <v>17.5969269010876</v>
+        <v>17.59692690108769</v>
       </c>
       <c r="J10">
-        <v>129.08882679279</v>
+        <v>129.0888267927903</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.73370821793959</v>
+        <v>5.733708217939596</v>
       </c>
       <c r="D11">
-        <v>7.478699601883782</v>
+        <v>7.47869960188378</v>
       </c>
       <c r="E11">
-        <v>25.53834216879226</v>
+        <v>25.53834216879221</v>
       </c>
       <c r="F11">
-        <v>51.79938177862226</v>
+        <v>51.79938177862201</v>
       </c>
       <c r="G11">
-        <v>39.45945948196977</v>
+        <v>39.45945948196955</v>
       </c>
       <c r="H11">
-        <v>37.51781880913016</v>
+        <v>37.51781880912998</v>
       </c>
       <c r="I11">
-        <v>18.633455118556</v>
+        <v>18.63345511855594</v>
       </c>
       <c r="J11">
-        <v>135.1277309296349</v>
+        <v>135.1277309296348</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.899401344122443</v>
+        <v>5.899401344122636</v>
       </c>
       <c r="D12">
-        <v>7.666332987724419</v>
+        <v>7.666332987724475</v>
       </c>
       <c r="E12">
         <v>26.04858188078807</v>
@@ -807,13 +807,13 @@
         <v>53.39444191535539</v>
       </c>
       <c r="G12">
-        <v>40.73120816902547</v>
+        <v>40.73120816902549</v>
       </c>
       <c r="H12">
-        <v>38.68051859475231</v>
+        <v>38.68051859475226</v>
       </c>
       <c r="I12">
-        <v>19.04459747575477</v>
+        <v>19.04459747575476</v>
       </c>
       <c r="J12">
         <v>137.463109880061</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.863152560702994</v>
+        <v>5.863152560702882</v>
       </c>
       <c r="D13">
-        <v>7.625340983544262</v>
+        <v>7.625340983544159</v>
       </c>
       <c r="E13">
-        <v>25.93769235102482</v>
+        <v>25.93769235102489</v>
       </c>
       <c r="F13">
-        <v>53.04582352085044</v>
+        <v>53.04582352085016</v>
       </c>
       <c r="G13">
-        <v>40.45320394717674</v>
+        <v>40.45320394717648</v>
       </c>
       <c r="H13">
-        <v>38.4264351436229</v>
+        <v>38.42643514362269</v>
       </c>
       <c r="I13">
-        <v>18.95503473987036</v>
+        <v>18.95503473987041</v>
       </c>
       <c r="J13">
-        <v>136.9573307877641</v>
+        <v>136.9573307877639</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.747095453064216</v>
+        <v>5.747095453063907</v>
       </c>
       <c r="D14">
-        <v>7.493884219008991</v>
+        <v>7.493884219008942</v>
       </c>
       <c r="E14">
-        <v>25.57988969786847</v>
+        <v>25.5798896978685</v>
       </c>
       <c r="F14">
-        <v>51.92839773211531</v>
+        <v>51.92839773211519</v>
       </c>
       <c r="G14">
-        <v>39.56230317789532</v>
+        <v>39.56230317789522</v>
       </c>
       <c r="H14">
-        <v>37.61188033890891</v>
+        <v>37.61188033890892</v>
       </c>
       <c r="I14">
-        <v>18.66684166984224</v>
+        <v>18.66684166984226</v>
       </c>
       <c r="J14">
-        <v>135.318663452151</v>
+        <v>135.3186634521508</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.677547407322133</v>
+        <v>5.677547407322256</v>
       </c>
       <c r="D15">
-        <v>7.414950916815119</v>
+        <v>7.414950916815136</v>
       </c>
       <c r="E15">
-        <v>25.36341808468833</v>
+        <v>25.36341808468842</v>
       </c>
       <c r="F15">
-        <v>51.25788363303908</v>
+        <v>51.25788363303978</v>
       </c>
       <c r="G15">
-        <v>39.02785047822325</v>
+        <v>39.02785047822377</v>
       </c>
       <c r="H15">
-        <v>37.12299493432557</v>
+        <v>37.12299493432603</v>
       </c>
       <c r="I15">
-        <v>18.49306684056778</v>
+        <v>18.49306684056786</v>
       </c>
       <c r="J15">
-        <v>134.322396775537</v>
+        <v>134.3223967755374</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.298546311033363</v>
+        <v>5.298546311033291</v>
       </c>
       <c r="D16">
-        <v>6.982697508191794</v>
+        <v>6.982697508191812</v>
       </c>
       <c r="E16">
-        <v>24.15553732326077</v>
+        <v>24.1555373232608</v>
       </c>
       <c r="F16">
-        <v>47.59345206901497</v>
+        <v>47.59345206901482</v>
       </c>
       <c r="G16">
-        <v>36.10873209017029</v>
+        <v>36.10873209017019</v>
       </c>
       <c r="H16">
-        <v>34.44948929916571</v>
+        <v>34.44948929916562</v>
       </c>
       <c r="I16">
         <v>17.53125539424762</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.079985451598072</v>
+        <v>5.079985451597953</v>
       </c>
       <c r="D17">
-        <v>6.731765290130149</v>
+        <v>6.731765290130085</v>
       </c>
       <c r="E17">
-        <v>23.43622016678417</v>
+        <v>23.43622016678414</v>
       </c>
       <c r="F17">
-        <v>45.47357340962213</v>
+        <v>45.47357340962197</v>
       </c>
       <c r="G17">
-        <v>34.42127199165456</v>
+        <v>34.42127199165441</v>
       </c>
       <c r="H17">
-        <v>32.90128894002044</v>
+        <v>32.90128894002033</v>
       </c>
       <c r="I17">
-        <v>16.96456058866567</v>
+        <v>16.96456058866563</v>
       </c>
       <c r="J17">
-        <v>125.3011870532191</v>
+        <v>125.301187053219</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.958291363645872</v>
+        <v>4.958291363646082</v>
       </c>
       <c r="D18">
-        <v>6.591503400775932</v>
+        <v>6.591503400775968</v>
       </c>
       <c r="E18">
         <v>23.02810705462458</v>
       </c>
       <c r="F18">
-        <v>44.29167485692007</v>
+        <v>44.29167485691995</v>
       </c>
       <c r="G18">
-        <v>33.48082385077304</v>
+        <v>33.48082385077296</v>
       </c>
       <c r="H18">
-        <v>32.03750708665564</v>
+        <v>32.03750708665554</v>
       </c>
       <c r="I18">
         <v>16.64498047315968</v>
       </c>
       <c r="J18">
-        <v>123.3579603425423</v>
+        <v>123.3579603425422</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.917692510062391</v>
+        <v>4.917692510062579</v>
       </c>
       <c r="D19">
-        <v>6.544622031733901</v>
+        <v>6.544622031733896</v>
       </c>
       <c r="E19">
-        <v>22.89071212122004</v>
+        <v>22.89071212122001</v>
       </c>
       <c r="F19">
-        <v>43.89718660223507</v>
+        <v>43.89718660223493</v>
       </c>
       <c r="G19">
-        <v>33.16697974221597</v>
+        <v>33.16697974221589</v>
       </c>
       <c r="H19">
-        <v>31.74908944244908</v>
+        <v>31.74908944244899</v>
       </c>
       <c r="I19">
-        <v>16.5377004695429</v>
+        <v>16.53770046954285</v>
       </c>
       <c r="J19">
-        <v>122.7013199088672</v>
+        <v>122.7013199088668</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.102814667364653</v>
+        <v>5.102814667364659</v>
       </c>
       <c r="D20">
-        <v>6.758034037268436</v>
+        <v>6.758034037268327</v>
       </c>
       <c r="E20">
-        <v>23.51216614098641</v>
+        <v>23.51216614098634</v>
       </c>
       <c r="F20">
-        <v>45.69518187389919</v>
+        <v>45.69518187389876</v>
       </c>
       <c r="G20">
-        <v>34.59763603230952</v>
+        <v>34.59763603230914</v>
       </c>
       <c r="H20">
-        <v>33.06319832294608</v>
+        <v>33.06319832294572</v>
       </c>
       <c r="I20">
-        <v>17.02418481008093</v>
+        <v>17.02418481008084</v>
       </c>
       <c r="J20">
-        <v>125.6615914166795</v>
+        <v>125.6615914166792</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,28 +1137,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.780852004384482</v>
+        <v>5.780852004384577</v>
       </c>
       <c r="D21">
-        <v>7.532153595851154</v>
+        <v>7.532153595851156</v>
       </c>
       <c r="E21">
-        <v>25.6843998403452</v>
+        <v>25.68439984034524</v>
       </c>
       <c r="F21">
-        <v>52.25360847636678</v>
+        <v>52.25360847636718</v>
       </c>
       <c r="G21">
-        <v>39.8215580220651</v>
+        <v>39.8215580220654</v>
       </c>
       <c r="H21">
-        <v>37.84896779241086</v>
+        <v>37.84896779241112</v>
       </c>
       <c r="I21">
-        <v>18.75089486175753</v>
+        <v>18.75089486175754</v>
       </c>
       <c r="J21">
-        <v>135.7983454863896</v>
+        <v>135.7983454863899</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.290056672359833</v>
+        <v>6.290056672359827</v>
       </c>
       <c r="D22">
-        <v>8.106122911809956</v>
+        <v>8.106122911809898</v>
       </c>
       <c r="E22">
-        <v>27.21853986248923</v>
+        <v>27.218539862489</v>
       </c>
       <c r="F22">
-        <v>57.13877005733171</v>
+        <v>57.13877005733055</v>
       </c>
       <c r="G22">
-        <v>43.71887082816725</v>
+        <v>43.71887082816633</v>
       </c>
       <c r="H22">
-        <v>41.40833624134049</v>
+        <v>41.40833624133965</v>
       </c>
       <c r="I22">
-        <v>19.99684877067857</v>
+        <v>19.9968487706784</v>
       </c>
       <c r="J22">
-        <v>142.7367986773899</v>
+        <v>142.7367986773893</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.010072841513013</v>
+        <v>6.01007284151312</v>
       </c>
       <c r="D23">
-        <v>7.79129128664367</v>
+        <v>7.791291286643666</v>
       </c>
       <c r="E23">
-        <v>26.38464108698125</v>
+        <v>26.38464108698128</v>
       </c>
       <c r="F23">
-        <v>54.4576092102661</v>
+        <v>54.4576092102662</v>
       </c>
       <c r="G23">
-        <v>41.57919791696641</v>
+        <v>41.57919791696644</v>
       </c>
       <c r="H23">
-        <v>39.45526510279332</v>
+        <v>39.45526510279339</v>
       </c>
       <c r="I23">
-        <v>19.31674621132862</v>
+        <v>19.31674621132863</v>
       </c>
       <c r="J23">
         <v>138.9897844835455</v>
@@ -1251,28 +1251,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.09248150092672</v>
+        <v>5.092481500926601</v>
       </c>
       <c r="D24">
-        <v>6.74614573839985</v>
+        <v>6.746145738399843</v>
       </c>
       <c r="E24">
-        <v>23.47781458658451</v>
+        <v>23.47781458658445</v>
       </c>
       <c r="F24">
-        <v>45.59488014202018</v>
+        <v>45.59488014201968</v>
       </c>
       <c r="G24">
-        <v>34.51781115811774</v>
+        <v>34.5178111581173</v>
       </c>
       <c r="H24">
-        <v>32.98991880186447</v>
+        <v>32.98991880186414</v>
       </c>
       <c r="I24">
-        <v>16.99720983315522</v>
+        <v>16.9972098331552</v>
       </c>
       <c r="J24">
-        <v>125.498622455621</v>
+        <v>125.4986224556207</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.25500320472335</v>
+        <v>4.255003204723338</v>
       </c>
       <c r="D25">
-        <v>5.772889738955614</v>
+        <v>5.772889738955535</v>
       </c>
       <c r="E25">
-        <v>20.5547567341535</v>
+        <v>20.55475673415342</v>
       </c>
       <c r="F25">
-        <v>37.45610191306762</v>
+        <v>37.45610191306728</v>
       </c>
       <c r="G25">
-        <v>28.04557976121824</v>
+        <v>28.04557976121793</v>
       </c>
       <c r="H25">
-        <v>27.02987383322793</v>
+        <v>27.02987383322764</v>
       </c>
       <c r="I25">
-        <v>14.73650543373225</v>
+        <v>14.73650543373218</v>
       </c>
       <c r="J25">
-        <v>111.3606030640743</v>
+        <v>111.360603064074</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_line/loading_percent.xlsx
@@ -415,25 +415,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.693593752173213</v>
+        <v>3.693593752173219</v>
       </c>
       <c r="D2">
-        <v>5.108849224387349</v>
+        <v>5.108849224387411</v>
       </c>
       <c r="E2">
-        <v>18.42536800029112</v>
+        <v>18.42536800029107</v>
       </c>
       <c r="F2">
-        <v>32.0349173614285</v>
+        <v>32.03491736142831</v>
       </c>
       <c r="G2">
-        <v>23.73624524526307</v>
+        <v>23.73624524526296</v>
       </c>
       <c r="H2">
-        <v>23.03541977081773</v>
+        <v>23.03541977081764</v>
       </c>
       <c r="I2">
-        <v>13.12936178930071</v>
+        <v>13.12936178930069</v>
       </c>
       <c r="J2">
         <v>100.7562100298965</v>
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.327737183175274</v>
+        <v>3.327737183175261</v>
       </c>
       <c r="D3">
-        <v>4.670601498259439</v>
+        <v>4.67060149825939</v>
       </c>
       <c r="E3">
-        <v>16.95495623001482</v>
+        <v>16.95495623001486</v>
       </c>
       <c r="F3">
-        <v>28.5570471796188</v>
+        <v>28.55704717961893</v>
       </c>
       <c r="G3">
-        <v>20.96886974795614</v>
+        <v>20.96886974795624</v>
       </c>
       <c r="H3">
-        <v>20.45403319250295</v>
+        <v>20.45403319250305</v>
       </c>
       <c r="I3">
-        <v>12.03721108878226</v>
+        <v>12.03721108878229</v>
       </c>
       <c r="J3">
-        <v>93.29894286961718</v>
+        <v>93.29894286961729</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.106050042469863</v>
+        <v>3.106050042469952</v>
       </c>
       <c r="D4">
-        <v>4.402817895852851</v>
+        <v>4.402817895852844</v>
       </c>
       <c r="E4">
-        <v>16.02976397450299</v>
+        <v>16.02976397450297</v>
       </c>
       <c r="F4">
-        <v>26.48783384107036</v>
+        <v>26.4878338410703</v>
       </c>
       <c r="G4">
-        <v>19.3197481958965</v>
+        <v>19.31974819589642</v>
       </c>
       <c r="H4">
-        <v>18.90734784190629</v>
+        <v>18.90734784190622</v>
       </c>
       <c r="I4">
-        <v>11.35692392490339</v>
+        <v>11.35692392490338</v>
       </c>
       <c r="J4">
-        <v>88.55372954584426</v>
+        <v>88.55372954584406</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.01596098203869</v>
+        <v>3.015960982038854</v>
       </c>
       <c r="D5">
-        <v>4.2935032571637</v>
+        <v>4.293503257163796</v>
       </c>
       <c r="E5">
-        <v>15.64609786855321</v>
+        <v>15.6460978685532</v>
       </c>
       <c r="F5">
-        <v>25.65826771915264</v>
+        <v>25.65826771915272</v>
       </c>
       <c r="G5">
-        <v>18.65775605001468</v>
+        <v>18.65775605001478</v>
       </c>
       <c r="H5">
-        <v>18.28424665725798</v>
+        <v>18.28424665725807</v>
       </c>
       <c r="I5">
-        <v>11.07631968653964</v>
+        <v>11.07631968653967</v>
       </c>
       <c r="J5">
-        <v>86.57429367627859</v>
+        <v>86.5742936762787</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,28 +567,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.001004342229735</v>
+        <v>3.001004342229653</v>
       </c>
       <c r="D6">
-        <v>4.275326976985607</v>
+        <v>4.275326976985515</v>
       </c>
       <c r="E6">
-        <v>15.5819631954789</v>
+        <v>15.58196319547895</v>
       </c>
       <c r="F6">
-        <v>25.52127810620084</v>
+        <v>25.52127810620116</v>
       </c>
       <c r="G6">
-        <v>18.54838229074834</v>
+        <v>18.54838229074865</v>
       </c>
       <c r="H6">
-        <v>18.18115902104421</v>
+        <v>18.18115902104451</v>
       </c>
       <c r="I6">
-        <v>11.02949743801065</v>
+        <v>11.02949743801066</v>
       </c>
       <c r="J6">
-        <v>86.24274834979839</v>
+        <v>86.24274834979859</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,28 +605,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.104834634819542</v>
+        <v>3.104834634819555</v>
       </c>
       <c r="D7">
-        <v>4.40134501955519</v>
+        <v>4.401345019555233</v>
       </c>
       <c r="E7">
-        <v>16.02461781551664</v>
+        <v>16.02461781551669</v>
       </c>
       <c r="F7">
-        <v>26.47659384238282</v>
+        <v>26.47659384238275</v>
       </c>
       <c r="G7">
-        <v>19.31078237882967</v>
+        <v>19.31078237882966</v>
       </c>
       <c r="H7">
         <v>18.89891802758034</v>
       </c>
       <c r="I7">
-        <v>11.35315439312365</v>
+        <v>11.35315439312373</v>
       </c>
       <c r="J7">
-        <v>88.52722391615116</v>
+        <v>88.52722391615117</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,28 +643,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.566503503020599</v>
+        <v>3.566503503020511</v>
       </c>
       <c r="D8">
-        <v>4.95712185926813</v>
+        <v>4.957121859268</v>
       </c>
       <c r="E8">
-        <v>17.92232143953478</v>
+        <v>17.92232143953485</v>
       </c>
       <c r="F8">
-        <v>30.81980701644027</v>
+        <v>30.81980701644044</v>
       </c>
       <c r="G8">
-        <v>22.76981245980447</v>
+        <v>22.76981245980458</v>
       </c>
       <c r="H8">
-        <v>22.13566248698312</v>
+        <v>22.13566248698319</v>
       </c>
       <c r="I8">
-        <v>12.7541659392006</v>
+        <v>12.75416593920061</v>
       </c>
       <c r="J8">
-        <v>98.21690176307037</v>
+        <v>98.21690176307045</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.52504385582448</v>
+        <v>4.525043855824379</v>
       </c>
       <c r="D9">
-        <v>6.088875745494687</v>
+        <v>6.088875745494626</v>
       </c>
       <c r="E9">
-        <v>21.52851981075049</v>
+        <v>21.52851981075048</v>
       </c>
       <c r="F9">
-        <v>40.07963800799119</v>
+        <v>40.07963800799132</v>
       </c>
       <c r="G9">
-        <v>30.13104519423019</v>
+        <v>30.13104519423027</v>
       </c>
       <c r="H9">
-        <v>28.954671254764</v>
+        <v>28.95467125476413</v>
       </c>
       <c r="I9">
         <v>15.48225318013658</v>
       </c>
       <c r="J9">
-        <v>116.1274073858031</v>
+        <v>116.127407385803</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.324102539435907</v>
+        <v>5.324102539435809</v>
       </c>
       <c r="D10">
-        <v>7.011958350862618</v>
+        <v>7.011958350862617</v>
       </c>
       <c r="E10">
-        <v>24.23853163798494</v>
+        <v>24.23853163798486</v>
       </c>
       <c r="F10">
-        <v>47.84104712952754</v>
+        <v>47.84104712952665</v>
       </c>
       <c r="G10">
-        <v>36.3058797184452</v>
+        <v>36.30587971844448</v>
       </c>
       <c r="H10">
-        <v>34.63023149081407</v>
+        <v>34.63023149081344</v>
       </c>
       <c r="I10">
-        <v>17.59692690108769</v>
+        <v>17.5969269010876</v>
       </c>
       <c r="J10">
-        <v>129.0888267927903</v>
+        <v>129.08882679279</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.733708217939596</v>
+        <v>5.73370821793959</v>
       </c>
       <c r="D11">
-        <v>7.47869960188378</v>
+        <v>7.478699601883782</v>
       </c>
       <c r="E11">
-        <v>25.53834216879221</v>
+        <v>25.53834216879226</v>
       </c>
       <c r="F11">
-        <v>51.79938177862201</v>
+        <v>51.79938177862226</v>
       </c>
       <c r="G11">
-        <v>39.45945948196955</v>
+        <v>39.45945948196977</v>
       </c>
       <c r="H11">
-        <v>37.51781880912998</v>
+        <v>37.51781880913016</v>
       </c>
       <c r="I11">
-        <v>18.63345511855594</v>
+        <v>18.633455118556</v>
       </c>
       <c r="J11">
-        <v>135.1277309296348</v>
+        <v>135.1277309296349</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.899401344122636</v>
+        <v>5.899401344122443</v>
       </c>
       <c r="D12">
-        <v>7.666332987724475</v>
+        <v>7.666332987724419</v>
       </c>
       <c r="E12">
         <v>26.04858188078807</v>
@@ -807,13 +807,13 @@
         <v>53.39444191535539</v>
       </c>
       <c r="G12">
-        <v>40.73120816902549</v>
+        <v>40.73120816902547</v>
       </c>
       <c r="H12">
-        <v>38.68051859475226</v>
+        <v>38.68051859475231</v>
       </c>
       <c r="I12">
-        <v>19.04459747575476</v>
+        <v>19.04459747575477</v>
       </c>
       <c r="J12">
         <v>137.463109880061</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.863152560702882</v>
+        <v>5.863152560702994</v>
       </c>
       <c r="D13">
-        <v>7.625340983544159</v>
+        <v>7.625340983544262</v>
       </c>
       <c r="E13">
-        <v>25.93769235102489</v>
+        <v>25.93769235102482</v>
       </c>
       <c r="F13">
-        <v>53.04582352085016</v>
+        <v>53.04582352085044</v>
       </c>
       <c r="G13">
-        <v>40.45320394717648</v>
+        <v>40.45320394717674</v>
       </c>
       <c r="H13">
-        <v>38.42643514362269</v>
+        <v>38.4264351436229</v>
       </c>
       <c r="I13">
-        <v>18.95503473987041</v>
+        <v>18.95503473987036</v>
       </c>
       <c r="J13">
-        <v>136.9573307877639</v>
+        <v>136.9573307877641</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.747095453063907</v>
+        <v>5.747095453064216</v>
       </c>
       <c r="D14">
-        <v>7.493884219008942</v>
+        <v>7.493884219008991</v>
       </c>
       <c r="E14">
-        <v>25.5798896978685</v>
+        <v>25.57988969786847</v>
       </c>
       <c r="F14">
-        <v>51.92839773211519</v>
+        <v>51.92839773211531</v>
       </c>
       <c r="G14">
-        <v>39.56230317789522</v>
+        <v>39.56230317789532</v>
       </c>
       <c r="H14">
-        <v>37.61188033890892</v>
+        <v>37.61188033890891</v>
       </c>
       <c r="I14">
-        <v>18.66684166984226</v>
+        <v>18.66684166984224</v>
       </c>
       <c r="J14">
-        <v>135.3186634521508</v>
+        <v>135.318663452151</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.677547407322256</v>
+        <v>5.677547407322133</v>
       </c>
       <c r="D15">
-        <v>7.414950916815136</v>
+        <v>7.414950916815119</v>
       </c>
       <c r="E15">
-        <v>25.36341808468842</v>
+        <v>25.36341808468833</v>
       </c>
       <c r="F15">
-        <v>51.25788363303978</v>
+        <v>51.25788363303908</v>
       </c>
       <c r="G15">
-        <v>39.02785047822377</v>
+        <v>39.02785047822325</v>
       </c>
       <c r="H15">
-        <v>37.12299493432603</v>
+        <v>37.12299493432557</v>
       </c>
       <c r="I15">
-        <v>18.49306684056786</v>
+        <v>18.49306684056778</v>
       </c>
       <c r="J15">
-        <v>134.3223967755374</v>
+        <v>134.322396775537</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.298546311033291</v>
+        <v>5.298546311033363</v>
       </c>
       <c r="D16">
-        <v>6.982697508191812</v>
+        <v>6.982697508191794</v>
       </c>
       <c r="E16">
-        <v>24.1555373232608</v>
+        <v>24.15553732326077</v>
       </c>
       <c r="F16">
-        <v>47.59345206901482</v>
+        <v>47.59345206901497</v>
       </c>
       <c r="G16">
-        <v>36.10873209017019</v>
+        <v>36.10873209017029</v>
       </c>
       <c r="H16">
-        <v>34.44948929916562</v>
+        <v>34.44948929916571</v>
       </c>
       <c r="I16">
         <v>17.53125539424762</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.079985451597953</v>
+        <v>5.079985451598072</v>
       </c>
       <c r="D17">
-        <v>6.731765290130085</v>
+        <v>6.731765290130149</v>
       </c>
       <c r="E17">
-        <v>23.43622016678414</v>
+        <v>23.43622016678417</v>
       </c>
       <c r="F17">
-        <v>45.47357340962197</v>
+        <v>45.47357340962213</v>
       </c>
       <c r="G17">
-        <v>34.42127199165441</v>
+        <v>34.42127199165456</v>
       </c>
       <c r="H17">
-        <v>32.90128894002033</v>
+        <v>32.90128894002044</v>
       </c>
       <c r="I17">
-        <v>16.96456058866563</v>
+        <v>16.96456058866567</v>
       </c>
       <c r="J17">
-        <v>125.301187053219</v>
+        <v>125.3011870532191</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.958291363646082</v>
+        <v>4.958291363645872</v>
       </c>
       <c r="D18">
-        <v>6.591503400775968</v>
+        <v>6.591503400775932</v>
       </c>
       <c r="E18">
         <v>23.02810705462458</v>
       </c>
       <c r="F18">
-        <v>44.29167485691995</v>
+        <v>44.29167485692007</v>
       </c>
       <c r="G18">
-        <v>33.48082385077296</v>
+        <v>33.48082385077304</v>
       </c>
       <c r="H18">
-        <v>32.03750708665554</v>
+        <v>32.03750708665564</v>
       </c>
       <c r="I18">
         <v>16.64498047315968</v>
       </c>
       <c r="J18">
-        <v>123.3579603425422</v>
+        <v>123.3579603425423</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.917692510062579</v>
+        <v>4.917692510062391</v>
       </c>
       <c r="D19">
-        <v>6.544622031733896</v>
+        <v>6.544622031733901</v>
       </c>
       <c r="E19">
-        <v>22.89071212122001</v>
+        <v>22.89071212122004</v>
       </c>
       <c r="F19">
-        <v>43.89718660223493</v>
+        <v>43.89718660223507</v>
       </c>
       <c r="G19">
-        <v>33.16697974221589</v>
+        <v>33.16697974221597</v>
       </c>
       <c r="H19">
-        <v>31.74908944244899</v>
+        <v>31.74908944244908</v>
       </c>
       <c r="I19">
-        <v>16.53770046954285</v>
+        <v>16.5377004695429</v>
       </c>
       <c r="J19">
-        <v>122.7013199088668</v>
+        <v>122.7013199088672</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.102814667364659</v>
+        <v>5.102814667364653</v>
       </c>
       <c r="D20">
-        <v>6.758034037268327</v>
+        <v>6.758034037268436</v>
       </c>
       <c r="E20">
-        <v>23.51216614098634</v>
+        <v>23.51216614098641</v>
       </c>
       <c r="F20">
-        <v>45.69518187389876</v>
+        <v>45.69518187389919</v>
       </c>
       <c r="G20">
-        <v>34.59763603230914</v>
+        <v>34.59763603230952</v>
       </c>
       <c r="H20">
-        <v>33.06319832294572</v>
+        <v>33.06319832294608</v>
       </c>
       <c r="I20">
-        <v>17.02418481008084</v>
+        <v>17.02418481008093</v>
       </c>
       <c r="J20">
-        <v>125.6615914166792</v>
+        <v>125.6615914166795</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,28 +1137,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.780852004384577</v>
+        <v>5.780852004384482</v>
       </c>
       <c r="D21">
-        <v>7.532153595851156</v>
+        <v>7.532153595851154</v>
       </c>
       <c r="E21">
-        <v>25.68439984034524</v>
+        <v>25.6843998403452</v>
       </c>
       <c r="F21">
-        <v>52.25360847636718</v>
+        <v>52.25360847636678</v>
       </c>
       <c r="G21">
-        <v>39.8215580220654</v>
+        <v>39.8215580220651</v>
       </c>
       <c r="H21">
-        <v>37.84896779241112</v>
+        <v>37.84896779241086</v>
       </c>
       <c r="I21">
-        <v>18.75089486175754</v>
+        <v>18.75089486175753</v>
       </c>
       <c r="J21">
-        <v>135.7983454863899</v>
+        <v>135.7983454863896</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.290056672359827</v>
+        <v>6.290056672359833</v>
       </c>
       <c r="D22">
-        <v>8.106122911809898</v>
+        <v>8.106122911809956</v>
       </c>
       <c r="E22">
-        <v>27.218539862489</v>
+        <v>27.21853986248923</v>
       </c>
       <c r="F22">
-        <v>57.13877005733055</v>
+        <v>57.13877005733171</v>
       </c>
       <c r="G22">
-        <v>43.71887082816633</v>
+        <v>43.71887082816725</v>
       </c>
       <c r="H22">
-        <v>41.40833624133965</v>
+        <v>41.40833624134049</v>
       </c>
       <c r="I22">
-        <v>19.9968487706784</v>
+        <v>19.99684877067857</v>
       </c>
       <c r="J22">
-        <v>142.7367986773893</v>
+        <v>142.7367986773899</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.01007284151312</v>
+        <v>6.010072841513013</v>
       </c>
       <c r="D23">
-        <v>7.791291286643666</v>
+        <v>7.79129128664367</v>
       </c>
       <c r="E23">
-        <v>26.38464108698128</v>
+        <v>26.38464108698125</v>
       </c>
       <c r="F23">
-        <v>54.4576092102662</v>
+        <v>54.4576092102661</v>
       </c>
       <c r="G23">
-        <v>41.57919791696644</v>
+        <v>41.57919791696641</v>
       </c>
       <c r="H23">
-        <v>39.45526510279339</v>
+        <v>39.45526510279332</v>
       </c>
       <c r="I23">
-        <v>19.31674621132863</v>
+        <v>19.31674621132862</v>
       </c>
       <c r="J23">
         <v>138.9897844835455</v>
@@ -1251,28 +1251,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.092481500926601</v>
+        <v>5.09248150092672</v>
       </c>
       <c r="D24">
-        <v>6.746145738399843</v>
+        <v>6.74614573839985</v>
       </c>
       <c r="E24">
-        <v>23.47781458658445</v>
+        <v>23.47781458658451</v>
       </c>
       <c r="F24">
-        <v>45.59488014201968</v>
+        <v>45.59488014202018</v>
       </c>
       <c r="G24">
-        <v>34.5178111581173</v>
+        <v>34.51781115811774</v>
       </c>
       <c r="H24">
-        <v>32.98991880186414</v>
+        <v>32.98991880186447</v>
       </c>
       <c r="I24">
-        <v>16.9972098331552</v>
+        <v>16.99720983315522</v>
       </c>
       <c r="J24">
-        <v>125.4986224556207</v>
+        <v>125.498622455621</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.255003204723338</v>
+        <v>4.25500320472335</v>
       </c>
       <c r="D25">
-        <v>5.772889738955535</v>
+        <v>5.772889738955614</v>
       </c>
       <c r="E25">
-        <v>20.55475673415342</v>
+        <v>20.5547567341535</v>
       </c>
       <c r="F25">
-        <v>37.45610191306728</v>
+        <v>37.45610191306762</v>
       </c>
       <c r="G25">
-        <v>28.04557976121793</v>
+        <v>28.04557976121824</v>
       </c>
       <c r="H25">
-        <v>27.02987383322764</v>
+        <v>27.02987383322793</v>
       </c>
       <c r="I25">
-        <v>14.73650543373218</v>
+        <v>14.73650543373225</v>
       </c>
       <c r="J25">
-        <v>111.360603064074</v>
+        <v>111.3606030640743</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.693593752173219</v>
+        <v>3.694037230855423</v>
       </c>
       <c r="D2">
-        <v>5.108849224387411</v>
+        <v>5.109188269202843</v>
       </c>
       <c r="E2">
-        <v>18.42536800029107</v>
+        <v>18.42530929417178</v>
       </c>
       <c r="F2">
-        <v>32.03491736142831</v>
+        <v>32.01230311741941</v>
       </c>
       <c r="G2">
-        <v>23.73624524526296</v>
+        <v>23.7733018601326</v>
       </c>
       <c r="H2">
-        <v>23.03541977081764</v>
+        <v>22.83172147538268</v>
       </c>
       <c r="I2">
-        <v>13.12936178930069</v>
+        <v>23.01839360050938</v>
       </c>
       <c r="J2">
-        <v>100.7562100298965</v>
+        <v>13.12725986393141</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>100.7517253626617</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.327737183175261</v>
+        <v>3.328543748372904</v>
       </c>
       <c r="D3">
-        <v>4.67060149825939</v>
+        <v>4.671345925308349</v>
       </c>
       <c r="E3">
-        <v>16.95495623001486</v>
+        <v>16.95513748746351</v>
       </c>
       <c r="F3">
-        <v>28.55704717961893</v>
+        <v>28.5374091615902</v>
       </c>
       <c r="G3">
-        <v>20.96886974795624</v>
+        <v>21.00188718361275</v>
       </c>
       <c r="H3">
-        <v>20.45403319250305</v>
+        <v>20.17459161224868</v>
       </c>
       <c r="I3">
-        <v>12.03721108878229</v>
+        <v>20.43922326789719</v>
       </c>
       <c r="J3">
-        <v>93.29894286961729</v>
+        <v>12.03549132986698</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>93.29566323445339</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.106050042469952</v>
+        <v>3.10704943287593</v>
       </c>
       <c r="D4">
-        <v>4.402817895852844</v>
+        <v>4.403778815136993</v>
       </c>
       <c r="E4">
-        <v>16.02976397450297</v>
+        <v>16.03005962741878</v>
       </c>
       <c r="F4">
-        <v>26.4878338410703</v>
+        <v>26.46986289531678</v>
       </c>
       <c r="G4">
-        <v>19.31974819589642</v>
+        <v>19.35031368252631</v>
       </c>
       <c r="H4">
-        <v>18.90734784190622</v>
+        <v>18.61098628490629</v>
       </c>
       <c r="I4">
-        <v>11.35692392490338</v>
+        <v>18.89378247733835</v>
       </c>
       <c r="J4">
-        <v>88.55372954584406</v>
+        <v>11.35541059883388</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>88.55108066809873</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.015960982038854</v>
+        <v>3.017032726659645</v>
       </c>
       <c r="D5">
-        <v>4.293503257163796</v>
+        <v>4.294545853458359</v>
       </c>
       <c r="E5">
-        <v>15.6460978685532</v>
+        <v>15.64643378408687</v>
       </c>
       <c r="F5">
-        <v>25.65826771915272</v>
+        <v>25.64094514730812</v>
       </c>
       <c r="G5">
-        <v>18.65775605001478</v>
+        <v>18.6873317064501</v>
       </c>
       <c r="H5">
-        <v>18.28424665725807</v>
+        <v>17.98878854735465</v>
       </c>
       <c r="I5">
-        <v>11.07631968653967</v>
+        <v>18.27116605412805</v>
       </c>
       <c r="J5">
-        <v>86.5742936762787</v>
+        <v>11.07488531616772</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>86.57188114012447</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.001004342229653</v>
+        <v>3.002087757856313</v>
       </c>
       <c r="D6">
-        <v>4.275326976985515</v>
+        <v>4.276382779845307</v>
       </c>
       <c r="E6">
-        <v>15.58196319547895</v>
+        <v>15.5823054583683</v>
       </c>
       <c r="F6">
-        <v>25.52127810620116</v>
+        <v>25.50406154300177</v>
       </c>
       <c r="G6">
-        <v>18.54838229074865</v>
+        <v>18.57779421975204</v>
       </c>
       <c r="H6">
-        <v>18.18115902104451</v>
+        <v>17.88633625301631</v>
       </c>
       <c r="I6">
-        <v>11.02949743801066</v>
+        <v>18.16815771695793</v>
       </c>
       <c r="J6">
-        <v>86.24274834979859</v>
+        <v>11.02807591180422</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>86.24037396856158</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.104834634819555</v>
+        <v>3.105835024706374</v>
       </c>
       <c r="D7">
-        <v>4.401345019555233</v>
+        <v>4.402307065036223</v>
       </c>
       <c r="E7">
-        <v>16.02461781551669</v>
+        <v>16.02491403503219</v>
       </c>
       <c r="F7">
-        <v>26.47659384238275</v>
+        <v>26.45863175606469</v>
       </c>
       <c r="G7">
-        <v>19.31078237882966</v>
+        <v>19.34133447533558</v>
       </c>
       <c r="H7">
-        <v>18.89891802758034</v>
+        <v>18.60253645836211</v>
       </c>
       <c r="I7">
-        <v>11.35315439312373</v>
+        <v>18.88535928399883</v>
       </c>
       <c r="J7">
-        <v>88.52722391615117</v>
+        <v>11.35164215066975</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>88.52457830211151</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.566503503020511</v>
+        <v>3.567079368703215</v>
       </c>
       <c r="D8">
-        <v>4.957121859268</v>
+        <v>4.957608519141931</v>
       </c>
       <c r="E8">
-        <v>17.92232143953485</v>
+        <v>17.92235368470643</v>
       </c>
       <c r="F8">
-        <v>30.81980701644044</v>
+        <v>30.79825896457911</v>
       </c>
       <c r="G8">
-        <v>22.76981245980458</v>
+        <v>22.80547195806998</v>
       </c>
       <c r="H8">
-        <v>22.13566248698319</v>
+        <v>21.89985719953565</v>
       </c>
       <c r="I8">
-        <v>12.75416593920061</v>
+        <v>22.11942950036156</v>
       </c>
       <c r="J8">
-        <v>98.21690176307045</v>
+        <v>12.75220301186816</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>98.2128600205223</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.525043855824379</v>
+        <v>4.524455972255537</v>
       </c>
       <c r="D9">
-        <v>6.088875745494626</v>
+        <v>6.08806626053852</v>
       </c>
       <c r="E9">
-        <v>21.52851981075048</v>
+        <v>21.52763442684589</v>
       </c>
       <c r="F9">
-        <v>40.07963800799132</v>
+        <v>40.04910901088338</v>
       </c>
       <c r="G9">
-        <v>30.13104519423027</v>
+        <v>30.1768032451167</v>
       </c>
       <c r="H9">
-        <v>28.95467125476413</v>
+        <v>29.0688312406566</v>
       </c>
       <c r="I9">
-        <v>15.48225318013658</v>
+        <v>28.93177761524489</v>
       </c>
       <c r="J9">
-        <v>116.127407385803</v>
+        <v>15.47904505662661</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>116.1192855187826</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.324102539435809</v>
+        <v>5.322228047738005</v>
       </c>
       <c r="D10">
-        <v>7.011958350862617</v>
+        <v>7.009716280438568</v>
       </c>
       <c r="E10">
-        <v>24.23853163798486</v>
+        <v>24.23636124251056</v>
       </c>
       <c r="F10">
-        <v>47.84104712952665</v>
+        <v>47.80097164136008</v>
       </c>
       <c r="G10">
-        <v>36.30587971844448</v>
+        <v>36.35865681827056</v>
       </c>
       <c r="H10">
-        <v>34.63023149081344</v>
+        <v>35.16127386614859</v>
       </c>
       <c r="I10">
-        <v>17.5969269010876</v>
+        <v>34.60029553955216</v>
       </c>
       <c r="J10">
-        <v>129.08882679279</v>
+        <v>17.59222258642508</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>129.0756556230269</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.73370821793959</v>
+        <v>5.731036600792515</v>
       </c>
       <c r="D11">
-        <v>7.478699601883782</v>
+        <v>7.475571688378234</v>
       </c>
       <c r="E11">
-        <v>25.53834216879226</v>
+        <v>25.5352521532036</v>
       </c>
       <c r="F11">
-        <v>51.79938177862226</v>
+        <v>51.7533843903054</v>
       </c>
       <c r="G11">
-        <v>39.45945948196977</v>
+        <v>39.51501157342903</v>
       </c>
       <c r="H11">
-        <v>37.51781880913016</v>
+        <v>38.28767376636755</v>
       </c>
       <c r="I11">
-        <v>18.633455118556</v>
+        <v>37.48352784169664</v>
       </c>
       <c r="J11">
-        <v>135.1277309296349</v>
+        <v>18.62774652460553</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>135.1111545448122</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.899401344122443</v>
+        <v>5.896374929771741</v>
       </c>
       <c r="D12">
-        <v>7.666332987724419</v>
+        <v>7.662811596555133</v>
       </c>
       <c r="E12">
-        <v>26.04858188078807</v>
+        <v>26.04505490211177</v>
       </c>
       <c r="F12">
-        <v>53.39444191535539</v>
+        <v>53.3457923994678</v>
       </c>
       <c r="G12">
-        <v>40.73120816902547</v>
+        <v>40.78767117455618</v>
       </c>
       <c r="H12">
-        <v>38.68051859475231</v>
+        <v>39.55044850258817</v>
       </c>
       <c r="I12">
-        <v>19.04459747575477</v>
+        <v>38.64427988497446</v>
       </c>
       <c r="J12">
-        <v>137.463109880061</v>
+        <v>19.03842273916978</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>137.4449545834968</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.863152560702994</v>
+        <v>5.860205512653089</v>
       </c>
       <c r="D13">
-        <v>7.625340983544262</v>
+        <v>7.621907560758759</v>
       </c>
       <c r="E13">
-        <v>25.93769235102482</v>
+        <v>25.93426453655944</v>
       </c>
       <c r="F13">
-        <v>53.04582352085044</v>
+        <v>52.99776832549716</v>
       </c>
       <c r="G13">
-        <v>40.45320394717674</v>
+        <v>40.5094793670026</v>
       </c>
       <c r="H13">
-        <v>38.4264351436229</v>
+        <v>39.27432111514114</v>
       </c>
       <c r="I13">
-        <v>18.95503473987036</v>
+        <v>38.39063277733246</v>
       </c>
       <c r="J13">
-        <v>136.9573307877641</v>
+        <v>18.94896528660151</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>136.9395319331237</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.747095453064216</v>
+        <v>5.744395913109421</v>
       </c>
       <c r="D14">
-        <v>7.493884219008991</v>
+        <v>7.490725318056166</v>
       </c>
       <c r="E14">
-        <v>25.57988969786847</v>
+        <v>25.57676589072744</v>
       </c>
       <c r="F14">
-        <v>51.92839773211531</v>
+        <v>51.8821920453306</v>
       </c>
       <c r="G14">
-        <v>39.56230317789532</v>
+        <v>39.61793381976804</v>
       </c>
       <c r="H14">
-        <v>37.61188033890891</v>
+        <v>38.38975372403231</v>
       </c>
       <c r="I14">
-        <v>18.66684166984224</v>
+        <v>37.57743634028026</v>
       </c>
       <c r="J14">
-        <v>135.318663452151</v>
+        <v>18.66109681342186</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>135.3019641752874</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.677547407322133</v>
+        <v>5.674991561637102</v>
       </c>
       <c r="D15">
-        <v>7.414950916815119</v>
+        <v>7.411951516108878</v>
       </c>
       <c r="E15">
-        <v>25.36341808468833</v>
+        <v>25.36046706345089</v>
       </c>
       <c r="F15">
-        <v>51.25788363303908</v>
+        <v>51.21274915304959</v>
       </c>
       <c r="G15">
-        <v>39.02785047822325</v>
+        <v>39.08306401186093</v>
       </c>
       <c r="H15">
-        <v>37.12299493432557</v>
+        <v>37.85934712223062</v>
       </c>
       <c r="I15">
-        <v>18.49306684056778</v>
+        <v>37.08933802647777</v>
       </c>
       <c r="J15">
-        <v>134.322396775537</v>
+        <v>18.487507818307</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>134.3063273740298</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.298546311033363</v>
+        <v>5.296718136388852</v>
       </c>
       <c r="D16">
-        <v>6.982697508191794</v>
+        <v>6.98050697042874</v>
       </c>
       <c r="E16">
-        <v>24.15553732326077</v>
+        <v>24.15341759632828</v>
       </c>
       <c r="F16">
-        <v>47.59345206901497</v>
+        <v>47.55371959182192</v>
       </c>
       <c r="G16">
-        <v>36.10873209017029</v>
+        <v>36.1613144082092</v>
       </c>
       <c r="H16">
-        <v>34.44948929916571</v>
+        <v>34.96609586335582</v>
       </c>
       <c r="I16">
-        <v>17.53125539424762</v>
+        <v>34.41980588000811</v>
       </c>
       <c r="J16">
-        <v>128.6990734462437</v>
+        <v>17.52660758776837</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>128.6860938322783</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.079985451598072</v>
+        <v>5.078538503214312</v>
       </c>
       <c r="D17">
-        <v>6.731765290130149</v>
+        <v>6.729999079874455</v>
       </c>
       <c r="E17">
-        <v>23.43622016678417</v>
+        <v>23.4345053939497</v>
       </c>
       <c r="F17">
-        <v>45.47357340962213</v>
+        <v>45.43666262529166</v>
       </c>
       <c r="G17">
-        <v>34.42127199165456</v>
+        <v>34.47209847156705</v>
       </c>
       <c r="H17">
-        <v>32.90128894002044</v>
+        <v>33.29702474088608</v>
       </c>
       <c r="I17">
-        <v>16.96456058866567</v>
+        <v>32.87368420963077</v>
       </c>
       <c r="J17">
-        <v>125.3011870532191</v>
+        <v>16.96037021915632</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>125.2897568200345</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.958291363645872</v>
+        <v>4.957045664642802</v>
       </c>
       <c r="D18">
-        <v>6.591503400775932</v>
+        <v>6.589961285097673</v>
       </c>
       <c r="E18">
-        <v>23.02810705462458</v>
+        <v>23.02659715035834</v>
       </c>
       <c r="F18">
-        <v>44.29167485692007</v>
+        <v>44.25625403025283</v>
       </c>
       <c r="G18">
-        <v>33.48082385077304</v>
+        <v>33.53060812604654</v>
       </c>
       <c r="H18">
-        <v>32.03750708665564</v>
+        <v>32.36813078337495</v>
       </c>
       <c r="I18">
-        <v>16.64498047315968</v>
+        <v>32.01100097317948</v>
       </c>
       <c r="J18">
-        <v>123.3579603425423</v>
+        <v>16.64102612302192</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>123.3473281121286</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.917692510062391</v>
+        <v>4.916512277163236</v>
       </c>
       <c r="D19">
-        <v>6.544622031733901</v>
+        <v>6.543152822382166</v>
       </c>
       <c r="E19">
-        <v>22.89071212122004</v>
+        <v>22.88926749985016</v>
       </c>
       <c r="F19">
-        <v>43.89718660223507</v>
+        <v>43.86225078670136</v>
       </c>
       <c r="G19">
-        <v>33.16697974221597</v>
+        <v>33.21640688336657</v>
       </c>
       <c r="H19">
-        <v>31.74908944244908</v>
+        <v>32.05837164370926</v>
       </c>
       <c r="I19">
-        <v>16.5377004695429</v>
+        <v>31.72294110875732</v>
       </c>
       <c r="J19">
-        <v>122.7013199088672</v>
+        <v>16.53382209532485</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>122.6909442612728</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.102814667364653</v>
+        <v>5.101329109276131</v>
       </c>
       <c r="D20">
-        <v>6.758034037268436</v>
+        <v>6.756224840329168</v>
       </c>
       <c r="E20">
-        <v>23.51216614098641</v>
+        <v>23.51041135112489</v>
       </c>
       <c r="F20">
-        <v>45.69518187389919</v>
+        <v>45.65798534259145</v>
       </c>
       <c r="G20">
-        <v>34.59763603230952</v>
+        <v>34.64865310018023</v>
       </c>
       <c r="H20">
-        <v>33.06319832294608</v>
+        <v>33.47133127750896</v>
       </c>
       <c r="I20">
-        <v>17.02418481008093</v>
+        <v>33.03538297875055</v>
       </c>
       <c r="J20">
-        <v>125.6615914166795</v>
+        <v>17.01994873175659</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>125.6500065012911</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.780852004384482</v>
+        <v>5.778081488223388</v>
       </c>
       <c r="D21">
-        <v>7.532153595851154</v>
+        <v>7.528915943981031</v>
       </c>
       <c r="E21">
-        <v>25.6843998403452</v>
+        <v>25.68118967506198</v>
       </c>
       <c r="F21">
-        <v>52.25360847636678</v>
+        <v>52.20687300541616</v>
       </c>
       <c r="G21">
-        <v>39.8215580220651</v>
+        <v>39.877382968361</v>
       </c>
       <c r="H21">
-        <v>37.84896779241086</v>
+        <v>38.64711387923663</v>
       </c>
       <c r="I21">
-        <v>18.75089486175753</v>
+        <v>37.81413461918429</v>
       </c>
       <c r="J21">
-        <v>135.7983454863896</v>
+        <v>18.74505750388133</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>135.7813327697065</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.290056672359833</v>
+        <v>6.286105598865936</v>
       </c>
       <c r="D22">
-        <v>8.106122911809956</v>
+        <v>8.101579074934364</v>
       </c>
       <c r="E22">
-        <v>27.21853986248923</v>
+        <v>27.21380034718418</v>
       </c>
       <c r="F22">
-        <v>57.13877005733171</v>
+        <v>57.08314646566706</v>
       </c>
       <c r="G22">
-        <v>43.71887082816725</v>
+        <v>43.77688285073533</v>
       </c>
       <c r="H22">
-        <v>41.40833624134049</v>
+        <v>42.52054126446037</v>
       </c>
       <c r="I22">
-        <v>19.99684877067857</v>
+        <v>41.36698229449534</v>
       </c>
       <c r="J22">
-        <v>142.7367986773899</v>
+        <v>19.98940569538756</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>142.7143600274425</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.010072841513013</v>
+        <v>6.00679773375034</v>
       </c>
       <c r="D23">
-        <v>7.79129128664367</v>
+        <v>7.787494449129738</v>
       </c>
       <c r="E23">
-        <v>26.38464108698125</v>
+        <v>26.38079821180826</v>
       </c>
       <c r="F23">
-        <v>54.4576092102661</v>
+        <v>54.40709320872907</v>
       </c>
       <c r="G23">
-        <v>41.57919791696641</v>
+        <v>41.63619052132446</v>
       </c>
       <c r="H23">
-        <v>39.45526510279332</v>
+        <v>40.39298666652672</v>
       </c>
       <c r="I23">
-        <v>19.31674621132862</v>
+        <v>39.4176565041574</v>
       </c>
       <c r="J23">
-        <v>138.9897844835455</v>
+        <v>19.31023784550222</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>138.9705004592874</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.09248150092672</v>
+        <v>5.091013452769582</v>
       </c>
       <c r="D24">
-        <v>6.74614573839985</v>
+        <v>6.744356036130003</v>
       </c>
       <c r="E24">
-        <v>23.47781458658451</v>
+        <v>23.47607797308848</v>
       </c>
       <c r="F24">
-        <v>45.59488014202018</v>
+        <v>45.55781319809871</v>
       </c>
       <c r="G24">
-        <v>34.51781115811774</v>
+        <v>34.56874215879478</v>
       </c>
       <c r="H24">
-        <v>32.98991880186447</v>
+        <v>33.39243352996887</v>
       </c>
       <c r="I24">
-        <v>16.99720983315522</v>
+        <v>32.96219896870265</v>
       </c>
       <c r="J24">
-        <v>125.498622455621</v>
+        <v>16.99299450147598</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>125.487107753295</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.25500320472335</v>
+        <v>4.254782270279695</v>
       </c>
       <c r="D25">
-        <v>5.772889738955614</v>
+        <v>5.772488875519943</v>
       </c>
       <c r="E25">
-        <v>20.5547567341535</v>
+        <v>20.55418803228676</v>
       </c>
       <c r="F25">
-        <v>37.45610191306762</v>
+        <v>37.42833583620816</v>
       </c>
       <c r="G25">
-        <v>28.04557976121824</v>
+        <v>28.08862366133181</v>
       </c>
       <c r="H25">
-        <v>27.02987383322793</v>
+        <v>27.02404099794186</v>
       </c>
       <c r="I25">
-        <v>14.73650543373225</v>
+        <v>27.00902481652684</v>
       </c>
       <c r="J25">
-        <v>111.3606030640743</v>
+        <v>14.73369818962873</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>111.3538159894442</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.694037230855423</v>
+        <v>5.835959495987815</v>
       </c>
       <c r="D2">
-        <v>5.109188269202843</v>
+        <v>7.347182436722381</v>
       </c>
       <c r="E2">
-        <v>18.42530929417178</v>
+        <v>5.771983079955499</v>
       </c>
       <c r="F2">
-        <v>32.01230311741941</v>
+        <v>67.4139383322874</v>
       </c>
       <c r="G2">
-        <v>23.7733018601326</v>
+        <v>2.09801662672465</v>
       </c>
       <c r="H2">
-        <v>22.83172147538268</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>23.01839360050938</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>13.12725986393141</v>
+        <v>5.951128382860871</v>
       </c>
       <c r="K2">
-        <v>100.7517253626617</v>
+        <v>57.97834028715185</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.327509303786299</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>38.32911711322765</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.328543748372904</v>
+        <v>5.805388438788913</v>
       </c>
       <c r="D3">
-        <v>4.671345925308349</v>
+        <v>6.934768633428801</v>
       </c>
       <c r="E3">
-        <v>16.95513748746351</v>
+        <v>5.678076140859162</v>
       </c>
       <c r="F3">
-        <v>28.5374091615902</v>
+        <v>64.56672283951319</v>
       </c>
       <c r="G3">
-        <v>21.00188718361275</v>
+        <v>2.133748141813844</v>
       </c>
       <c r="H3">
-        <v>20.17459161224868</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>20.43922326789719</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>12.03549132986698</v>
+        <v>6.141270580916943</v>
       </c>
       <c r="K3">
-        <v>93.29566323445339</v>
+        <v>54.1100391984781</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.134206533981508</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>36.08572890785128</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.10704943287593</v>
+        <v>5.793613271209044</v>
       </c>
       <c r="D4">
-        <v>4.403778815136993</v>
+        <v>6.707265517654061</v>
       </c>
       <c r="E4">
-        <v>16.03005962741878</v>
+        <v>5.623287722996028</v>
       </c>
       <c r="F4">
-        <v>26.46986289531678</v>
+        <v>63.00206357407255</v>
       </c>
       <c r="G4">
-        <v>19.35031368252631</v>
+        <v>2.155233772100419</v>
       </c>
       <c r="H4">
-        <v>18.61098628490629</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>18.89378247733835</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>11.35541059883388</v>
+        <v>6.258118356229829</v>
       </c>
       <c r="K4">
-        <v>88.55108066809873</v>
+        <v>51.72464041575719</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.017865953464101</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>34.71664060496279</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.017032726659645</v>
+        <v>5.790382329705355</v>
       </c>
       <c r="D5">
-        <v>4.294545853458359</v>
+        <v>6.620240238102751</v>
       </c>
       <c r="E5">
-        <v>15.64643378408687</v>
+        <v>5.601520973368356</v>
       </c>
       <c r="F5">
-        <v>25.64094514730812</v>
+        <v>62.40498464861302</v>
       </c>
       <c r="G5">
-        <v>18.6873317064501</v>
+        <v>2.163927065453693</v>
       </c>
       <c r="H5">
-        <v>17.98878854735465</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>18.27116605412805</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>11.07488531616772</v>
+        <v>6.305896219525494</v>
       </c>
       <c r="K5">
-        <v>86.57188114012447</v>
+        <v>50.74783140439925</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>4.970840946673925</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>34.15962849436042</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.002087757856313</v>
+        <v>5.789935629742405</v>
       </c>
       <c r="D6">
-        <v>4.276382779845307</v>
+        <v>6.606113257082767</v>
       </c>
       <c r="E6">
-        <v>15.5823054583683</v>
+        <v>5.597936442524093</v>
       </c>
       <c r="F6">
-        <v>25.50406154300177</v>
+        <v>62.30814536376802</v>
       </c>
       <c r="G6">
-        <v>18.57779421975204</v>
+        <v>2.165368108569926</v>
       </c>
       <c r="H6">
-        <v>17.88633625301631</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>18.16815771695793</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>11.02807591180422</v>
+        <v>6.31384299111146</v>
       </c>
       <c r="K6">
-        <v>86.24037396856158</v>
+        <v>50.58530045124441</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4.963050725311235</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>34.06716654577779</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.105835024706374</v>
+        <v>5.793563575737805</v>
       </c>
       <c r="D7">
-        <v>4.402307065036223</v>
+        <v>6.706069762985764</v>
       </c>
       <c r="E7">
-        <v>16.02491403503219</v>
+        <v>5.62299208699675</v>
       </c>
       <c r="F7">
-        <v>26.45863175606469</v>
+        <v>62.99385362903325</v>
       </c>
       <c r="G7">
-        <v>19.34133447533558</v>
+        <v>2.155351205355797</v>
       </c>
       <c r="H7">
-        <v>18.60253645836211</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>18.88535928399883</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>11.35164215066975</v>
+        <v>6.258761888499887</v>
       </c>
       <c r="K7">
-        <v>88.52457830211151</v>
+        <v>51.71148822213356</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.017230432010183</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>34.70912608663967</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.567079368703215</v>
+        <v>5.823837631201141</v>
       </c>
       <c r="D8">
-        <v>4.957608519141931</v>
+        <v>7.199110325920636</v>
       </c>
       <c r="E8">
-        <v>17.92235368470643</v>
+        <v>5.738896551159038</v>
       </c>
       <c r="F8">
-        <v>30.79825896457911</v>
+        <v>66.39031772668508</v>
       </c>
       <c r="G8">
-        <v>22.80547195806998</v>
+        <v>2.110466497252277</v>
       </c>
       <c r="H8">
-        <v>21.89985719953565</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>22.11942950036156</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>12.75220301186816</v>
+        <v>6.016759051878559</v>
       </c>
       <c r="K8">
-        <v>98.2128600205223</v>
+        <v>56.6450624752292</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.260227731185926</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>37.55295204821706</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.524455972255537</v>
+        <v>5.950461832043645</v>
       </c>
       <c r="D9">
-        <v>6.08806626053852</v>
+        <v>8.590057561765468</v>
       </c>
       <c r="E9">
-        <v>21.52763442684589</v>
+        <v>5.999525602145281</v>
       </c>
       <c r="F9">
-        <v>40.04910901088338</v>
+        <v>74.8610017226143</v>
       </c>
       <c r="G9">
-        <v>30.1768032451167</v>
+        <v>2.015526299848758</v>
       </c>
       <c r="H9">
-        <v>29.0688312406566</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>28.93177761524489</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>15.47904505662661</v>
+        <v>5.535073092775615</v>
       </c>
       <c r="K9">
-        <v>116.1192855187826</v>
+        <v>66.5554040029138</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.769145603310911</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>43.29144144864613</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.322228047738005</v>
+        <v>6.110179663626866</v>
       </c>
       <c r="D10">
-        <v>7.009716280438568</v>
+        <v>10.0433734004791</v>
       </c>
       <c r="E10">
-        <v>24.23636124251056</v>
+        <v>6.236122521998115</v>
       </c>
       <c r="F10">
-        <v>47.80097164136008</v>
+        <v>83.04888699310816</v>
       </c>
       <c r="G10">
-        <v>36.35865681827056</v>
+        <v>1.93393056930731</v>
       </c>
       <c r="H10">
-        <v>35.16127386614859</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>34.60029553955216</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>17.59222258642508</v>
+        <v>5.161249445805739</v>
       </c>
       <c r="K10">
-        <v>129.0756556230269</v>
+        <v>74.66564865381959</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.195586019629852</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>48.49295542881369</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.731036600792515</v>
+        <v>6.20896720963581</v>
       </c>
       <c r="D11">
-        <v>7.475571688378234</v>
+        <v>10.80631169347909</v>
       </c>
       <c r="E11">
-        <v>25.5352521532036</v>
+        <v>6.365672108431077</v>
       </c>
       <c r="F11">
-        <v>51.7533843903054</v>
+        <v>87.84462094434394</v>
       </c>
       <c r="G11">
-        <v>39.51501157342903</v>
+        <v>1.890608577374289</v>
       </c>
       <c r="H11">
-        <v>38.28767376636755</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>37.48352784169664</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>18.62774652460553</v>
+        <v>4.980880084393966</v>
       </c>
       <c r="K11">
-        <v>135.1111545448122</v>
+        <v>78.66668159549326</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.417062589516889</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>51.10622518956453</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.896374929771741</v>
+        <v>6.252222242757666</v>
       </c>
       <c r="D12">
-        <v>7.662811596555133</v>
+        <v>11.12111109043787</v>
       </c>
       <c r="E12">
-        <v>26.04505490211177</v>
+        <v>6.42016918445926</v>
       </c>
       <c r="F12">
-        <v>53.3457923994678</v>
+        <v>89.85010622633943</v>
       </c>
       <c r="G12">
-        <v>40.78767117455618</v>
+        <v>1.872640032160528</v>
       </c>
       <c r="H12">
-        <v>39.55044850258817</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>38.64427988497446</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>19.03842273916978</v>
+        <v>4.910182916895269</v>
       </c>
       <c r="K12">
-        <v>137.4449545834968</v>
+        <v>80.26827538313539</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.507897666568328</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>52.15121851928831</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.860205512653089</v>
+        <v>6.242591130997891</v>
       </c>
       <c r="D13">
-        <v>7.621907560758759</v>
+        <v>11.05185824519803</v>
       </c>
       <c r="E13">
-        <v>25.93426453655944</v>
+        <v>6.408128177831395</v>
       </c>
       <c r="F13">
-        <v>52.99776832549716</v>
+        <v>89.40775697982779</v>
       </c>
       <c r="G13">
-        <v>40.5094793670026</v>
+        <v>1.876597463444256</v>
       </c>
       <c r="H13">
-        <v>39.27432111514114</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>38.39063277733246</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>18.94896528660151</v>
+        <v>4.925537322780931</v>
       </c>
       <c r="K13">
-        <v>136.9395319331237</v>
+        <v>79.91837469476054</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.487943363022505</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>51.92297185462817</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.744395913109421</v>
+        <v>6.212389716313045</v>
       </c>
       <c r="D14">
-        <v>7.490725318056166</v>
+        <v>10.83158779527415</v>
       </c>
       <c r="E14">
-        <v>25.57676589072744</v>
+        <v>6.370025379623143</v>
       </c>
       <c r="F14">
-        <v>51.8821920453306</v>
+        <v>88.00513110561896</v>
       </c>
       <c r="G14">
-        <v>39.61793381976804</v>
+        <v>1.889167796360682</v>
       </c>
       <c r="H14">
-        <v>38.38975372403231</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>37.57743634028026</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>18.66109681342186</v>
+        <v>4.975119383502355</v>
       </c>
       <c r="K14">
-        <v>135.3019641752874</v>
+        <v>78.79632883248728</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.424368185069803</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>51.19083942529195</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.674991561637102</v>
+        <v>6.194745464300524</v>
       </c>
       <c r="D15">
-        <v>7.411951516108878</v>
+        <v>10.70054945421376</v>
       </c>
       <c r="E15">
-        <v>25.36046706345089</v>
+        <v>6.347499328594548</v>
       </c>
       <c r="F15">
-        <v>51.21274915304959</v>
+        <v>87.17403670457003</v>
       </c>
       <c r="G15">
-        <v>39.08306401186093</v>
+        <v>1.896633435003109</v>
       </c>
       <c r="H15">
-        <v>37.85934712223062</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>37.08933802647777</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>18.487507818307</v>
+        <v>5.005140017460222</v>
       </c>
       <c r="K15">
-        <v>134.3063273740298</v>
+        <v>78.12219947230929</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.386471161393954</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>50.7508246491434</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.296718136388852</v>
+        <v>6.104391483829965</v>
       </c>
       <c r="D16">
-        <v>6.98050697042874</v>
+        <v>9.996318810626295</v>
       </c>
       <c r="E16">
-        <v>24.15341759632828</v>
+        <v>6.228250455632232</v>
       </c>
       <c r="F16">
-        <v>47.55371959182192</v>
+        <v>82.75657813826622</v>
       </c>
       <c r="G16">
-        <v>36.1613144082092</v>
+        <v>1.936591676587804</v>
       </c>
       <c r="H16">
-        <v>34.96609586335582</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>34.41980588000811</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>17.52660758776837</v>
+        <v>5.172764195795719</v>
       </c>
       <c r="K16">
-        <v>128.6860938322783</v>
+        <v>74.41324858425521</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.181867555332825</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>48.32797074424566</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.078538503214312</v>
+        <v>6.056688263190434</v>
       </c>
       <c r="D17">
-        <v>6.729999079874455</v>
+        <v>9.59583879010296</v>
       </c>
       <c r="E17">
-        <v>23.4345053939497</v>
+        <v>6.161814076450697</v>
       </c>
       <c r="F17">
-        <v>45.43666262529166</v>
+        <v>80.42324064839261</v>
       </c>
       <c r="G17">
-        <v>34.47209847156705</v>
+        <v>1.959188345016386</v>
       </c>
       <c r="H17">
-        <v>33.29702474088608</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>32.87368420963077</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>16.96037021915632</v>
+        <v>5.272464893922183</v>
       </c>
       <c r="K17">
-        <v>125.2897568200345</v>
+        <v>72.23803311253334</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.064851603432525</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>46.90546567969169</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.957045664642802</v>
+        <v>6.03153558906573</v>
       </c>
       <c r="D18">
-        <v>6.589961285097673</v>
+        <v>9.374128034560188</v>
       </c>
       <c r="E18">
-        <v>23.02659715035834</v>
+        <v>6.125471782565993</v>
       </c>
       <c r="F18">
-        <v>44.25625403025283</v>
+        <v>79.16769624035706</v>
       </c>
       <c r="G18">
-        <v>33.53060812604654</v>
+        <v>1.971657912429685</v>
       </c>
       <c r="H18">
-        <v>32.36813078337495</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>32.01100097317948</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>16.64102612302192</v>
+        <v>5.328912771822158</v>
       </c>
       <c r="K18">
-        <v>123.3473281121286</v>
+        <v>71.01272684237212</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.999879964432838</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>46.10364721592387</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.916512277163236</v>
+        <v>6.023371547139529</v>
       </c>
       <c r="D19">
-        <v>6.543152822382166</v>
+        <v>9.300332107941649</v>
       </c>
       <c r="E19">
-        <v>22.88926749985016</v>
+        <v>6.113445434144397</v>
       </c>
       <c r="F19">
-        <v>43.86225078670136</v>
+        <v>78.75321920935363</v>
       </c>
       <c r="G19">
-        <v>33.21640688336657</v>
+        <v>1.975801998601922</v>
       </c>
       <c r="H19">
-        <v>32.05837164370926</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>31.72294110875732</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>16.53382209532485</v>
+        <v>5.347890459111812</v>
       </c>
       <c r="K19">
-        <v>122.6909442612728</v>
+        <v>70.60150813836272</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.978225808297554</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>45.83446825532564</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.101329109276131</v>
+        <v>6.061519694329557</v>
       </c>
       <c r="D20">
-        <v>6.756224840329168</v>
+        <v>9.637523223872854</v>
       </c>
       <c r="E20">
-        <v>23.51041135112489</v>
+        <v>6.168681948535911</v>
       </c>
       <c r="F20">
-        <v>45.65798534259145</v>
+        <v>80.66096606581047</v>
       </c>
       <c r="G20">
-        <v>34.64865310018023</v>
+        <v>1.956840697803893</v>
       </c>
       <c r="H20">
-        <v>33.47133127750896</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>33.03538297875055</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>17.01994873175659</v>
+        <v>5.261949326393035</v>
       </c>
       <c r="K20">
-        <v>125.6500065012911</v>
+        <v>72.46671686765859</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.077052355423677</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>47.05507069550458</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.778081488223388</v>
+        <v>6.221075574079582</v>
       </c>
       <c r="D21">
-        <v>7.528915943981031</v>
+        <v>10.89543951328103</v>
       </c>
       <c r="E21">
-        <v>25.68118967506198</v>
+        <v>6.381039935699158</v>
       </c>
       <c r="F21">
-        <v>52.20687300541616</v>
+        <v>88.41102072005992</v>
       </c>
       <c r="G21">
-        <v>39.877382968361</v>
+        <v>1.88552660089455</v>
       </c>
       <c r="H21">
-        <v>38.64711387923663</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>37.81413461918429</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>18.74505750388133</v>
+        <v>4.960631505089034</v>
       </c>
       <c r="K21">
-        <v>135.7813327697065</v>
+        <v>79.12301991151644</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.442813938792022</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>51.40403620243498</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.286105598865936</v>
+        <v>6.362455564060407</v>
       </c>
       <c r="D22">
-        <v>8.101579074934364</v>
+        <v>11.88533013555263</v>
       </c>
       <c r="E22">
-        <v>27.21380034718418</v>
+        <v>6.555009380137886</v>
       </c>
       <c r="F22">
-        <v>57.08314646566706</v>
+        <v>94.76871262574321</v>
       </c>
       <c r="G22">
-        <v>43.77688285073533</v>
+        <v>1.82880692890899</v>
       </c>
       <c r="H22">
-        <v>42.52054126446037</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>41.36698229449534</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>19.98940569538756</v>
+        <v>4.748648616847653</v>
       </c>
       <c r="K22">
-        <v>142.7143600274425</v>
+        <v>84.03957157609315</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.72699911818991</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>54.60937486277076</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.00679773375034</v>
+        <v>6.282227958083106</v>
       </c>
       <c r="D23">
-        <v>7.787494449129738</v>
+        <v>11.33405964587449</v>
       </c>
       <c r="E23">
-        <v>26.38079821180826</v>
+        <v>6.457379264666217</v>
       </c>
       <c r="F23">
-        <v>54.40709320872907</v>
+        <v>91.21410949614869</v>
       </c>
       <c r="G23">
-        <v>41.63619052132446</v>
+        <v>1.860455493492547</v>
       </c>
       <c r="H23">
-        <v>40.39298666652672</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>39.4176565041574</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>19.31023784550222</v>
+        <v>4.863691618215536</v>
       </c>
       <c r="K23">
-        <v>138.9705004592874</v>
+        <v>81.33565693932621</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.56915365155296</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>52.8473054779333</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.091013452769582</v>
+        <v>6.059328451384308</v>
       </c>
       <c r="D24">
-        <v>6.744356036130003</v>
+        <v>9.618651788600545</v>
       </c>
       <c r="E24">
-        <v>23.47607797308848</v>
+        <v>6.165571347465801</v>
       </c>
       <c r="F24">
-        <v>45.55781319809871</v>
+        <v>80.55327895147859</v>
       </c>
       <c r="G24">
-        <v>34.56874215879478</v>
+        <v>1.957903653679898</v>
       </c>
       <c r="H24">
-        <v>33.39243352996887</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>32.96219896870265</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>16.99299450147598</v>
+        <v>5.266706070519231</v>
       </c>
       <c r="K24">
-        <v>125.487107753295</v>
+        <v>72.3632527597415</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.071529402760904</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>46.98738603825951</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.254782270279695</v>
+        <v>5.906999236484997</v>
       </c>
       <c r="D25">
-        <v>5.772488875519943</v>
+        <v>8.104278090206432</v>
       </c>
       <c r="E25">
-        <v>20.55418803228676</v>
+        <v>5.923589365211817</v>
       </c>
       <c r="F25">
-        <v>37.42833583620816</v>
+        <v>72.3140420338984</v>
       </c>
       <c r="G25">
-        <v>28.08862366133181</v>
+        <v>2.042530816024781</v>
       </c>
       <c r="H25">
-        <v>27.02404099794186</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>27.00902481652684</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>14.73369818962873</v>
+        <v>5.667447427471956</v>
       </c>
       <c r="K25">
-        <v>111.3538159894442</v>
+        <v>63.72446571426944</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.625554391025001</v>
       </c>
       <c r="M25">
+        <v>41.70383537452086</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.835959495987815</v>
+        <v>7.367698469070376</v>
       </c>
       <c r="D2">
-        <v>7.347182436722381</v>
+        <v>6.099984111143248</v>
       </c>
       <c r="E2">
-        <v>5.771983079955499</v>
+        <v>8.130316088128211</v>
       </c>
       <c r="F2">
-        <v>67.4139383322874</v>
+        <v>21.20425140853218</v>
       </c>
       <c r="G2">
-        <v>2.09801662672465</v>
+        <v>23.63710054448897</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.242864243197566</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16.01890631821182</v>
       </c>
       <c r="J2">
-        <v>5.951128382860871</v>
+        <v>5.745115672528515</v>
       </c>
       <c r="K2">
-        <v>57.97834028715185</v>
+        <v>16.87316338942859</v>
       </c>
       <c r="L2">
-        <v>5.327509303786299</v>
+        <v>5.842563284634702</v>
       </c>
       <c r="M2">
-        <v>38.32911711322765</v>
+        <v>13.87217748261214</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>12.91573269924399</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>15.22089637345919</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.805388438788913</v>
+        <v>7.136726454932056</v>
       </c>
       <c r="D3">
-        <v>6.934768633428801</v>
+        <v>5.936595394365026</v>
       </c>
       <c r="E3">
-        <v>5.678076140859162</v>
+        <v>8.086896849284367</v>
       </c>
       <c r="F3">
-        <v>64.56672283951319</v>
+        <v>20.99954530439202</v>
       </c>
       <c r="G3">
-        <v>2.133748141813844</v>
+        <v>23.30926015794317</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.291401953925673</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>15.94237719738312</v>
       </c>
       <c r="J3">
-        <v>6.141270580916943</v>
+        <v>5.788499725783607</v>
       </c>
       <c r="K3">
-        <v>54.1100391984781</v>
+        <v>15.79602344379548</v>
       </c>
       <c r="L3">
-        <v>5.134206533981508</v>
+        <v>5.877701910405195</v>
       </c>
       <c r="M3">
-        <v>36.08572890785128</v>
+        <v>13.20877885504392</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>12.96616991376126</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>15.21193030904061</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.793613271209044</v>
+        <v>6.994097745290712</v>
       </c>
       <c r="D4">
-        <v>6.707265517654061</v>
+        <v>5.836024229944319</v>
       </c>
       <c r="E4">
-        <v>5.623287722996028</v>
+        <v>8.063473374435116</v>
       </c>
       <c r="F4">
-        <v>63.00206357407255</v>
+        <v>20.88994630817093</v>
       </c>
       <c r="G4">
-        <v>2.155233772100419</v>
+        <v>23.13099124330085</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.326701089801141</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>15.90724508881825</v>
       </c>
       <c r="J4">
-        <v>6.258118356229829</v>
+        <v>5.816518043375801</v>
       </c>
       <c r="K4">
-        <v>51.72464041575719</v>
+        <v>15.09536918321242</v>
       </c>
       <c r="L4">
-        <v>5.017865953464101</v>
+        <v>5.900746094913758</v>
       </c>
       <c r="M4">
-        <v>34.71664060496279</v>
+        <v>12.7865811739754</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>13.00062032008176</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>15.21863806396394</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.790382329705355</v>
+        <v>6.935859725734963</v>
       </c>
       <c r="D5">
-        <v>6.620240238102751</v>
+        <v>5.795035720356766</v>
       </c>
       <c r="E5">
-        <v>5.601520973368356</v>
+        <v>8.054736085652021</v>
       </c>
       <c r="F5">
-        <v>62.40498464861302</v>
+        <v>20.84926670877428</v>
       </c>
       <c r="G5">
-        <v>2.163927065453693</v>
+        <v>23.06405420072284</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.342424303689409</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15.89583636051529</v>
       </c>
       <c r="J5">
-        <v>6.305896219525494</v>
+        <v>5.828281749570598</v>
       </c>
       <c r="K5">
-        <v>50.74783140439925</v>
+        <v>14.79996380661938</v>
       </c>
       <c r="L5">
-        <v>4.970840946673925</v>
+        <v>5.910503466548245</v>
       </c>
       <c r="M5">
-        <v>34.15962849436042</v>
+        <v>12.61099926607902</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>13.01551822518226</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>15.22433968842056</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.789935629742405</v>
+        <v>6.92618504532942</v>
       </c>
       <c r="D6">
-        <v>6.606113257082767</v>
+        <v>5.788231050965127</v>
       </c>
       <c r="E6">
-        <v>5.597936442524093</v>
+        <v>8.053333874301186</v>
       </c>
       <c r="F6">
-        <v>62.30814536376802</v>
+        <v>20.84275037766713</v>
       </c>
       <c r="G6">
-        <v>2.165368108569926</v>
+        <v>23.05328134129418</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.345114722458501</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15.89411533067089</v>
       </c>
       <c r="J6">
-        <v>6.31384299111146</v>
+        <v>5.830255973687292</v>
       </c>
       <c r="K6">
-        <v>50.58530045124441</v>
+        <v>14.75031512491759</v>
       </c>
       <c r="L6">
-        <v>4.963050725311235</v>
+        <v>5.912145741827656</v>
       </c>
       <c r="M6">
-        <v>34.06716654577779</v>
+        <v>12.58163731673367</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>13.01804343317188</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>15.22546266195884</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.793563575737805</v>
+        <v>6.993312674702605</v>
       </c>
       <c r="D7">
-        <v>6.706069762985764</v>
+        <v>5.835471386257499</v>
       </c>
       <c r="E7">
-        <v>5.62299208699675</v>
+        <v>8.063352277302196</v>
       </c>
       <c r="F7">
-        <v>62.99385362903325</v>
+        <v>20.88938165424726</v>
       </c>
       <c r="G7">
-        <v>2.155351205355797</v>
+        <v>23.13006551560647</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9.326907775676013</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>15.9070795536714</v>
       </c>
       <c r="J7">
-        <v>6.258761888499887</v>
+        <v>5.816675293139289</v>
       </c>
       <c r="K7">
-        <v>51.71148822213356</v>
+        <v>15.09142525800397</v>
       </c>
       <c r="L7">
-        <v>5.017230432010183</v>
+        <v>5.900876204987441</v>
       </c>
       <c r="M7">
-        <v>34.70912608663967</v>
+        <v>12.78422722318769</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>13.00081778111786</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>15.2187030774746</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.823837631201141</v>
+        <v>7.28827884394752</v>
       </c>
       <c r="D8">
-        <v>7.199110325920636</v>
+        <v>6.043733432295701</v>
       </c>
       <c r="E8">
-        <v>5.738896551159038</v>
+        <v>8.114670323671307</v>
       </c>
       <c r="F8">
-        <v>66.39031772668508</v>
+        <v>21.13029423651797</v>
       </c>
       <c r="G8">
-        <v>2.110466497252277</v>
+        <v>23.51924028482987</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.258432521402126</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>15.99001537013197</v>
       </c>
       <c r="J8">
-        <v>6.016759051878559</v>
+        <v>5.759787312239713</v>
       </c>
       <c r="K8">
-        <v>56.6450624752292</v>
+        <v>16.50991375485453</v>
       </c>
       <c r="L8">
-        <v>5.260227731185926</v>
+        <v>5.854372533382161</v>
       </c>
       <c r="M8">
-        <v>37.55295204821706</v>
+        <v>13.64663694744708</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>12.93239066908238</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>15.21520886424734</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.950461832043645</v>
+        <v>7.856698205345999</v>
       </c>
       <c r="D9">
-        <v>8.590057561765468</v>
+        <v>6.447758067312812</v>
       </c>
       <c r="E9">
-        <v>5.999525602145281</v>
+        <v>8.241193435667512</v>
       </c>
       <c r="F9">
-        <v>74.8610017226143</v>
+        <v>21.73268347819492</v>
       </c>
       <c r="G9">
-        <v>2.015526299848758</v>
+        <v>24.46759928874526</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>9.169787025926702</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>16.2497638178621</v>
       </c>
       <c r="J9">
-        <v>5.535073092775615</v>
+        <v>5.659237729366175</v>
       </c>
       <c r="K9">
-        <v>66.5554040029138</v>
+        <v>18.98052396700563</v>
       </c>
       <c r="L9">
-        <v>5.769145603310911</v>
+        <v>5.774963871448293</v>
       </c>
       <c r="M9">
-        <v>43.29144144864613</v>
+        <v>15.21240104180935</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>12.82661225736046</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>15.30973201187472</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.110179663626866</v>
+        <v>8.263900120317462</v>
       </c>
       <c r="D10">
-        <v>10.0433734004791</v>
+        <v>6.738966281636951</v>
       </c>
       <c r="E10">
-        <v>6.236122521998115</v>
+        <v>8.350160934466873</v>
       </c>
       <c r="F10">
-        <v>83.04888699310816</v>
+        <v>22.25686609443956</v>
       </c>
       <c r="G10">
-        <v>1.93393056930731</v>
+        <v>25.27917631825013</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.13534132514534</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>16.50355726371705</v>
       </c>
       <c r="J10">
-        <v>5.161249445805739</v>
+        <v>5.592162210071564</v>
       </c>
       <c r="K10">
-        <v>74.66564865381959</v>
+        <v>20.60753222940301</v>
       </c>
       <c r="L10">
-        <v>6.195586019629852</v>
+        <v>5.723999631088994</v>
       </c>
       <c r="M10">
-        <v>48.49295542881369</v>
+        <v>16.27830329851253</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>12.76735611515781</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.44686428711542</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.20896720963581</v>
+        <v>8.446112991769247</v>
       </c>
       <c r="D11">
-        <v>10.80631169347909</v>
+        <v>6.869672863959216</v>
       </c>
       <c r="E11">
-        <v>6.365672108431077</v>
+        <v>8.403239960988785</v>
       </c>
       <c r="F11">
-        <v>87.84462094434394</v>
+        <v>22.5133563759797</v>
       </c>
       <c r="G11">
-        <v>1.890608577374289</v>
+        <v>25.67334752634714</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9.126975105065089</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>16.63337097609198</v>
       </c>
       <c r="J11">
-        <v>4.980880084393966</v>
+        <v>5.56314766148459</v>
       </c>
       <c r="K11">
-        <v>78.66668159549326</v>
+        <v>21.30727429686165</v>
       </c>
       <c r="L11">
-        <v>6.417062589516889</v>
+        <v>5.702463442923794</v>
       </c>
       <c r="M11">
-        <v>51.10622518956453</v>
+        <v>16.74365961930223</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>12.74467465709483</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.52512782744262</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.252222242757666</v>
+        <v>8.514622319556549</v>
       </c>
       <c r="D12">
-        <v>11.12111109043787</v>
+        <v>6.918873838936117</v>
       </c>
       <c r="E12">
-        <v>6.42016918445926</v>
+        <v>8.423845243519738</v>
       </c>
       <c r="F12">
-        <v>89.85010622633943</v>
+        <v>22.61308824178591</v>
       </c>
       <c r="G12">
-        <v>1.872640032160528</v>
+        <v>25.82618272459389</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>9.124911778480211</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>16.68464115243789</v>
       </c>
       <c r="J12">
-        <v>4.910182916895269</v>
+        <v>5.552378509522047</v>
       </c>
       <c r="K12">
-        <v>80.26827538313539</v>
+        <v>21.56647912402021</v>
       </c>
       <c r="L12">
-        <v>6.507897666568328</v>
+        <v>5.694549520007847</v>
       </c>
       <c r="M12">
-        <v>52.15121851928831</v>
+        <v>16.91699495336804</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>12.73672409242063</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.55713841105296</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.242591130997891</v>
+        <v>8.499890248002561</v>
       </c>
       <c r="D13">
-        <v>11.05185824519803</v>
+        <v>6.90829124500366</v>
       </c>
       <c r="E13">
-        <v>6.408128177831395</v>
+        <v>8.419385043196939</v>
       </c>
       <c r="F13">
-        <v>89.40775697982779</v>
+        <v>22.59149325884022</v>
       </c>
       <c r="G13">
-        <v>1.876597463444256</v>
+        <v>25.7931085455336</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>9.125306135476839</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>16.67350454827394</v>
       </c>
       <c r="J13">
-        <v>4.925537322780931</v>
+        <v>5.55468809820604</v>
       </c>
       <c r="K13">
-        <v>79.91837469476054</v>
+        <v>21.51091084002121</v>
       </c>
       <c r="L13">
-        <v>6.487943363022505</v>
+        <v>5.696243116091749</v>
       </c>
       <c r="M13">
-        <v>51.92297185462817</v>
+        <v>16.87979344533012</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>12.73840760386685</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.55013739534482</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.212389716313045</v>
+        <v>8.451759424569104</v>
       </c>
       <c r="D14">
-        <v>10.83158779527415</v>
+        <v>6.873726784694423</v>
       </c>
       <c r="E14">
-        <v>6.370025379623143</v>
+        <v>8.404925038583105</v>
       </c>
       <c r="F14">
-        <v>88.00513110561896</v>
+        <v>22.52150913879089</v>
       </c>
       <c r="G14">
-        <v>1.889167796360682</v>
+        <v>25.68584995631766</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>9.126782895582993</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>16.63754641325577</v>
       </c>
       <c r="J14">
-        <v>4.975119383502355</v>
+        <v>5.562257291519311</v>
       </c>
       <c r="K14">
-        <v>78.79632883248728</v>
+        <v>21.3287147005951</v>
       </c>
       <c r="L14">
-        <v>6.424368185069803</v>
+        <v>5.701807495872195</v>
       </c>
       <c r="M14">
-        <v>51.19083942529195</v>
+        <v>16.75797822197638</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>12.74400762419151</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.52771328183917</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.194745464300524</v>
+        <v>8.422212464109879</v>
       </c>
       <c r="D15">
-        <v>10.70054945421376</v>
+        <v>6.85251552503088</v>
       </c>
       <c r="E15">
-        <v>6.347499328594548</v>
+        <v>8.396133699773065</v>
       </c>
       <c r="F15">
-        <v>87.17403670457003</v>
+        <v>22.47898124286125</v>
       </c>
       <c r="G15">
-        <v>1.896633435003109</v>
+        <v>25.62061523721194</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.127832969300375</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>16.61579744822334</v>
       </c>
       <c r="J15">
-        <v>5.005140017460222</v>
+        <v>5.566922115803194</v>
       </c>
       <c r="K15">
-        <v>78.12219947230929</v>
+        <v>21.21636370996007</v>
       </c>
       <c r="L15">
-        <v>6.386471161393954</v>
+        <v>5.705247409005548</v>
       </c>
       <c r="M15">
-        <v>50.7508246491434</v>
+        <v>16.68298517407086</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>12.74752166435894</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.51428960875412</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.104391483829965</v>
+        <v>8.251926282388958</v>
       </c>
       <c r="D16">
-        <v>9.996318810626295</v>
+        <v>6.730385180905916</v>
       </c>
       <c r="E16">
-        <v>6.228250455632232</v>
+        <v>8.346762791524633</v>
       </c>
       <c r="F16">
-        <v>82.75657813826622</v>
+        <v>22.24046788912581</v>
       </c>
       <c r="G16">
-        <v>1.936591676587804</v>
+        <v>25.25391742222329</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.136039675316214</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>16.49536679477274</v>
       </c>
       <c r="J16">
-        <v>5.172764195795719</v>
+        <v>5.594088742789971</v>
       </c>
       <c r="K16">
-        <v>74.41324858425521</v>
+        <v>20.56099264380843</v>
       </c>
       <c r="L16">
-        <v>6.181867555332825</v>
+        <v>5.725440598440219</v>
       </c>
       <c r="M16">
-        <v>48.32797074424566</v>
+        <v>16.24749124869073</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>12.76892641687537</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.44207696922497</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.056688263190434</v>
+        <v>8.146644510503554</v>
       </c>
       <c r="D17">
-        <v>9.59583879010296</v>
+        <v>6.654979553655825</v>
       </c>
       <c r="E17">
-        <v>6.161814076450697</v>
+        <v>8.317374898776082</v>
       </c>
       <c r="F17">
-        <v>80.42324064839261</v>
+        <v>22.09877736703709</v>
       </c>
       <c r="G17">
-        <v>1.959188345016386</v>
+        <v>25.03534689450836</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>9.142983209604596</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>16.42520025336478</v>
       </c>
       <c r="J17">
-        <v>5.272464893922183</v>
+        <v>5.611140095623308</v>
       </c>
       <c r="K17">
-        <v>72.23803311253334</v>
+        <v>20.14862279629785</v>
       </c>
       <c r="L17">
-        <v>6.064851603432525</v>
+        <v>5.738253527475344</v>
       </c>
       <c r="M17">
-        <v>46.90546567969169</v>
+        <v>15.97526799104946</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>12.78316884008573</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>15.40191009215857</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.03153558906573</v>
+        <v>8.085807342070462</v>
       </c>
       <c r="D18">
-        <v>9.374128034560188</v>
+        <v>6.611444234222668</v>
       </c>
       <c r="E18">
-        <v>6.125471782565993</v>
+        <v>8.300802059287456</v>
       </c>
       <c r="F18">
-        <v>79.16769624035706</v>
+        <v>22.01897830237899</v>
       </c>
       <c r="G18">
-        <v>1.971657912429685</v>
+        <v>24.91198429662865</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>9.147661024229249</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>16.38619163418137</v>
       </c>
       <c r="J18">
-        <v>5.328912771822158</v>
+        <v>5.621088452243236</v>
       </c>
       <c r="K18">
-        <v>71.01272684237212</v>
+        <v>19.90763426288508</v>
       </c>
       <c r="L18">
-        <v>5.999879964432838</v>
+        <v>5.745777990245691</v>
       </c>
       <c r="M18">
-        <v>46.10364721592387</v>
+        <v>15.81685772794692</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>12.79176154183236</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>15.3802968970116</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.023371547139529</v>
+        <v>8.065162321407698</v>
       </c>
       <c r="D19">
-        <v>9.300332107941649</v>
+        <v>6.596677071437402</v>
       </c>
       <c r="E19">
-        <v>6.113445434144397</v>
+        <v>8.295247474634365</v>
       </c>
       <c r="F19">
-        <v>78.75321920935363</v>
+        <v>21.99225082386928</v>
       </c>
       <c r="G19">
-        <v>1.975801998601922</v>
+        <v>24.87062050001159</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>9.149360700257697</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>16.37321420392916</v>
       </c>
       <c r="J19">
-        <v>5.347890459111812</v>
+        <v>5.624480916521327</v>
       </c>
       <c r="K19">
-        <v>70.60150813836272</v>
+        <v>19.82538525532432</v>
       </c>
       <c r="L19">
-        <v>5.978225808297554</v>
+        <v>5.748352102431896</v>
       </c>
       <c r="M19">
-        <v>45.83446825532564</v>
+        <v>15.76291025985413</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>12.7947390235049</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15.37323207887513</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.061519694329557</v>
+        <v>8.157881533835731</v>
       </c>
       <c r="D20">
-        <v>9.637523223872854</v>
+        <v>6.663023894087515</v>
       </c>
       <c r="E20">
-        <v>6.168681948535911</v>
+        <v>8.320469097600052</v>
       </c>
       <c r="F20">
-        <v>80.66096606581047</v>
+        <v>22.11368477173533</v>
       </c>
       <c r="G20">
-        <v>1.956840697803893</v>
+        <v>25.05837065263296</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>9.142172867736919</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>16.43252959248948</v>
       </c>
       <c r="J20">
-        <v>5.261949326393035</v>
+        <v>5.609310353040818</v>
       </c>
       <c r="K20">
-        <v>72.46671686765859</v>
+        <v>20.19291375184254</v>
       </c>
       <c r="L20">
-        <v>6.077052355423677</v>
+        <v>5.736873516581982</v>
       </c>
       <c r="M20">
-        <v>47.05507069550458</v>
+        <v>16.00443711172</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>12.78161105664943</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.40603107529828</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.221075574079582</v>
+        <v>8.465910341655892</v>
       </c>
       <c r="D21">
-        <v>10.89543951328103</v>
+        <v>6.883887509563165</v>
       </c>
       <c r="E21">
-        <v>6.381039935699158</v>
+        <v>8.409158572675388</v>
       </c>
       <c r="F21">
-        <v>88.41102072005992</v>
+        <v>22.54199443073979</v>
       </c>
       <c r="G21">
-        <v>1.88552660089455</v>
+        <v>25.71725770307862</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>9.126318710966931</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>16.64805050396504</v>
       </c>
       <c r="J21">
-        <v>4.960631505089034</v>
+        <v>5.560028096835383</v>
       </c>
       <c r="K21">
-        <v>79.12301991151644</v>
+        <v>21.38238647716047</v>
       </c>
       <c r="L21">
-        <v>6.442813938792022</v>
+        <v>5.700166515147338</v>
       </c>
       <c r="M21">
-        <v>51.40403620243498</v>
+        <v>16.79383713348869</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>12.74234524075132</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.53423466622295</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.362455564060407</v>
+        <v>8.66434367354748</v>
       </c>
       <c r="D22">
-        <v>11.88533013555263</v>
+        <v>7.026500504989184</v>
       </c>
       <c r="E22">
-        <v>6.555009380137886</v>
+        <v>8.470068122353817</v>
       </c>
       <c r="F22">
-        <v>94.76871262574321</v>
+        <v>22.83710159827255</v>
       </c>
       <c r="G22">
-        <v>1.82880692890899</v>
+        <v>26.16867753554393</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>9.122422771406596</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>16.80123776731009</v>
       </c>
       <c r="J22">
-        <v>4.748648616847653</v>
+        <v>5.529091542070666</v>
       </c>
       <c r="K22">
-        <v>84.03957157609315</v>
+        <v>22.12614939401842</v>
       </c>
       <c r="L22">
-        <v>6.72699911818991</v>
+        <v>5.677585521298393</v>
       </c>
       <c r="M22">
-        <v>54.60937486277076</v>
+        <v>17.29291544837084</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>12.720415820084</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.63189834225823</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.282227958083106</v>
+        <v>8.55871631082565</v>
       </c>
       <c r="D23">
-        <v>11.33405964587449</v>
+        <v>6.950556360935386</v>
       </c>
       <c r="E23">
-        <v>6.457379264666217</v>
+        <v>8.43728989878794</v>
       </c>
       <c r="F23">
-        <v>91.21410949614869</v>
+        <v>22.67820625245088</v>
       </c>
       <c r="G23">
-        <v>1.860455493492547</v>
+        <v>25.92585256768196</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>9.123892155658812</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>16.71833615723241</v>
       </c>
       <c r="J23">
-        <v>4.863691618215536</v>
+        <v>5.545485625809692</v>
       </c>
       <c r="K23">
-        <v>81.33565693932621</v>
+        <v>21.73225312493422</v>
       </c>
       <c r="L23">
-        <v>6.56915365155296</v>
+        <v>5.68950693391416</v>
       </c>
       <c r="M23">
-        <v>52.8473054779333</v>
+        <v>17.02810998801233</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>12.73177021863082</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.57847526751181</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.059328451384308</v>
+        <v>8.152802234606595</v>
       </c>
       <c r="D24">
-        <v>9.618651788600545</v>
+        <v>6.659387616562809</v>
       </c>
       <c r="E24">
-        <v>6.165571347465801</v>
+        <v>8.31906920539028</v>
       </c>
       <c r="F24">
-        <v>80.55327895147859</v>
+        <v>22.10693996223857</v>
       </c>
       <c r="G24">
-        <v>1.957903653679898</v>
+        <v>25.04795445696046</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>9.142537091037338</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>16.42921185595992</v>
       </c>
       <c r="J24">
-        <v>5.266706070519231</v>
+        <v>5.610137127253599</v>
       </c>
       <c r="K24">
-        <v>72.3632527597415</v>
+        <v>20.17290199733709</v>
       </c>
       <c r="L24">
-        <v>6.071529402760904</v>
+        <v>5.737496927269527</v>
       </c>
       <c r="M24">
-        <v>46.98738603825951</v>
+        <v>15.99125568141495</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>12.78231407226283</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.40416337808935</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.906999236484997</v>
+        <v>7.704469054519245</v>
       </c>
       <c r="D25">
-        <v>8.104278090206432</v>
+        <v>6.339247183765781</v>
       </c>
       <c r="E25">
-        <v>5.923589365211817</v>
+        <v>8.204166583106232</v>
       </c>
       <c r="F25">
-        <v>72.3140420338984</v>
+        <v>21.55552208269263</v>
       </c>
       <c r="G25">
-        <v>2.042530816024781</v>
+        <v>24.19094206320609</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>9.188592173985787</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>16.16868898879047</v>
       </c>
       <c r="J25">
-        <v>5.667447427471956</v>
+        <v>5.685252395029364</v>
       </c>
       <c r="K25">
-        <v>63.72446571426944</v>
+        <v>18.34532835616682</v>
       </c>
       <c r="L25">
-        <v>5.625554391025001</v>
+        <v>5.795165387549382</v>
       </c>
       <c r="M25">
-        <v>41.70383537452086</v>
+        <v>14.80317148165504</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>12.85207304752026</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.27268696407817</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.367698469070376</v>
+        <v>10.36439874374152</v>
       </c>
       <c r="D2">
-        <v>6.099984111143248</v>
+        <v>9.08488887294193</v>
       </c>
       <c r="E2">
-        <v>8.130316088128211</v>
+        <v>13.67815393050197</v>
       </c>
       <c r="F2">
-        <v>21.20425140853218</v>
+        <v>33.12943604819073</v>
       </c>
       <c r="G2">
-        <v>23.63710054448897</v>
+        <v>34.8586548190487</v>
       </c>
       <c r="H2">
-        <v>9.242864243197566</v>
+        <v>15.91232430985558</v>
       </c>
       <c r="I2">
-        <v>16.01890631821182</v>
+        <v>25.91559207776746</v>
       </c>
       <c r="J2">
-        <v>5.745115672528515</v>
+        <v>10.2031243511138</v>
       </c>
       <c r="K2">
-        <v>16.87316338942859</v>
+        <v>13.75449887387198</v>
       </c>
       <c r="L2">
-        <v>5.842563284634702</v>
+        <v>10.36385678204158</v>
       </c>
       <c r="M2">
-        <v>13.87217748261214</v>
+        <v>17.22428064879692</v>
       </c>
       <c r="N2">
-        <v>12.91573269924399</v>
+        <v>18.30318065158757</v>
       </c>
       <c r="O2">
-        <v>15.22089637345919</v>
+        <v>25.01590046532404</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.136726454932056</v>
+        <v>10.34353185286267</v>
       </c>
       <c r="D3">
-        <v>5.936595394365026</v>
+        <v>9.072090764205953</v>
       </c>
       <c r="E3">
-        <v>8.086896849284367</v>
+        <v>13.6987164896094</v>
       </c>
       <c r="F3">
-        <v>20.99954530439202</v>
+        <v>33.20697588229252</v>
       </c>
       <c r="G3">
-        <v>23.30926015794317</v>
+        <v>34.94937441229736</v>
       </c>
       <c r="H3">
-        <v>9.291401953925673</v>
+        <v>15.9605431290671</v>
       </c>
       <c r="I3">
-        <v>15.94237719738312</v>
+        <v>25.9844134371041</v>
       </c>
       <c r="J3">
-        <v>5.788499725783607</v>
+        <v>10.22362087341461</v>
       </c>
       <c r="K3">
-        <v>15.79602344379548</v>
+        <v>13.39696777823846</v>
       </c>
       <c r="L3">
-        <v>5.877701910405195</v>
+        <v>10.38344423138485</v>
       </c>
       <c r="M3">
-        <v>13.20877885504392</v>
+        <v>17.09520849998974</v>
       </c>
       <c r="N3">
-        <v>12.96616991376126</v>
+        <v>18.3325065530815</v>
       </c>
       <c r="O3">
-        <v>15.21193030904061</v>
+        <v>25.09512274873964</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.994097745290712</v>
+        <v>10.33232999700479</v>
       </c>
       <c r="D4">
-        <v>5.836024229944319</v>
+        <v>9.065379425366974</v>
       </c>
       <c r="E4">
-        <v>8.063473374435116</v>
+        <v>13.71298460085397</v>
       </c>
       <c r="F4">
-        <v>20.88994630817093</v>
+        <v>33.26152811103319</v>
       </c>
       <c r="G4">
-        <v>23.13099124330085</v>
+        <v>35.01453781551637</v>
       </c>
       <c r="H4">
-        <v>9.326701089801141</v>
+        <v>15.99248696441017</v>
       </c>
       <c r="I4">
-        <v>15.90724508881825</v>
+        <v>26.03158469013912</v>
       </c>
       <c r="J4">
-        <v>5.816518043375801</v>
+        <v>10.23696847608208</v>
       </c>
       <c r="K4">
-        <v>15.09536918321242</v>
+        <v>13.17344684886921</v>
       </c>
       <c r="L4">
-        <v>5.900746094913758</v>
+        <v>10.39625756345143</v>
       </c>
       <c r="M4">
-        <v>12.7865811739754</v>
+        <v>17.01724446427547</v>
       </c>
       <c r="N4">
-        <v>13.00062032008176</v>
+        <v>18.35218613540148</v>
       </c>
       <c r="O4">
-        <v>15.21863806396394</v>
+        <v>25.14855584794082</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.935859725734963</v>
+        <v>10.32817375117347</v>
       </c>
       <c r="D5">
-        <v>5.795035720356766</v>
+        <v>9.062935115917341</v>
       </c>
       <c r="E5">
-        <v>8.054736085652021</v>
+        <v>13.71921253737116</v>
       </c>
       <c r="F5">
-        <v>20.84926670877428</v>
+        <v>33.28550184703148</v>
       </c>
       <c r="G5">
-        <v>23.06405420072284</v>
+        <v>35.043464317481</v>
       </c>
       <c r="H5">
-        <v>9.342424303689409</v>
+        <v>16.00609222307081</v>
       </c>
       <c r="I5">
-        <v>15.89583636051529</v>
+        <v>26.05204189248587</v>
       </c>
       <c r="J5">
-        <v>5.828281749570598</v>
+        <v>10.2425999624393</v>
       </c>
       <c r="K5">
-        <v>14.79996380661938</v>
+        <v>13.08147971793086</v>
       </c>
       <c r="L5">
-        <v>5.910503466548245</v>
+        <v>10.40167733320299</v>
       </c>
       <c r="M5">
-        <v>12.61099926607902</v>
+        <v>16.98582195271599</v>
       </c>
       <c r="N5">
-        <v>13.01551822518226</v>
+        <v>18.36062727849082</v>
       </c>
       <c r="O5">
-        <v>15.22433968842056</v>
+        <v>25.17153338972378</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.92618504532942</v>
+        <v>10.32750838848442</v>
       </c>
       <c r="D6">
-        <v>5.788231050965127</v>
+        <v>9.062546855569138</v>
       </c>
       <c r="E6">
-        <v>8.053333874301186</v>
+        <v>13.7202716743163</v>
       </c>
       <c r="F6">
-        <v>20.84275037766713</v>
+        <v>33.28958787802767</v>
       </c>
       <c r="G6">
-        <v>23.05328134129418</v>
+        <v>35.04841057386863</v>
       </c>
       <c r="H6">
-        <v>9.345114722458501</v>
+        <v>16.00838687744338</v>
       </c>
       <c r="I6">
-        <v>15.89411533067089</v>
+        <v>26.05551331795153</v>
       </c>
       <c r="J6">
-        <v>5.830255973687292</v>
+        <v>10.24354669005479</v>
       </c>
       <c r="K6">
-        <v>14.75031512491759</v>
+        <v>13.06615923190087</v>
       </c>
       <c r="L6">
-        <v>5.912145741827656</v>
+        <v>10.40258926776656</v>
       </c>
       <c r="M6">
-        <v>12.58163731673367</v>
+        <v>16.98062603147338</v>
       </c>
       <c r="N6">
-        <v>13.01804343317188</v>
+        <v>18.3620544073878</v>
       </c>
       <c r="O6">
-        <v>15.22546266195884</v>
+        <v>25.1754214153131</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.993312674702605</v>
+        <v>10.33227228542646</v>
       </c>
       <c r="D7">
-        <v>5.835471386257499</v>
+        <v>9.065345280991275</v>
       </c>
       <c r="E7">
-        <v>8.063352277302196</v>
+        <v>13.71306691780767</v>
       </c>
       <c r="F7">
-        <v>20.88938165424726</v>
+        <v>33.2618443743231</v>
       </c>
       <c r="G7">
-        <v>23.13006551560647</v>
+        <v>35.01491833477233</v>
       </c>
       <c r="H7">
-        <v>9.326907775676013</v>
+        <v>15.99266806914997</v>
       </c>
       <c r="I7">
-        <v>15.9070795536714</v>
+        <v>26.031855586346</v>
       </c>
       <c r="J7">
-        <v>5.816675293139289</v>
+        <v>10.23704364533912</v>
       </c>
       <c r="K7">
-        <v>15.09142525800397</v>
+        <v>13.17220994394744</v>
       </c>
       <c r="L7">
-        <v>5.900876204987441</v>
+        <v>10.39632985312849</v>
       </c>
       <c r="M7">
-        <v>12.78422722318769</v>
+        <v>17.01681924590861</v>
       </c>
       <c r="N7">
-        <v>13.00081778111786</v>
+        <v>18.35229826772941</v>
       </c>
       <c r="O7">
-        <v>15.2187030774746</v>
+        <v>25.14886086166682</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.28827884394752</v>
+        <v>10.35687184251293</v>
       </c>
       <c r="D8">
-        <v>6.043733432295701</v>
+        <v>9.080239473074981</v>
       </c>
       <c r="E8">
-        <v>8.114670323671307</v>
+        <v>13.68490329377819</v>
       </c>
       <c r="F8">
-        <v>21.13029423651797</v>
+        <v>33.15472947200929</v>
       </c>
       <c r="G8">
-        <v>23.51924028482987</v>
+        <v>34.88796711553132</v>
       </c>
       <c r="H8">
-        <v>9.258432521402126</v>
+        <v>15.92846515120526</v>
       </c>
       <c r="I8">
-        <v>15.99001537013197</v>
+        <v>25.93830089882513</v>
       </c>
       <c r="J8">
-        <v>5.759787312239713</v>
+        <v>10.21003353631025</v>
       </c>
       <c r="K8">
-        <v>16.50991375485453</v>
+        <v>13.63212360882655</v>
       </c>
       <c r="L8">
-        <v>5.854372533382161</v>
+        <v>10.37044755272602</v>
       </c>
       <c r="M8">
-        <v>13.64663694744708</v>
+        <v>17.17952459257375</v>
       </c>
       <c r="N8">
-        <v>12.93239066908238</v>
+        <v>18.31294538015815</v>
       </c>
       <c r="O8">
-        <v>15.21520886424734</v>
+        <v>25.04222123626507</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.856698205345999</v>
+        <v>10.41771890320078</v>
       </c>
       <c r="D9">
-        <v>6.447758067312812</v>
+        <v>9.118441344128602</v>
       </c>
       <c r="E9">
-        <v>8.241193435667512</v>
+        <v>13.64268467402059</v>
       </c>
       <c r="F9">
-        <v>21.73268347819492</v>
+        <v>32.99986307122725</v>
       </c>
       <c r="G9">
-        <v>24.46759928874526</v>
+        <v>34.71438194232579</v>
       </c>
       <c r="H9">
-        <v>9.169787025926702</v>
+        <v>15.8211016021672</v>
       </c>
       <c r="I9">
-        <v>16.2497638178621</v>
+        <v>25.79389042322718</v>
       </c>
       <c r="J9">
-        <v>5.659237729366175</v>
+        <v>10.16309754750255</v>
       </c>
       <c r="K9">
-        <v>18.98052396700563</v>
+        <v>14.4972368402414</v>
       </c>
       <c r="L9">
-        <v>5.774963871448293</v>
+        <v>10.32591334675115</v>
       </c>
       <c r="M9">
-        <v>15.21240104180935</v>
+        <v>17.5076843775683</v>
       </c>
       <c r="N9">
-        <v>12.82661225736046</v>
+        <v>18.24901813899956</v>
       </c>
       <c r="O9">
-        <v>15.30973201187472</v>
+        <v>24.87117251597352</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.263900120317462</v>
+        <v>10.4698627536603</v>
       </c>
       <c r="D10">
-        <v>6.738966281636951</v>
+        <v>9.151843406569265</v>
       </c>
       <c r="E10">
-        <v>8.350160934466873</v>
+        <v>13.6195657878797</v>
       </c>
       <c r="F10">
-        <v>22.25686609443956</v>
+        <v>32.91984661614007</v>
       </c>
       <c r="G10">
-        <v>25.27917631825013</v>
+        <v>34.63315657362287</v>
       </c>
       <c r="H10">
-        <v>9.13534132514534</v>
+        <v>15.75351300330886</v>
       </c>
       <c r="I10">
-        <v>16.50355726371705</v>
+        <v>25.71166667123306</v>
       </c>
       <c r="J10">
-        <v>5.592162210071564</v>
+        <v>10.13226159909003</v>
       </c>
       <c r="K10">
-        <v>20.60753222940301</v>
+        <v>15.10417558988707</v>
       </c>
       <c r="L10">
-        <v>5.723999631088994</v>
+        <v>10.29695877723942</v>
       </c>
       <c r="M10">
-        <v>16.27830329851253</v>
+        <v>17.75281069217648</v>
       </c>
       <c r="N10">
-        <v>12.76735611515781</v>
+        <v>18.21007952623941</v>
       </c>
       <c r="O10">
-        <v>15.44686428711542</v>
+        <v>24.76879462820184</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.446112991769247</v>
+        <v>10.49514151456395</v>
       </c>
       <c r="D11">
-        <v>6.869672863959216</v>
+        <v>9.168162740151544</v>
       </c>
       <c r="E11">
-        <v>8.403239960988785</v>
+        <v>13.61075612768409</v>
       </c>
       <c r="F11">
-        <v>22.5133563759797</v>
+        <v>32.89079571713805</v>
       </c>
       <c r="G11">
-        <v>25.67334752634714</v>
+        <v>34.60632248389429</v>
       </c>
       <c r="H11">
-        <v>9.126975105065089</v>
+        <v>15.72521495700417</v>
       </c>
       <c r="I11">
-        <v>16.63337097609198</v>
+        <v>25.6794571853684</v>
       </c>
       <c r="J11">
-        <v>5.56314766148459</v>
+        <v>10.11901959855367</v>
       </c>
       <c r="K11">
-        <v>21.30727429686165</v>
+        <v>15.37290606550009</v>
       </c>
       <c r="L11">
-        <v>5.702463442923794</v>
+        <v>10.28459821104811</v>
       </c>
       <c r="M11">
-        <v>16.74365961930223</v>
+        <v>17.86487173712717</v>
       </c>
       <c r="N11">
-        <v>12.74467465709483</v>
+        <v>18.19409923110705</v>
       </c>
       <c r="O11">
-        <v>15.52512782744262</v>
+        <v>24.72729414194041</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.514622319556549</v>
+        <v>10.50493262381697</v>
       </c>
       <c r="D12">
-        <v>6.918873838936117</v>
+        <v>9.174500965758501</v>
       </c>
       <c r="E12">
-        <v>8.423845243519738</v>
+        <v>13.60766494210441</v>
       </c>
       <c r="F12">
-        <v>22.61308824178591</v>
+        <v>32.88085259546004</v>
       </c>
       <c r="G12">
-        <v>25.82618272459389</v>
+        <v>34.59761947519446</v>
       </c>
       <c r="H12">
-        <v>9.124911778480211</v>
+        <v>15.71485117074796</v>
       </c>
       <c r="I12">
-        <v>16.68464115243789</v>
+        <v>25.66800800296306</v>
       </c>
       <c r="J12">
-        <v>5.552378509522047</v>
+        <v>10.1141176857656</v>
       </c>
       <c r="K12">
-        <v>21.56647912402021</v>
+        <v>15.47352188527023</v>
       </c>
       <c r="L12">
-        <v>5.694549520007847</v>
+        <v>10.28003376260295</v>
       </c>
       <c r="M12">
-        <v>16.91699495336804</v>
+        <v>17.90735794938544</v>
       </c>
       <c r="N12">
-        <v>12.73672409242063</v>
+        <v>18.18829635598145</v>
       </c>
       <c r="O12">
-        <v>15.55713841105296</v>
+        <v>24.71230954321607</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.499890248002561</v>
+        <v>10.50281430140066</v>
       </c>
       <c r="D13">
-        <v>6.90829124500366</v>
+        <v>9.17312892192861</v>
       </c>
       <c r="E13">
-        <v>8.419385043196939</v>
+        <v>13.60831980573066</v>
       </c>
       <c r="F13">
-        <v>22.59149325884022</v>
+        <v>32.88294696516673</v>
       </c>
       <c r="G13">
-        <v>25.7931085455336</v>
+        <v>34.59942890559144</v>
       </c>
       <c r="H13">
-        <v>9.125306135476839</v>
+        <v>15.71706753916919</v>
       </c>
       <c r="I13">
-        <v>16.67350454827394</v>
+        <v>25.67044051600512</v>
       </c>
       <c r="J13">
-        <v>5.55468809820604</v>
+        <v>10.11516840119476</v>
       </c>
       <c r="K13">
-        <v>21.51091084002121</v>
+        <v>15.45190476354531</v>
       </c>
       <c r="L13">
-        <v>5.696243116091749</v>
+        <v>10.28101163511488</v>
       </c>
       <c r="M13">
-        <v>16.87979344533012</v>
+        <v>17.89820595810774</v>
       </c>
       <c r="N13">
-        <v>12.73840760386685</v>
+        <v>18.18953506728115</v>
       </c>
       <c r="O13">
-        <v>15.55013739534482</v>
+        <v>24.7155042232946</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.451759424569104</v>
+        <v>10.49594268644575</v>
       </c>
       <c r="D14">
-        <v>6.873726784694423</v>
+        <v>9.168681033449598</v>
       </c>
       <c r="E14">
-        <v>8.404925038583105</v>
+        <v>13.61049691090406</v>
       </c>
       <c r="F14">
-        <v>22.52150913879089</v>
+        <v>32.88995648558032</v>
       </c>
       <c r="G14">
-        <v>25.68584995631766</v>
+        <v>34.60557723309415</v>
       </c>
       <c r="H14">
-        <v>9.126782895582993</v>
+        <v>15.72435526607395</v>
       </c>
       <c r="I14">
-        <v>16.63754641325577</v>
+        <v>25.67850026169898</v>
       </c>
       <c r="J14">
-        <v>5.562257291519311</v>
+        <v>10.11861406192456</v>
       </c>
       <c r="K14">
-        <v>21.3287147005951</v>
+        <v>15.38120723876273</v>
       </c>
       <c r="L14">
-        <v>5.701807495872195</v>
+        <v>10.28422036394836</v>
       </c>
       <c r="M14">
-        <v>16.75797822197638</v>
+        <v>17.86836624013119</v>
       </c>
       <c r="N14">
-        <v>12.74400762419151</v>
+        <v>18.19361684845148</v>
       </c>
       <c r="O14">
-        <v>15.52771328183917</v>
+        <v>24.72604669712558</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.422212464109879</v>
+        <v>10.49176192374032</v>
       </c>
       <c r="D15">
-        <v>6.85251552503088</v>
+        <v>9.165977108655241</v>
       </c>
       <c r="E15">
-        <v>8.396133699773065</v>
+        <v>13.61186231609007</v>
       </c>
       <c r="F15">
-        <v>22.47898124286125</v>
+        <v>32.89438780341464</v>
       </c>
       <c r="G15">
-        <v>25.62061523721194</v>
+        <v>34.60953329758625</v>
       </c>
       <c r="H15">
-        <v>9.127832969300375</v>
+        <v>15.72886505908332</v>
       </c>
       <c r="I15">
-        <v>16.61579744822334</v>
+        <v>25.68353450443988</v>
       </c>
       <c r="J15">
-        <v>5.566922115803194</v>
+        <v>10.12073927361229</v>
       </c>
       <c r="K15">
-        <v>21.21636370996007</v>
+        <v>15.33775119906953</v>
       </c>
       <c r="L15">
-        <v>5.705247409005548</v>
+        <v>10.28620092794989</v>
       </c>
       <c r="M15">
-        <v>16.68298517407086</v>
+        <v>17.85009437295884</v>
       </c>
       <c r="N15">
-        <v>12.74752166435894</v>
+        <v>18.19614940064527</v>
       </c>
       <c r="O15">
-        <v>15.51428960875412</v>
+        <v>24.73259947077253</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.251926282388958</v>
+        <v>10.46824162040785</v>
       </c>
       <c r="D16">
-        <v>6.730385180905916</v>
+        <v>9.150799253259409</v>
       </c>
       <c r="E16">
-        <v>8.346762791524633</v>
+        <v>13.6201758186216</v>
       </c>
       <c r="F16">
-        <v>22.24046788912581</v>
+        <v>32.92189313967062</v>
       </c>
       <c r="G16">
-        <v>25.25391742222329</v>
+        <v>34.63511414766594</v>
       </c>
       <c r="H16">
-        <v>9.136039675316214</v>
+        <v>15.75541161426176</v>
       </c>
       <c r="I16">
-        <v>16.49536679477274</v>
+        <v>25.7138762432122</v>
       </c>
       <c r="J16">
-        <v>5.594088742789971</v>
+        <v>10.13314276564222</v>
       </c>
       <c r="K16">
-        <v>20.56099264380843</v>
+        <v>15.08645752769094</v>
       </c>
       <c r="L16">
-        <v>5.725440598440219</v>
+        <v>10.29778285528589</v>
       </c>
       <c r="M16">
-        <v>16.24749124869073</v>
+        <v>17.7454959295417</v>
       </c>
       <c r="N16">
-        <v>12.76892641687537</v>
+        <v>18.21115869032516</v>
       </c>
       <c r="O16">
-        <v>15.44207696922497</v>
+        <v>24.77160896270736</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.146644510503554</v>
+        <v>10.45420796413464</v>
       </c>
       <c r="D17">
-        <v>6.654979553655825</v>
+        <v>9.141773883582536</v>
       </c>
       <c r="E17">
-        <v>8.317374898776082</v>
+        <v>13.62571269280552</v>
       </c>
       <c r="F17">
-        <v>22.09877736703709</v>
+        <v>32.94064989442336</v>
       </c>
       <c r="G17">
-        <v>25.03534689450836</v>
+        <v>34.65340106493903</v>
       </c>
       <c r="H17">
-        <v>9.142983209604596</v>
+        <v>15.77232414721887</v>
       </c>
       <c r="I17">
-        <v>16.42520025336478</v>
+        <v>25.73382103813397</v>
       </c>
       <c r="J17">
-        <v>5.611140095623308</v>
+        <v>10.14095278835601</v>
       </c>
       <c r="K17">
-        <v>20.14862279629785</v>
+        <v>14.93034526511799</v>
       </c>
       <c r="L17">
-        <v>5.738253527475344</v>
+        <v>10.30509543163133</v>
       </c>
       <c r="M17">
-        <v>15.97526799104946</v>
+        <v>17.68144941506159</v>
       </c>
       <c r="N17">
-        <v>12.78316884008573</v>
+        <v>18.22080978872636</v>
       </c>
       <c r="O17">
-        <v>15.40191009215857</v>
+        <v>24.79684005709277</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.085807342070462</v>
+        <v>10.44628319222086</v>
       </c>
       <c r="D18">
-        <v>6.611444234222668</v>
+        <v>9.136688783903249</v>
       </c>
       <c r="E18">
-        <v>8.300802059287456</v>
+        <v>13.62905809147313</v>
       </c>
       <c r="F18">
-        <v>22.01897830237899</v>
+        <v>32.95212996704461</v>
       </c>
       <c r="G18">
-        <v>24.91198429662865</v>
+        <v>34.66487118098207</v>
       </c>
       <c r="H18">
-        <v>9.147661024229249</v>
+        <v>15.78228223885516</v>
       </c>
       <c r="I18">
-        <v>16.38619163418137</v>
+        <v>25.74578164571096</v>
       </c>
       <c r="J18">
-        <v>5.621088452243236</v>
+        <v>10.1455188584837</v>
       </c>
       <c r="K18">
-        <v>19.90763426288508</v>
+        <v>14.83986470296202</v>
       </c>
       <c r="L18">
-        <v>5.745777990245691</v>
+        <v>10.30937779175057</v>
       </c>
       <c r="M18">
-        <v>15.81685772794692</v>
+        <v>17.6446651857665</v>
       </c>
       <c r="N18">
-        <v>12.79176154183236</v>
+        <v>18.2265240122354</v>
       </c>
       <c r="O18">
-        <v>15.3802968970116</v>
+        <v>24.81182961055299</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.065162321407698</v>
+        <v>10.44362541364</v>
       </c>
       <c r="D19">
-        <v>6.596677071437402</v>
+        <v>9.13498536850056</v>
       </c>
       <c r="E19">
-        <v>8.295247474634365</v>
+        <v>13.63021841174202</v>
       </c>
       <c r="F19">
-        <v>21.99225082386928</v>
+        <v>32.95613568133409</v>
       </c>
       <c r="G19">
-        <v>24.87062050001159</v>
+        <v>34.66891813473086</v>
       </c>
       <c r="H19">
-        <v>9.149360700257697</v>
+        <v>15.7856934575499</v>
       </c>
       <c r="I19">
-        <v>16.37321420392916</v>
+        <v>25.74991523944282</v>
       </c>
       <c r="J19">
-        <v>5.624480916521327</v>
+        <v>10.14707756483782</v>
       </c>
       <c r="K19">
-        <v>19.82538525532432</v>
+        <v>14.80911399486523</v>
       </c>
       <c r="L19">
-        <v>5.748352102431896</v>
+        <v>10.31084085217624</v>
       </c>
       <c r="M19">
-        <v>15.76291025985413</v>
+        <v>17.63222075013675</v>
       </c>
       <c r="N19">
-        <v>12.7947390235049</v>
+        <v>18.22848679549409</v>
       </c>
       <c r="O19">
-        <v>15.37323207887513</v>
+        <v>24.81698674681065</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.157881533835731</v>
+        <v>10.45568669412088</v>
       </c>
       <c r="D20">
-        <v>6.663023894087515</v>
+        <v>9.142723696562767</v>
       </c>
       <c r="E20">
-        <v>8.320469097600052</v>
+        <v>13.62510665225489</v>
       </c>
       <c r="F20">
-        <v>22.11368477173533</v>
+        <v>32.93858161038364</v>
       </c>
       <c r="G20">
-        <v>25.05837065263296</v>
+        <v>34.65135583595536</v>
       </c>
       <c r="H20">
-        <v>9.142172867736919</v>
+        <v>15.77049992848917</v>
       </c>
       <c r="I20">
-        <v>16.43252959248948</v>
+        <v>25.73164727554352</v>
       </c>
       <c r="J20">
-        <v>5.609310353040818</v>
+        <v>10.14011374728674</v>
       </c>
       <c r="K20">
-        <v>20.19291375184254</v>
+        <v>14.94703563696488</v>
       </c>
       <c r="L20">
-        <v>5.736873516581982</v>
+        <v>10.30430909532102</v>
       </c>
       <c r="M20">
-        <v>16.00443711172</v>
+        <v>17.68826192985545</v>
       </c>
       <c r="N20">
-        <v>12.78161105664943</v>
+        <v>18.21976553071208</v>
       </c>
       <c r="O20">
-        <v>15.40603107529828</v>
+        <v>24.79410475512455</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.465910341655892</v>
+        <v>10.49795515880547</v>
       </c>
       <c r="D21">
-        <v>6.883887509563165</v>
+        <v>9.169983212594763</v>
       </c>
       <c r="E21">
-        <v>8.409158572675388</v>
+        <v>13.60985080284972</v>
       </c>
       <c r="F21">
-        <v>22.54199443073979</v>
+        <v>32.88786890410843</v>
       </c>
       <c r="G21">
-        <v>25.71725770307862</v>
+        <v>34.60373171121746</v>
       </c>
       <c r="H21">
-        <v>9.126318710966931</v>
+        <v>15.72220512895987</v>
       </c>
       <c r="I21">
-        <v>16.64805050396504</v>
+        <v>25.67611261630522</v>
       </c>
       <c r="J21">
-        <v>5.560028096835383</v>
+        <v>10.11759893654389</v>
       </c>
       <c r="K21">
-        <v>21.38238647716047</v>
+        <v>15.40200458727408</v>
       </c>
       <c r="L21">
-        <v>5.700166515147338</v>
+        <v>10.28327473118154</v>
       </c>
       <c r="M21">
-        <v>16.79383713348869</v>
+        <v>17.8771297256337</v>
       </c>
       <c r="N21">
-        <v>12.74234524075132</v>
+        <v>18.19241119129612</v>
       </c>
       <c r="O21">
-        <v>15.53423466622295</v>
+        <v>24.72293027416022</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.66434367354748</v>
+        <v>10.52685143906266</v>
       </c>
       <c r="D22">
-        <v>7.026500504989184</v>
+        <v>9.188720825628923</v>
       </c>
       <c r="E22">
-        <v>8.470068122353817</v>
+        <v>13.60130701359436</v>
       </c>
       <c r="F22">
-        <v>22.83710159827255</v>
+        <v>32.86089122773584</v>
       </c>
       <c r="G22">
-        <v>26.16867753554393</v>
+        <v>34.5811088888284</v>
       </c>
       <c r="H22">
-        <v>9.122422771406596</v>
+        <v>15.69269381610073</v>
       </c>
       <c r="I22">
-        <v>16.80123776731009</v>
+        <v>25.64417684800319</v>
       </c>
       <c r="J22">
-        <v>5.529091542070666</v>
+        <v>10.10354002548465</v>
       </c>
       <c r="K22">
-        <v>22.12614939401842</v>
+        <v>15.69263509953569</v>
       </c>
       <c r="L22">
-        <v>5.677585521298393</v>
+        <v>10.27020485423625</v>
       </c>
       <c r="M22">
-        <v>17.29291544837084</v>
+        <v>18.00085073823206</v>
       </c>
       <c r="N22">
-        <v>12.720415820084</v>
+        <v>18.1759817653106</v>
       </c>
       <c r="O22">
-        <v>15.63189834225823</v>
+        <v>24.68067351426538</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.55871631082565</v>
+        <v>10.51131449494369</v>
       </c>
       <c r="D23">
-        <v>6.950556360935386</v>
+        <v>9.178636965819688</v>
       </c>
       <c r="E23">
-        <v>8.43728989878794</v>
+        <v>13.60573667089935</v>
       </c>
       <c r="F23">
-        <v>22.67820625245088</v>
+        <v>32.87472528746953</v>
       </c>
       <c r="G23">
-        <v>25.92585256768196</v>
+        <v>34.59240410875231</v>
       </c>
       <c r="H23">
-        <v>9.123892155658812</v>
+        <v>15.70825678950844</v>
       </c>
       <c r="I23">
-        <v>16.71833615723241</v>
+        <v>25.6608224381079</v>
       </c>
       <c r="J23">
-        <v>5.545485625809692</v>
+        <v>10.1109836537604</v>
       </c>
       <c r="K23">
-        <v>21.73225312493422</v>
+        <v>15.53816153010405</v>
       </c>
       <c r="L23">
-        <v>5.68950693391416</v>
+        <v>10.27711864978084</v>
       </c>
       <c r="M23">
-        <v>17.02810998801233</v>
+        <v>17.93480172877297</v>
       </c>
       <c r="N23">
-        <v>12.73177021863082</v>
+        <v>18.18461817808389</v>
       </c>
       <c r="O23">
-        <v>15.57847526751181</v>
+        <v>24.70283651566605</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.152802234606595</v>
+        <v>10.45501771333049</v>
       </c>
       <c r="D24">
-        <v>6.659387616562809</v>
+        <v>9.142293962847212</v>
       </c>
       <c r="E24">
-        <v>8.31906920539028</v>
+        <v>13.62538013798441</v>
       </c>
       <c r="F24">
-        <v>22.10693996223857</v>
+        <v>32.93951451194062</v>
       </c>
       <c r="G24">
-        <v>25.04795445696046</v>
+        <v>34.65227750416214</v>
       </c>
       <c r="H24">
-        <v>9.142537091037338</v>
+        <v>15.77132392622728</v>
       </c>
       <c r="I24">
-        <v>16.42921185595992</v>
+        <v>25.73262849466066</v>
       </c>
       <c r="J24">
-        <v>5.610137127253599</v>
+        <v>10.14049284104111</v>
       </c>
       <c r="K24">
-        <v>20.17290199733709</v>
+        <v>14.93949218552087</v>
       </c>
       <c r="L24">
-        <v>5.737496927269527</v>
+        <v>10.30466435415805</v>
       </c>
       <c r="M24">
-        <v>15.99125568141495</v>
+        <v>17.68518187461548</v>
       </c>
       <c r="N24">
-        <v>12.78231407226283</v>
+        <v>18.22023712362964</v>
       </c>
       <c r="O24">
-        <v>15.40416337808935</v>
+        <v>24.7953398780564</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.704469054519245</v>
+        <v>10.39993273317789</v>
       </c>
       <c r="D25">
-        <v>6.339247183765781</v>
+        <v>9.107158483970927</v>
       </c>
       <c r="E25">
-        <v>8.204166583106232</v>
+        <v>13.65271628516495</v>
       </c>
       <c r="F25">
-        <v>21.55552208269263</v>
+        <v>33.03583665674864</v>
       </c>
       <c r="G25">
-        <v>24.19094206320609</v>
+        <v>34.75323250134138</v>
       </c>
       <c r="H25">
-        <v>9.188592173985787</v>
+        <v>15.84816267956793</v>
       </c>
       <c r="I25">
-        <v>16.16868898879047</v>
+        <v>25.82876907294693</v>
       </c>
       <c r="J25">
-        <v>5.685252395029364</v>
+        <v>10.17515231391428</v>
       </c>
       <c r="K25">
-        <v>18.34532835616682</v>
+        <v>14.26781356500503</v>
       </c>
       <c r="L25">
-        <v>5.795165387549382</v>
+        <v>10.33729791791401</v>
       </c>
       <c r="M25">
-        <v>14.80317148165504</v>
+        <v>17.4180902324991</v>
       </c>
       <c r="N25">
-        <v>12.85207304752026</v>
+        <v>18.26489897793027</v>
       </c>
       <c r="O25">
-        <v>15.27268696407817</v>
+        <v>24.91336114759139</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.36439874374152</v>
+        <v>7.367698469070261</v>
       </c>
       <c r="D2">
-        <v>9.08488887294193</v>
+        <v>6.099984111143166</v>
       </c>
       <c r="E2">
-        <v>13.67815393050197</v>
+        <v>8.130316088128112</v>
       </c>
       <c r="F2">
-        <v>33.12943604819073</v>
+        <v>21.20425140853199</v>
       </c>
       <c r="G2">
-        <v>34.8586548190487</v>
+        <v>23.6371005444888</v>
       </c>
       <c r="H2">
-        <v>15.91232430985558</v>
+        <v>9.242864243197566</v>
       </c>
       <c r="I2">
-        <v>25.91559207776746</v>
+        <v>16.01890631821172</v>
       </c>
       <c r="J2">
-        <v>10.2031243511138</v>
+        <v>5.745115672528452</v>
       </c>
       <c r="K2">
-        <v>13.75449887387198</v>
+        <v>16.87316338942861</v>
       </c>
       <c r="L2">
-        <v>10.36385678204158</v>
+        <v>5.842563284634604</v>
       </c>
       <c r="M2">
-        <v>17.22428064879692</v>
+        <v>13.87217748261209</v>
       </c>
       <c r="N2">
-        <v>18.30318065158757</v>
+        <v>12.91573269924399</v>
       </c>
       <c r="O2">
-        <v>25.01590046532404</v>
+        <v>15.22089637345911</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.34353185286267</v>
+        <v>7.136726454932139</v>
       </c>
       <c r="D3">
-        <v>9.072090764205953</v>
+        <v>5.936595394365014</v>
       </c>
       <c r="E3">
-        <v>13.6987164896094</v>
+        <v>8.086896849284477</v>
       </c>
       <c r="F3">
-        <v>33.20697588229252</v>
+        <v>20.99954530439201</v>
       </c>
       <c r="G3">
-        <v>34.94937441229736</v>
+        <v>23.30926015794314</v>
       </c>
       <c r="H3">
-        <v>15.9605431290671</v>
+        <v>9.291401953925677</v>
       </c>
       <c r="I3">
-        <v>25.9844134371041</v>
+        <v>15.94237719738318</v>
       </c>
       <c r="J3">
-        <v>10.22362087341461</v>
+        <v>5.788499725783706</v>
       </c>
       <c r="K3">
-        <v>13.39696777823846</v>
+        <v>15.79602344379548</v>
       </c>
       <c r="L3">
-        <v>10.38344423138485</v>
+        <v>5.877701910405225</v>
       </c>
       <c r="M3">
-        <v>17.09520849998974</v>
+        <v>13.20877885504394</v>
       </c>
       <c r="N3">
-        <v>18.3325065530815</v>
+        <v>12.96616991376126</v>
       </c>
       <c r="O3">
-        <v>25.09512274873964</v>
+        <v>15.21193030904061</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.33232999700479</v>
+        <v>6.994097745290636</v>
       </c>
       <c r="D4">
-        <v>9.065379425366974</v>
+        <v>5.836024229944335</v>
       </c>
       <c r="E4">
-        <v>13.71298460085397</v>
+        <v>8.063473374435056</v>
       </c>
       <c r="F4">
-        <v>33.26152811103319</v>
+        <v>20.88994630817082</v>
       </c>
       <c r="G4">
-        <v>35.01453781551637</v>
+        <v>23.13099124330064</v>
       </c>
       <c r="H4">
-        <v>15.99248696441017</v>
+        <v>9.326701089801029</v>
       </c>
       <c r="I4">
-        <v>26.03158469013912</v>
+        <v>15.90724508881811</v>
       </c>
       <c r="J4">
-        <v>10.23696847608208</v>
+        <v>5.816518043375733</v>
       </c>
       <c r="K4">
-        <v>13.17344684886921</v>
+        <v>15.09536918321248</v>
       </c>
       <c r="L4">
-        <v>10.39625756345143</v>
+        <v>5.900746094913725</v>
       </c>
       <c r="M4">
-        <v>17.01724446427547</v>
+        <v>12.78658117397536</v>
       </c>
       <c r="N4">
-        <v>18.35218613540148</v>
+        <v>13.00062032008172</v>
       </c>
       <c r="O4">
-        <v>25.14855584794082</v>
+        <v>15.21863806396382</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.32817375117347</v>
+        <v>6.93585972573495</v>
       </c>
       <c r="D5">
-        <v>9.062935115917341</v>
+        <v>5.79503572035676</v>
       </c>
       <c r="E5">
-        <v>13.71921253737116</v>
+        <v>8.054736085651912</v>
       </c>
       <c r="F5">
-        <v>33.28550184703148</v>
+        <v>20.84926670877418</v>
       </c>
       <c r="G5">
-        <v>35.043464317481</v>
+        <v>23.06405420072275</v>
       </c>
       <c r="H5">
-        <v>16.00609222307081</v>
+        <v>9.342424303689349</v>
       </c>
       <c r="I5">
-        <v>26.05204189248587</v>
+        <v>15.89583636051521</v>
       </c>
       <c r="J5">
-        <v>10.2425999624393</v>
+        <v>5.828281749570499</v>
       </c>
       <c r="K5">
-        <v>13.08147971793086</v>
+        <v>14.79996380661943</v>
       </c>
       <c r="L5">
-        <v>10.40167733320299</v>
+        <v>5.910503466548187</v>
       </c>
       <c r="M5">
-        <v>16.98582195271599</v>
+        <v>12.61099926607896</v>
       </c>
       <c r="N5">
-        <v>18.36062727849082</v>
+        <v>13.01551822518226</v>
       </c>
       <c r="O5">
-        <v>25.17153338972378</v>
+        <v>15.22433968842045</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.32750838848442</v>
+        <v>6.926185045329458</v>
       </c>
       <c r="D6">
-        <v>9.062546855569138</v>
+        <v>5.788231050965216</v>
       </c>
       <c r="E6">
-        <v>13.7202716743163</v>
+        <v>8.053333874301243</v>
       </c>
       <c r="F6">
-        <v>33.28958787802767</v>
+        <v>20.84275037766713</v>
       </c>
       <c r="G6">
-        <v>35.04841057386863</v>
+        <v>23.0532813412941</v>
       </c>
       <c r="H6">
-        <v>16.00838687744338</v>
+        <v>9.345114722458501</v>
       </c>
       <c r="I6">
-        <v>26.05551331795153</v>
+        <v>15.89411533067088</v>
       </c>
       <c r="J6">
-        <v>10.24354669005479</v>
+        <v>5.830255973687292</v>
       </c>
       <c r="K6">
-        <v>13.06615923190087</v>
+        <v>14.75031512491761</v>
       </c>
       <c r="L6">
-        <v>10.40258926776656</v>
+        <v>5.912145741827658</v>
       </c>
       <c r="M6">
-        <v>16.98062603147338</v>
+        <v>12.58163731673367</v>
       </c>
       <c r="N6">
-        <v>18.3620544073878</v>
+        <v>13.01804343317188</v>
       </c>
       <c r="O6">
-        <v>25.1754214153131</v>
+        <v>15.22546266195879</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.33227228542646</v>
+        <v>6.993312674702692</v>
       </c>
       <c r="D7">
-        <v>9.065345280991275</v>
+        <v>5.835471386257577</v>
       </c>
       <c r="E7">
-        <v>13.71306691780767</v>
+        <v>8.06335227730214</v>
       </c>
       <c r="F7">
-        <v>33.2618443743231</v>
+        <v>20.88938165424736</v>
       </c>
       <c r="G7">
-        <v>35.01491833477233</v>
+        <v>23.13006551560657</v>
       </c>
       <c r="H7">
-        <v>15.99266806914997</v>
+        <v>9.326907775676009</v>
       </c>
       <c r="I7">
-        <v>26.031855586346</v>
+        <v>15.90707955367148</v>
       </c>
       <c r="J7">
-        <v>10.23704364533912</v>
+        <v>5.816675293139194</v>
       </c>
       <c r="K7">
-        <v>13.17220994394744</v>
+        <v>15.09142525800399</v>
       </c>
       <c r="L7">
-        <v>10.39632985312849</v>
+        <v>5.900876204987314</v>
       </c>
       <c r="M7">
-        <v>17.01681924590861</v>
+        <v>12.78422722318768</v>
       </c>
       <c r="N7">
-        <v>18.35229826772941</v>
+        <v>13.00081778111789</v>
       </c>
       <c r="O7">
-        <v>25.14886086166682</v>
+        <v>15.21870307747466</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.35687184251293</v>
+        <v>7.288278843947479</v>
       </c>
       <c r="D8">
-        <v>9.080239473074981</v>
+        <v>6.043733432295731</v>
       </c>
       <c r="E8">
-        <v>13.68490329377819</v>
+        <v>8.114670323671362</v>
       </c>
       <c r="F8">
-        <v>33.15472947200929</v>
+        <v>21.13029423651812</v>
       </c>
       <c r="G8">
-        <v>34.88796711553132</v>
+        <v>23.51924028483005</v>
       </c>
       <c r="H8">
-        <v>15.92846515120526</v>
+        <v>9.258432521402126</v>
       </c>
       <c r="I8">
-        <v>25.93830089882513</v>
+        <v>15.99001537013208</v>
       </c>
       <c r="J8">
-        <v>10.21003353631025</v>
+        <v>5.759787312239713</v>
       </c>
       <c r="K8">
-        <v>13.63212360882655</v>
+        <v>16.50991375485451</v>
       </c>
       <c r="L8">
-        <v>10.37044755272602</v>
+        <v>5.854372533382225</v>
       </c>
       <c r="M8">
-        <v>17.17952459257375</v>
+        <v>13.6466369474471</v>
       </c>
       <c r="N8">
-        <v>18.31294538015815</v>
+        <v>12.93239066908241</v>
       </c>
       <c r="O8">
-        <v>25.04222123626507</v>
+        <v>15.21520886424742</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.41771890320078</v>
+        <v>7.856698205345944</v>
       </c>
       <c r="D9">
-        <v>9.118441344128602</v>
+        <v>6.44775806731281</v>
       </c>
       <c r="E9">
-        <v>13.64268467402059</v>
+        <v>8.241193435667595</v>
       </c>
       <c r="F9">
-        <v>32.99986307122725</v>
+        <v>21.73268347819503</v>
       </c>
       <c r="G9">
-        <v>34.71438194232579</v>
+        <v>24.46759928874539</v>
       </c>
       <c r="H9">
-        <v>15.8211016021672</v>
+        <v>9.169787025926761</v>
       </c>
       <c r="I9">
-        <v>25.79389042322718</v>
+        <v>16.24976381786222</v>
       </c>
       <c r="J9">
-        <v>10.16309754750255</v>
+        <v>5.659237729366235</v>
       </c>
       <c r="K9">
-        <v>14.4972368402414</v>
+        <v>18.9805239670056</v>
       </c>
       <c r="L9">
-        <v>10.32591334675115</v>
+        <v>5.774963871448359</v>
       </c>
       <c r="M9">
-        <v>17.5076843775683</v>
+        <v>15.21240104180937</v>
       </c>
       <c r="N9">
-        <v>18.24901813899956</v>
+        <v>12.82661225736048</v>
       </c>
       <c r="O9">
-        <v>24.87117251597352</v>
+        <v>15.30973201187484</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.4698627536603</v>
+        <v>8.263900120317587</v>
       </c>
       <c r="D10">
-        <v>9.151843406569265</v>
+        <v>6.738966281636993</v>
       </c>
       <c r="E10">
-        <v>13.6195657878797</v>
+        <v>8.350160934467009</v>
       </c>
       <c r="F10">
-        <v>32.91984661614007</v>
+        <v>22.25686609443969</v>
       </c>
       <c r="G10">
-        <v>34.63315657362287</v>
+        <v>25.27917631825017</v>
       </c>
       <c r="H10">
-        <v>15.75351300330886</v>
+        <v>9.135341325145452</v>
       </c>
       <c r="I10">
-        <v>25.71166667123306</v>
+        <v>16.50355726371708</v>
       </c>
       <c r="J10">
-        <v>10.13226159909003</v>
+        <v>5.592162210071561</v>
       </c>
       <c r="K10">
-        <v>15.10417558988707</v>
+        <v>20.60753222940302</v>
       </c>
       <c r="L10">
-        <v>10.29695877723942</v>
+        <v>5.723999631089088</v>
       </c>
       <c r="M10">
-        <v>17.75281069217648</v>
+        <v>16.27830329851256</v>
       </c>
       <c r="N10">
-        <v>18.21007952623941</v>
+        <v>12.76735611515783</v>
       </c>
       <c r="O10">
-        <v>24.76879462820184</v>
+        <v>15.44686428711549</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.49514151456395</v>
+        <v>8.446112991769228</v>
       </c>
       <c r="D11">
-        <v>9.168162740151544</v>
+        <v>6.869672863959278</v>
       </c>
       <c r="E11">
-        <v>13.61075612768409</v>
+        <v>8.403239960988893</v>
       </c>
       <c r="F11">
-        <v>32.89079571713805</v>
+        <v>22.51335637597977</v>
       </c>
       <c r="G11">
-        <v>34.60632248389429</v>
+        <v>25.67334752634714</v>
       </c>
       <c r="H11">
-        <v>15.72521495700417</v>
+        <v>9.126975105065135</v>
       </c>
       <c r="I11">
-        <v>25.6794571853684</v>
+        <v>16.63337097609203</v>
       </c>
       <c r="J11">
-        <v>10.11901959855367</v>
+        <v>5.563147661484626</v>
       </c>
       <c r="K11">
-        <v>15.37290606550009</v>
+        <v>21.30727429686164</v>
       </c>
       <c r="L11">
-        <v>10.28459821104811</v>
+        <v>5.702463442923888</v>
       </c>
       <c r="M11">
-        <v>17.86487173712717</v>
+        <v>16.74365961930225</v>
       </c>
       <c r="N11">
-        <v>18.19409923110705</v>
+        <v>12.74467465709486</v>
       </c>
       <c r="O11">
-        <v>24.72729414194041</v>
+        <v>15.52512782744266</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.50493262381697</v>
+        <v>8.514622319556604</v>
       </c>
       <c r="D12">
-        <v>9.174500965758501</v>
+        <v>6.918873838936185</v>
       </c>
       <c r="E12">
-        <v>13.60766494210441</v>
+        <v>8.423845243519775</v>
       </c>
       <c r="F12">
-        <v>32.88085259546004</v>
+        <v>22.61308824178598</v>
       </c>
       <c r="G12">
-        <v>34.59761947519446</v>
+        <v>25.82618272459379</v>
       </c>
       <c r="H12">
-        <v>15.71485117074796</v>
+        <v>9.124911778480353</v>
       </c>
       <c r="I12">
-        <v>25.66800800296306</v>
+        <v>16.68464115243794</v>
       </c>
       <c r="J12">
-        <v>10.1141176857656</v>
+        <v>5.552378509522043</v>
       </c>
       <c r="K12">
-        <v>15.47352188527023</v>
+        <v>21.56647912402016</v>
       </c>
       <c r="L12">
-        <v>10.28003376260295</v>
+        <v>5.694549520007872</v>
       </c>
       <c r="M12">
-        <v>17.90735794938544</v>
+        <v>16.91699495336806</v>
       </c>
       <c r="N12">
-        <v>18.18829635598145</v>
+        <v>12.73672409242063</v>
       </c>
       <c r="O12">
-        <v>24.71230954321607</v>
+        <v>15.557138411053</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.50281430140066</v>
+        <v>8.499890248002643</v>
       </c>
       <c r="D13">
-        <v>9.17312892192861</v>
+        <v>6.908291245003609</v>
       </c>
       <c r="E13">
-        <v>13.60831980573066</v>
+        <v>8.419385043196861</v>
       </c>
       <c r="F13">
-        <v>32.88294696516673</v>
+        <v>22.59149325884024</v>
       </c>
       <c r="G13">
-        <v>34.59942890559144</v>
+        <v>25.79310854553365</v>
       </c>
       <c r="H13">
-        <v>15.71706753916919</v>
+        <v>9.125306135476894</v>
       </c>
       <c r="I13">
-        <v>25.67044051600512</v>
+        <v>16.67350454827399</v>
       </c>
       <c r="J13">
-        <v>10.11516840119476</v>
+        <v>5.554688098205979</v>
       </c>
       <c r="K13">
-        <v>15.45190476354531</v>
+        <v>21.5109108400212</v>
       </c>
       <c r="L13">
-        <v>10.28101163511488</v>
+        <v>5.696243116091626</v>
       </c>
       <c r="M13">
-        <v>17.89820595810774</v>
+        <v>16.87979344533012</v>
       </c>
       <c r="N13">
-        <v>18.18953506728115</v>
+        <v>12.73840760386685</v>
       </c>
       <c r="O13">
-        <v>24.7155042232946</v>
+        <v>15.55013739534488</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.49594268644575</v>
+        <v>8.451759424568973</v>
       </c>
       <c r="D14">
-        <v>9.168681033449598</v>
+        <v>6.873726784694484</v>
       </c>
       <c r="E14">
-        <v>13.61049691090406</v>
+        <v>8.404925038583148</v>
       </c>
       <c r="F14">
-        <v>32.88995648558032</v>
+        <v>22.52150913879082</v>
       </c>
       <c r="G14">
-        <v>34.60557723309415</v>
+        <v>25.68584995631751</v>
       </c>
       <c r="H14">
-        <v>15.72435526607395</v>
+        <v>9.12678289558297</v>
       </c>
       <c r="I14">
-        <v>25.67850026169898</v>
+        <v>16.63754641325567</v>
       </c>
       <c r="J14">
-        <v>10.11861406192456</v>
+        <v>5.562257291519273</v>
       </c>
       <c r="K14">
-        <v>15.38120723876273</v>
+        <v>21.32871470059513</v>
       </c>
       <c r="L14">
-        <v>10.28422036394836</v>
+        <v>5.701807495872287</v>
       </c>
       <c r="M14">
-        <v>17.86836624013119</v>
+        <v>16.75797822197639</v>
       </c>
       <c r="N14">
-        <v>18.19361684845148</v>
+        <v>12.74400762419149</v>
       </c>
       <c r="O14">
-        <v>24.72604669712558</v>
+        <v>15.52771328183906</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.49176192374032</v>
+        <v>8.422212464109839</v>
       </c>
       <c r="D15">
-        <v>9.165977108655241</v>
+        <v>6.852515525030826</v>
       </c>
       <c r="E15">
-        <v>13.61186231609007</v>
+        <v>8.396133699773021</v>
       </c>
       <c r="F15">
-        <v>32.89438780341464</v>
+        <v>22.47898124286126</v>
       </c>
       <c r="G15">
-        <v>34.60953329758625</v>
+        <v>25.620615237212</v>
       </c>
       <c r="H15">
-        <v>15.72886505908332</v>
+        <v>9.127832969300382</v>
       </c>
       <c r="I15">
-        <v>25.68353450443988</v>
+        <v>16.61579744822335</v>
       </c>
       <c r="J15">
-        <v>10.12073927361229</v>
+        <v>5.566922115803223</v>
       </c>
       <c r="K15">
-        <v>15.33775119906953</v>
+        <v>21.21636370996009</v>
       </c>
       <c r="L15">
-        <v>10.28620092794989</v>
+        <v>5.70524740900549</v>
       </c>
       <c r="M15">
-        <v>17.85009437295884</v>
+        <v>16.68298517407086</v>
       </c>
       <c r="N15">
-        <v>18.19614940064527</v>
+        <v>12.74752166435894</v>
       </c>
       <c r="O15">
-        <v>24.73259947077253</v>
+        <v>15.51428960875414</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.46824162040785</v>
+        <v>8.251926282388926</v>
       </c>
       <c r="D16">
-        <v>9.150799253259409</v>
+        <v>6.730385180905903</v>
       </c>
       <c r="E16">
-        <v>13.6201758186216</v>
+        <v>8.346762791524576</v>
       </c>
       <c r="F16">
-        <v>32.92189313967062</v>
+        <v>22.24046788912581</v>
       </c>
       <c r="G16">
-        <v>34.63511414766594</v>
+        <v>25.2539174222233</v>
       </c>
       <c r="H16">
-        <v>15.75541161426176</v>
+        <v>9.136039675316219</v>
       </c>
       <c r="I16">
-        <v>25.7138762432122</v>
+        <v>16.49536679477273</v>
       </c>
       <c r="J16">
-        <v>10.13314276564222</v>
+        <v>5.594088742789909</v>
       </c>
       <c r="K16">
-        <v>15.08645752769094</v>
+        <v>20.56099264380843</v>
       </c>
       <c r="L16">
-        <v>10.29778285528589</v>
+        <v>5.725440598440187</v>
       </c>
       <c r="M16">
-        <v>17.7454959295417</v>
+        <v>16.24749124869072</v>
       </c>
       <c r="N16">
-        <v>18.21115869032516</v>
+        <v>12.76892641687537</v>
       </c>
       <c r="O16">
-        <v>24.77160896270736</v>
+        <v>15.44207696922498</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.45420796413464</v>
+        <v>8.14664451050354</v>
       </c>
       <c r="D17">
-        <v>9.141773883582536</v>
+        <v>6.654979553655843</v>
       </c>
       <c r="E17">
-        <v>13.62571269280552</v>
+        <v>8.317374898776125</v>
       </c>
       <c r="F17">
-        <v>32.94064989442336</v>
+        <v>22.09877736703718</v>
       </c>
       <c r="G17">
-        <v>34.65340106493903</v>
+        <v>25.03534689450845</v>
       </c>
       <c r="H17">
-        <v>15.77232414721887</v>
+        <v>9.142983209604745</v>
       </c>
       <c r="I17">
-        <v>25.73382103813397</v>
+        <v>16.42520025336486</v>
       </c>
       <c r="J17">
-        <v>10.14095278835601</v>
+        <v>5.6111400956234</v>
       </c>
       <c r="K17">
-        <v>14.93034526511799</v>
+        <v>20.14862279629781</v>
       </c>
       <c r="L17">
-        <v>10.30509543163133</v>
+        <v>5.738253527475373</v>
       </c>
       <c r="M17">
-        <v>17.68144941506159</v>
+        <v>15.97526799104948</v>
       </c>
       <c r="N17">
-        <v>18.22080978872636</v>
+        <v>12.78316884008584</v>
       </c>
       <c r="O17">
-        <v>24.79684005709277</v>
+        <v>15.40191009215866</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.44628319222086</v>
+        <v>8.085807342070398</v>
       </c>
       <c r="D18">
-        <v>9.136688783903249</v>
+        <v>6.611444234222668</v>
       </c>
       <c r="E18">
-        <v>13.62905809147313</v>
+        <v>8.300802059287456</v>
       </c>
       <c r="F18">
-        <v>32.95212996704461</v>
+        <v>22.01897830237898</v>
       </c>
       <c r="G18">
-        <v>34.66487118098207</v>
+        <v>24.91198429662865</v>
       </c>
       <c r="H18">
-        <v>15.78228223885516</v>
+        <v>9.147661024229249</v>
       </c>
       <c r="I18">
-        <v>25.74578164571096</v>
+        <v>16.38619163418134</v>
       </c>
       <c r="J18">
-        <v>10.1455188584837</v>
+        <v>5.621088452243238</v>
       </c>
       <c r="K18">
-        <v>14.83986470296202</v>
+        <v>19.90763426288506</v>
       </c>
       <c r="L18">
-        <v>10.30937779175057</v>
+        <v>5.745777990245755</v>
       </c>
       <c r="M18">
-        <v>17.6446651857665</v>
+        <v>15.81685772794692</v>
       </c>
       <c r="N18">
-        <v>18.2265240122354</v>
+        <v>12.79176154183236</v>
       </c>
       <c r="O18">
-        <v>24.81182961055299</v>
+        <v>15.3802968970116</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.44362541364</v>
+        <v>8.065162321407698</v>
       </c>
       <c r="D19">
-        <v>9.13498536850056</v>
+        <v>6.596677071437364</v>
       </c>
       <c r="E19">
-        <v>13.63021841174202</v>
+        <v>8.295247474634355</v>
       </c>
       <c r="F19">
-        <v>32.95613568133409</v>
+        <v>21.99225082386919</v>
       </c>
       <c r="G19">
-        <v>34.66891813473086</v>
+        <v>24.87062050001149</v>
       </c>
       <c r="H19">
-        <v>15.7856934575499</v>
+        <v>9.1493607002577</v>
       </c>
       <c r="I19">
-        <v>25.74991523944282</v>
+        <v>16.37321420392911</v>
       </c>
       <c r="J19">
-        <v>10.14707756483782</v>
+        <v>5.624480916521327</v>
       </c>
       <c r="K19">
-        <v>14.80911399486523</v>
+        <v>19.82538525532435</v>
       </c>
       <c r="L19">
-        <v>10.31084085217624</v>
+        <v>5.748352102431891</v>
       </c>
       <c r="M19">
-        <v>17.63222075013675</v>
+        <v>15.76291025985412</v>
       </c>
       <c r="N19">
-        <v>18.22848679549409</v>
+        <v>12.79473902350486</v>
       </c>
       <c r="O19">
-        <v>24.81698674681065</v>
+        <v>15.37323207887507</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.45568669412088</v>
+        <v>8.157881533835733</v>
       </c>
       <c r="D20">
-        <v>9.142723696562767</v>
+        <v>6.663023894087446</v>
       </c>
       <c r="E20">
-        <v>13.62510665225489</v>
+        <v>8.320469097600093</v>
       </c>
       <c r="F20">
-        <v>32.93858161038364</v>
+        <v>22.11368477173516</v>
       </c>
       <c r="G20">
-        <v>34.65135583595536</v>
+        <v>25.05837065263281</v>
       </c>
       <c r="H20">
-        <v>15.77049992848917</v>
+        <v>9.142172867736862</v>
       </c>
       <c r="I20">
-        <v>25.73164727554352</v>
+        <v>16.43252959248935</v>
       </c>
       <c r="J20">
-        <v>10.14011374728674</v>
+        <v>5.609310353040879</v>
       </c>
       <c r="K20">
-        <v>14.94703563696488</v>
+        <v>20.1929137518426</v>
       </c>
       <c r="L20">
-        <v>10.30430909532102</v>
+        <v>5.736873516582043</v>
       </c>
       <c r="M20">
-        <v>17.68826192985545</v>
+        <v>16.00443711171998</v>
       </c>
       <c r="N20">
-        <v>18.21976553071208</v>
+        <v>12.7816110566494</v>
       </c>
       <c r="O20">
-        <v>24.79410475512455</v>
+        <v>15.40603107529813</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.49795515880547</v>
+        <v>8.465910341655881</v>
       </c>
       <c r="D21">
-        <v>9.169983212594763</v>
+        <v>6.88388750956311</v>
       </c>
       <c r="E21">
-        <v>13.60985080284972</v>
+        <v>8.40915857267535</v>
       </c>
       <c r="F21">
-        <v>32.88786890410843</v>
+        <v>22.54199443073986</v>
       </c>
       <c r="G21">
-        <v>34.60373171121746</v>
+        <v>25.71725770307874</v>
       </c>
       <c r="H21">
-        <v>15.72220512895987</v>
+        <v>9.12631871096692</v>
       </c>
       <c r="I21">
-        <v>25.67611261630522</v>
+        <v>16.64805050396509</v>
       </c>
       <c r="J21">
-        <v>10.11759893654389</v>
+        <v>5.560028096835383</v>
       </c>
       <c r="K21">
-        <v>15.40200458727408</v>
+        <v>21.38238647716042</v>
       </c>
       <c r="L21">
-        <v>10.28327473118154</v>
+        <v>5.700166515147273</v>
       </c>
       <c r="M21">
-        <v>17.8771297256337</v>
+        <v>16.7938371334887</v>
       </c>
       <c r="N21">
-        <v>18.19241119129612</v>
+        <v>12.74234524075136</v>
       </c>
       <c r="O21">
-        <v>24.72293027416022</v>
+        <v>15.53423466622302</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.52685143906266</v>
+        <v>8.664343673547371</v>
       </c>
       <c r="D22">
-        <v>9.188720825628923</v>
+        <v>7.026500504989258</v>
       </c>
       <c r="E22">
-        <v>13.60130701359436</v>
+        <v>8.470068122353727</v>
       </c>
       <c r="F22">
-        <v>32.86089122773584</v>
+        <v>22.83710159827258</v>
       </c>
       <c r="G22">
-        <v>34.5811088888284</v>
+        <v>26.16867753554393</v>
       </c>
       <c r="H22">
-        <v>15.69269381610073</v>
+        <v>9.122422771406589</v>
       </c>
       <c r="I22">
-        <v>25.64417684800319</v>
+        <v>16.80123776731005</v>
       </c>
       <c r="J22">
-        <v>10.10354002548465</v>
+        <v>5.529091542070543</v>
       </c>
       <c r="K22">
-        <v>15.69263509953569</v>
+        <v>22.12614939401843</v>
       </c>
       <c r="L22">
-        <v>10.27020485423625</v>
+        <v>5.677585521298337</v>
       </c>
       <c r="M22">
-        <v>18.00085073823206</v>
+        <v>17.29291544837082</v>
       </c>
       <c r="N22">
-        <v>18.1759817653106</v>
+        <v>12.720415820084</v>
       </c>
       <c r="O22">
-        <v>24.68067351426538</v>
+        <v>15.63189834225822</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.51131449494369</v>
+        <v>8.558716310825609</v>
       </c>
       <c r="D23">
-        <v>9.178636965819688</v>
+        <v>6.950556360935319</v>
       </c>
       <c r="E23">
-        <v>13.60573667089935</v>
+        <v>8.437289898787851</v>
       </c>
       <c r="F23">
-        <v>32.87472528746953</v>
+        <v>22.67820625245094</v>
       </c>
       <c r="G23">
-        <v>34.59240410875231</v>
+        <v>25.92585256768208</v>
       </c>
       <c r="H23">
-        <v>15.70825678950844</v>
+        <v>9.123892155658853</v>
       </c>
       <c r="I23">
-        <v>25.6608224381079</v>
+        <v>16.71833615723248</v>
       </c>
       <c r="J23">
-        <v>10.1109836537604</v>
+        <v>5.545485625809635</v>
       </c>
       <c r="K23">
-        <v>15.53816153010405</v>
+        <v>21.73225312493422</v>
       </c>
       <c r="L23">
-        <v>10.27711864978084</v>
+        <v>5.689506933914104</v>
       </c>
       <c r="M23">
-        <v>17.93480172877297</v>
+        <v>17.02810998801232</v>
       </c>
       <c r="N23">
-        <v>18.18461817808389</v>
+        <v>12.73177021863091</v>
       </c>
       <c r="O23">
-        <v>24.70283651566605</v>
+        <v>15.57847526751192</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.45501771333049</v>
+        <v>8.152802234606595</v>
       </c>
       <c r="D24">
-        <v>9.142293962847212</v>
+        <v>6.65938761656284</v>
       </c>
       <c r="E24">
-        <v>13.62538013798441</v>
+        <v>8.319069205390281</v>
       </c>
       <c r="F24">
-        <v>32.93951451194062</v>
+        <v>22.10693996223856</v>
       </c>
       <c r="G24">
-        <v>34.65227750416214</v>
+        <v>25.04795445696037</v>
       </c>
       <c r="H24">
-        <v>15.77132392622728</v>
+        <v>9.142537091037338</v>
       </c>
       <c r="I24">
-        <v>25.73262849466066</v>
+        <v>16.42921185595992</v>
       </c>
       <c r="J24">
-        <v>10.14049284104111</v>
+        <v>5.6101371272536</v>
       </c>
       <c r="K24">
-        <v>14.93949218552087</v>
+        <v>20.17290199733708</v>
       </c>
       <c r="L24">
-        <v>10.30466435415805</v>
+        <v>5.737496927269524</v>
       </c>
       <c r="M24">
-        <v>17.68518187461548</v>
+        <v>15.99125568141494</v>
       </c>
       <c r="N24">
-        <v>18.22023712362964</v>
+        <v>12.78231407226283</v>
       </c>
       <c r="O24">
-        <v>24.7953398780564</v>
+        <v>15.40416337808934</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.39993273317789</v>
+        <v>7.704469054519332</v>
       </c>
       <c r="D25">
-        <v>9.107158483970927</v>
+        <v>6.339247183765688</v>
       </c>
       <c r="E25">
-        <v>13.65271628516495</v>
+        <v>8.204166583106234</v>
       </c>
       <c r="F25">
-        <v>33.03583665674864</v>
+        <v>21.55552208269272</v>
       </c>
       <c r="G25">
-        <v>34.75323250134138</v>
+        <v>24.19094206320632</v>
       </c>
       <c r="H25">
-        <v>15.84816267956793</v>
+        <v>9.18859217398585</v>
       </c>
       <c r="I25">
-        <v>25.82876907294693</v>
+        <v>16.1686889887906</v>
       </c>
       <c r="J25">
-        <v>10.17515231391428</v>
+        <v>5.685252395029428</v>
       </c>
       <c r="K25">
-        <v>14.26781356500503</v>
+        <v>18.34532835616679</v>
       </c>
       <c r="L25">
-        <v>10.33729791791401</v>
+        <v>5.795165387549375</v>
       </c>
       <c r="M25">
-        <v>17.4180902324991</v>
+        <v>14.80317148165506</v>
       </c>
       <c r="N25">
-        <v>18.26489897793027</v>
+        <v>12.85207304752029</v>
       </c>
       <c r="O25">
-        <v>24.91336114759139</v>
+        <v>15.2726869640783</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.367698469070261</v>
+        <v>6.129572270791513</v>
       </c>
       <c r="D2">
-        <v>6.099984111143166</v>
+        <v>4.326787923836272</v>
       </c>
       <c r="E2">
-        <v>8.130316088128112</v>
+        <v>7.193081385746487</v>
       </c>
       <c r="F2">
-        <v>21.20425140853199</v>
+        <v>28.50207536134477</v>
       </c>
       <c r="G2">
-        <v>23.6371005444888</v>
+        <v>36.21926986642577</v>
       </c>
       <c r="H2">
-        <v>9.242864243197566</v>
+        <v>3.510802451962401</v>
       </c>
       <c r="I2">
-        <v>16.01890631821172</v>
+        <v>3.83107825618078</v>
       </c>
       <c r="J2">
-        <v>5.745115672528452</v>
+        <v>12.36630335773678</v>
       </c>
       <c r="K2">
-        <v>16.87316338942861</v>
+        <v>21.61797518442891</v>
       </c>
       <c r="L2">
-        <v>5.842563284634604</v>
+        <v>5.89327407934074</v>
       </c>
       <c r="M2">
-        <v>13.87217748261209</v>
+        <v>20.30169081521494</v>
       </c>
       <c r="N2">
-        <v>12.91573269924399</v>
+        <v>5.452763552321003</v>
       </c>
       <c r="O2">
-        <v>15.22089637345911</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16.04722870482933</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.136726454932139</v>
+        <v>5.798470420983231</v>
       </c>
       <c r="D3">
-        <v>5.936595394365014</v>
+        <v>4.15476510611631</v>
       </c>
       <c r="E3">
-        <v>8.086896849284477</v>
+        <v>7.016343400434002</v>
       </c>
       <c r="F3">
-        <v>20.99954530439201</v>
+        <v>28.10871282425341</v>
       </c>
       <c r="G3">
-        <v>23.30926015794314</v>
+        <v>35.63684052612348</v>
       </c>
       <c r="H3">
-        <v>9.291401953925677</v>
+        <v>3.772422913000413</v>
       </c>
       <c r="I3">
-        <v>15.94237719738318</v>
+        <v>4.064270382634986</v>
       </c>
       <c r="J3">
-        <v>5.788499725783706</v>
+        <v>12.34917187954346</v>
       </c>
       <c r="K3">
-        <v>15.79602344379548</v>
+        <v>21.37169105539021</v>
       </c>
       <c r="L3">
-        <v>5.877701910405225</v>
+        <v>5.834321960217408</v>
       </c>
       <c r="M3">
-        <v>13.20877885504394</v>
+        <v>19.01676993524849</v>
       </c>
       <c r="N3">
-        <v>12.96616991376126</v>
+        <v>5.429319244772056</v>
       </c>
       <c r="O3">
-        <v>15.21193030904061</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15.2006564930875</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.994097745290636</v>
+        <v>5.582984690442178</v>
       </c>
       <c r="D4">
-        <v>5.836024229944335</v>
+        <v>4.046513780384413</v>
       </c>
       <c r="E4">
-        <v>8.063473374435056</v>
+        <v>6.90470831756186</v>
       </c>
       <c r="F4">
-        <v>20.88994630817082</v>
+        <v>27.87337097012429</v>
       </c>
       <c r="G4">
-        <v>23.13099124330064</v>
+        <v>35.28855405177269</v>
       </c>
       <c r="H4">
-        <v>9.326701089801029</v>
+        <v>3.938483302264548</v>
       </c>
       <c r="I4">
-        <v>15.90724508881811</v>
+        <v>4.213155403171513</v>
       </c>
       <c r="J4">
-        <v>5.816518043375733</v>
+        <v>12.3422740020143</v>
       </c>
       <c r="K4">
-        <v>15.09536918321248</v>
+        <v>21.22309104235136</v>
       </c>
       <c r="L4">
-        <v>5.900746094913725</v>
+        <v>5.796755821269818</v>
       </c>
       <c r="M4">
-        <v>12.78658117397536</v>
+        <v>18.18346506138737</v>
       </c>
       <c r="N4">
-        <v>13.00062032008172</v>
+        <v>5.415014062771321</v>
       </c>
       <c r="O4">
-        <v>15.21863806396382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.656993946427</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.93585972573495</v>
+        <v>5.484252517496855</v>
       </c>
       <c r="D5">
-        <v>5.79503572035676</v>
+        <v>4.00391745692648</v>
       </c>
       <c r="E5">
-        <v>8.054736085651912</v>
+        <v>6.857619951463552</v>
       </c>
       <c r="F5">
-        <v>20.84926670877418</v>
+        <v>27.76515392311224</v>
       </c>
       <c r="G5">
-        <v>23.06405420072275</v>
+        <v>35.1247811796076</v>
       </c>
       <c r="H5">
-        <v>9.342424303689349</v>
+        <v>4.008057877493331</v>
       </c>
       <c r="I5">
-        <v>15.89583636051521</v>
+        <v>4.27790144255822</v>
       </c>
       <c r="J5">
-        <v>5.828281749570499</v>
+        <v>12.33588810500594</v>
       </c>
       <c r="K5">
-        <v>14.79996380661943</v>
+        <v>21.15144025261399</v>
       </c>
       <c r="L5">
-        <v>5.910503466548187</v>
+        <v>5.780341643625932</v>
       </c>
       <c r="M5">
-        <v>12.61099926607896</v>
+        <v>17.83301443532342</v>
       </c>
       <c r="N5">
-        <v>13.01551822518226</v>
+        <v>5.409717147963413</v>
       </c>
       <c r="O5">
-        <v>15.22433968842045</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.4292443660834</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.926185045329458</v>
+        <v>5.458065948435569</v>
       </c>
       <c r="D6">
-        <v>5.788231050965216</v>
+        <v>3.999423280891107</v>
       </c>
       <c r="E6">
-        <v>8.053333874301243</v>
+        <v>6.848742423521601</v>
       </c>
       <c r="F6">
-        <v>20.84275037766713</v>
+        <v>27.73029448892171</v>
       </c>
       <c r="G6">
-        <v>23.0532813412941</v>
+        <v>35.06812346963209</v>
       </c>
       <c r="H6">
-        <v>9.345114722458501</v>
+        <v>4.020322465386438</v>
       </c>
       <c r="I6">
-        <v>15.89411533067088</v>
+        <v>4.292074383400144</v>
       </c>
       <c r="J6">
-        <v>5.830255973687292</v>
+        <v>12.3294343282953</v>
       </c>
       <c r="K6">
-        <v>14.75031512491761</v>
+        <v>21.12519976057011</v>
       </c>
       <c r="L6">
-        <v>5.912145741827658</v>
+        <v>5.776669175224853</v>
       </c>
       <c r="M6">
-        <v>12.58163731673367</v>
+        <v>17.77443512694223</v>
       </c>
       <c r="N6">
-        <v>13.01804343317188</v>
+        <v>5.409470718734104</v>
       </c>
       <c r="O6">
-        <v>15.22546266195879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.39063360527178</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.993312674702692</v>
+        <v>5.55588851701825</v>
       </c>
       <c r="D7">
-        <v>5.835471386257577</v>
+        <v>4.052976510571769</v>
       </c>
       <c r="E7">
-        <v>8.06335227730214</v>
+        <v>6.901340381981172</v>
       </c>
       <c r="F7">
-        <v>20.88938165424736</v>
+        <v>27.82574779121951</v>
       </c>
       <c r="G7">
-        <v>23.13006551560657</v>
+        <v>35.20590313094231</v>
       </c>
       <c r="H7">
-        <v>9.326907775676009</v>
+        <v>3.941105673918901</v>
       </c>
       <c r="I7">
-        <v>15.90707955367148</v>
+        <v>4.222885308038755</v>
       </c>
       <c r="J7">
-        <v>5.816675293139194</v>
+        <v>12.32734363448457</v>
       </c>
       <c r="K7">
-        <v>15.09142525800399</v>
+        <v>21.18298956582004</v>
       </c>
       <c r="L7">
-        <v>5.900876204987314</v>
+        <v>5.794030892867027</v>
       </c>
       <c r="M7">
-        <v>12.78422722318768</v>
+        <v>18.17951172594544</v>
       </c>
       <c r="N7">
-        <v>13.00081778111789</v>
+        <v>5.416661349831177</v>
       </c>
       <c r="O7">
-        <v>15.21870307747466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.65273499275806</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.288278843947479</v>
+        <v>5.985915849943118</v>
       </c>
       <c r="D8">
-        <v>6.043733432295731</v>
+        <v>4.276884659677515</v>
       </c>
       <c r="E8">
-        <v>8.114670323671362</v>
+        <v>7.129309987247166</v>
       </c>
       <c r="F8">
-        <v>21.13029423651812</v>
+        <v>28.3052806314218</v>
       </c>
       <c r="G8">
-        <v>23.51924028483005</v>
+        <v>35.91232486265199</v>
       </c>
       <c r="H8">
-        <v>9.258432521402126</v>
+        <v>3.60203533634015</v>
       </c>
       <c r="I8">
-        <v>15.99001537013208</v>
+        <v>3.921685517531404</v>
       </c>
       <c r="J8">
-        <v>5.759787312239713</v>
+        <v>12.34015647409245</v>
       </c>
       <c r="K8">
-        <v>16.50991375485451</v>
+        <v>21.48154369081901</v>
       </c>
       <c r="L8">
-        <v>5.854372533382225</v>
+        <v>5.870019903396124</v>
       </c>
       <c r="M8">
-        <v>13.6466369474471</v>
+        <v>19.86867837033132</v>
       </c>
       <c r="N8">
-        <v>12.93239066908241</v>
+        <v>5.446917547665515</v>
       </c>
       <c r="O8">
-        <v>15.21520886424742</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>15.75880109406301</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.856698205345944</v>
+        <v>6.774591160941501</v>
       </c>
       <c r="D9">
-        <v>6.44775806731281</v>
+        <v>4.681865834210703</v>
       </c>
       <c r="E9">
-        <v>8.241193435667595</v>
+        <v>7.555694771055981</v>
       </c>
       <c r="F9">
-        <v>21.73268347819503</v>
+        <v>29.3741340951833</v>
       </c>
       <c r="G9">
-        <v>24.46759928874539</v>
+        <v>37.51033136799398</v>
       </c>
       <c r="H9">
-        <v>9.169787025926761</v>
+        <v>2.976108856912622</v>
       </c>
       <c r="I9">
-        <v>16.24976381786222</v>
+        <v>3.360712343523275</v>
       </c>
       <c r="J9">
-        <v>5.659237729366235</v>
+        <v>12.42167951696666</v>
       </c>
       <c r="K9">
-        <v>18.9805239670056</v>
+        <v>22.1558521251077</v>
       </c>
       <c r="L9">
-        <v>5.774963871448359</v>
+        <v>6.012619816622796</v>
       </c>
       <c r="M9">
-        <v>15.21240104180937</v>
+        <v>22.85621779589588</v>
       </c>
       <c r="N9">
-        <v>12.82661225736048</v>
+        <v>5.504094371257592</v>
       </c>
       <c r="O9">
-        <v>15.30973201187484</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>17.73506561329193</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.263900120317587</v>
+        <v>7.25448883703681</v>
       </c>
       <c r="D10">
-        <v>6.738966281636993</v>
+        <v>4.954785265697078</v>
       </c>
       <c r="E10">
-        <v>8.350160934467009</v>
+        <v>7.783819573548935</v>
       </c>
       <c r="F10">
-        <v>22.25686609443969</v>
+        <v>29.93903410430413</v>
       </c>
       <c r="G10">
-        <v>25.27917631825017</v>
+        <v>38.33895338083615</v>
       </c>
       <c r="H10">
-        <v>9.135341325145452</v>
+        <v>2.568484823149055</v>
       </c>
       <c r="I10">
-        <v>16.50355726371708</v>
+        <v>2.987509429006957</v>
       </c>
       <c r="J10">
-        <v>5.592162210071561</v>
+        <v>12.4262553197313</v>
       </c>
       <c r="K10">
-        <v>20.60753222940302</v>
+        <v>22.48927877438421</v>
       </c>
       <c r="L10">
-        <v>5.723999631089088</v>
+        <v>6.085213488124182</v>
       </c>
       <c r="M10">
-        <v>16.27830329851256</v>
+        <v>24.88737445750608</v>
       </c>
       <c r="N10">
-        <v>12.76735611515783</v>
+        <v>5.521184747891258</v>
       </c>
       <c r="O10">
-        <v>15.44686428711549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>19.01498153640171</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.446112991769228</v>
+        <v>7.171025220473647</v>
       </c>
       <c r="D11">
-        <v>6.869672863959278</v>
+        <v>4.9771947891836</v>
       </c>
       <c r="E11">
-        <v>8.403239960988893</v>
+        <v>7.341044634778905</v>
       </c>
       <c r="F11">
-        <v>22.51335637597977</v>
+        <v>28.18379525144166</v>
       </c>
       <c r="G11">
-        <v>25.67334752634714</v>
+        <v>35.59012976953034</v>
       </c>
       <c r="H11">
-        <v>9.126975105065135</v>
+        <v>3.305180122037064</v>
       </c>
       <c r="I11">
-        <v>16.63337097609203</v>
+        <v>2.900045367604425</v>
       </c>
       <c r="J11">
-        <v>5.563147661484626</v>
+        <v>11.82297213548038</v>
       </c>
       <c r="K11">
-        <v>21.30727429686164</v>
+        <v>21.25332029831891</v>
       </c>
       <c r="L11">
-        <v>5.702463442923888</v>
+        <v>5.942342193034949</v>
       </c>
       <c r="M11">
-        <v>16.74365961930225</v>
+        <v>25.84617579854355</v>
       </c>
       <c r="N11">
-        <v>12.74467465709486</v>
+        <v>5.344959867817157</v>
       </c>
       <c r="O11">
-        <v>15.52512782744266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.15944892113858</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.514622319556604</v>
+        <v>7.034807464454404</v>
       </c>
       <c r="D12">
-        <v>6.918873838936185</v>
+        <v>4.92725352187355</v>
       </c>
       <c r="E12">
-        <v>8.423845243519775</v>
+        <v>6.990219098681141</v>
       </c>
       <c r="F12">
-        <v>22.61308824178598</v>
+        <v>26.64183252099156</v>
       </c>
       <c r="G12">
-        <v>25.82618272459379</v>
+        <v>33.19141338145017</v>
       </c>
       <c r="H12">
-        <v>9.124911778480353</v>
+        <v>4.526564682507711</v>
       </c>
       <c r="I12">
-        <v>16.68464115243794</v>
+        <v>2.881182140481978</v>
       </c>
       <c r="J12">
-        <v>5.552378509522043</v>
+        <v>11.3385647654172</v>
       </c>
       <c r="K12">
-        <v>21.56647912402016</v>
+        <v>20.19866269957022</v>
       </c>
       <c r="L12">
-        <v>5.694549520007872</v>
+        <v>5.868473415629595</v>
       </c>
       <c r="M12">
-        <v>16.91699495336806</v>
+        <v>26.2453233664619</v>
       </c>
       <c r="N12">
-        <v>12.73672409242063</v>
+        <v>5.254031593756311</v>
       </c>
       <c r="O12">
-        <v>15.557138411053</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>19.01291814545457</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.499890248002643</v>
+        <v>6.813912313477714</v>
       </c>
       <c r="D13">
-        <v>6.908291245003609</v>
+        <v>4.826395181810188</v>
       </c>
       <c r="E13">
-        <v>8.419385043196861</v>
+        <v>6.691174553153445</v>
       </c>
       <c r="F13">
-        <v>22.59149325884024</v>
+        <v>25.09485567391144</v>
       </c>
       <c r="G13">
-        <v>25.79310854553365</v>
+        <v>30.7808317859974</v>
       </c>
       <c r="H13">
-        <v>9.125306135476894</v>
+        <v>5.875141020893924</v>
       </c>
       <c r="I13">
-        <v>16.67350454827399</v>
+        <v>2.92969942002494</v>
       </c>
       <c r="J13">
-        <v>5.554688098205979</v>
+        <v>10.89558619531717</v>
       </c>
       <c r="K13">
-        <v>21.5109108400212</v>
+        <v>19.15958884395539</v>
       </c>
       <c r="L13">
-        <v>5.696243116091626</v>
+        <v>5.839751253822405</v>
       </c>
       <c r="M13">
-        <v>16.87979344533012</v>
+        <v>26.25122869040684</v>
       </c>
       <c r="N13">
-        <v>12.73840760386685</v>
+        <v>5.227144402738964</v>
       </c>
       <c r="O13">
-        <v>15.55013739534488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>18.6281505768105</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.451759424568973</v>
+        <v>6.613095696700204</v>
       </c>
       <c r="D14">
-        <v>6.873726784694484</v>
+        <v>4.733202914103849</v>
       </c>
       <c r="E14">
-        <v>8.404925038583148</v>
+        <v>6.520481997408371</v>
       </c>
       <c r="F14">
-        <v>22.52150913879082</v>
+        <v>24.00541971820907</v>
       </c>
       <c r="G14">
-        <v>25.68584995631751</v>
+        <v>29.07691214676581</v>
       </c>
       <c r="H14">
-        <v>9.12678289558297</v>
+        <v>6.855017215833338</v>
       </c>
       <c r="I14">
-        <v>16.63754641325567</v>
+        <v>2.997023556529416</v>
       </c>
       <c r="J14">
-        <v>5.562257291519273</v>
+        <v>10.60574666189321</v>
       </c>
       <c r="K14">
-        <v>21.32871470059513</v>
+        <v>18.43673821413369</v>
       </c>
       <c r="L14">
-        <v>5.701807495872287</v>
+        <v>5.847607771865461</v>
       </c>
       <c r="M14">
-        <v>16.75797822197639</v>
+        <v>26.07795455504589</v>
       </c>
       <c r="N14">
-        <v>12.74400762419149</v>
+        <v>5.245599366247092</v>
       </c>
       <c r="O14">
-        <v>15.52771328183906</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>18.24547901688255</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.422212464109839</v>
+        <v>6.537781003025916</v>
       </c>
       <c r="D15">
-        <v>6.852515525030826</v>
+        <v>4.702040888596001</v>
       </c>
       <c r="E15">
-        <v>8.396133699773021</v>
+        <v>6.480365236670776</v>
       </c>
       <c r="F15">
-        <v>22.47898124286126</v>
+        <v>23.72712533709584</v>
       </c>
       <c r="G15">
-        <v>25.620615237212</v>
+        <v>28.63870513280344</v>
       </c>
       <c r="H15">
-        <v>9.127832969300382</v>
+        <v>7.087912209539374</v>
       </c>
       <c r="I15">
-        <v>16.61579744822335</v>
+        <v>3.033038771050503</v>
       </c>
       <c r="J15">
-        <v>5.566922115803223</v>
+        <v>10.53987481474187</v>
       </c>
       <c r="K15">
-        <v>21.21636370996009</v>
+        <v>18.25296653847878</v>
       </c>
       <c r="L15">
-        <v>5.70524740900549</v>
+        <v>5.851068380342123</v>
       </c>
       <c r="M15">
-        <v>16.68298517407086</v>
+        <v>25.95070798300893</v>
       </c>
       <c r="N15">
-        <v>12.74752166435894</v>
+        <v>5.254017141121781</v>
       </c>
       <c r="O15">
-        <v>15.51428960875414</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>18.1005028825981</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.251926282388926</v>
+        <v>6.354989596022554</v>
       </c>
       <c r="D16">
-        <v>6.730385180905903</v>
+        <v>4.607682649494526</v>
       </c>
       <c r="E16">
-        <v>8.346762791524576</v>
+        <v>6.433902554132081</v>
       </c>
       <c r="F16">
-        <v>22.24046788912581</v>
+        <v>23.75120383991063</v>
       </c>
       <c r="G16">
-        <v>25.2539174222233</v>
+        <v>28.67961043205002</v>
       </c>
       <c r="H16">
-        <v>9.136039675316219</v>
+        <v>6.931591338831307</v>
       </c>
       <c r="I16">
-        <v>16.49536679477273</v>
+        <v>3.187974918483222</v>
       </c>
       <c r="J16">
-        <v>5.594088742789909</v>
+        <v>10.6217937645984</v>
       </c>
       <c r="K16">
-        <v>20.56099264380843</v>
+        <v>18.29094522638508</v>
       </c>
       <c r="L16">
-        <v>5.725440598440187</v>
+        <v>5.821366695008757</v>
       </c>
       <c r="M16">
-        <v>16.24749124869072</v>
+        <v>25.12502689503328</v>
       </c>
       <c r="N16">
-        <v>12.76892641687537</v>
+        <v>5.248003367542662</v>
       </c>
       <c r="O16">
-        <v>15.44207696922498</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>17.62567667378088</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.14664451050354</v>
+        <v>6.322861060927791</v>
       </c>
       <c r="D17">
-        <v>6.654979553655843</v>
+        <v>4.586151697018384</v>
       </c>
       <c r="E17">
-        <v>8.317374898776125</v>
+        <v>6.480734708237476</v>
       </c>
       <c r="F17">
-        <v>22.09877736703718</v>
+        <v>24.34749975776337</v>
       </c>
       <c r="G17">
-        <v>25.03534689450845</v>
+        <v>29.6167706084315</v>
       </c>
       <c r="H17">
-        <v>9.142983209604745</v>
+        <v>6.270012160193807</v>
       </c>
       <c r="I17">
-        <v>16.42520025336486</v>
+        <v>3.272029741664701</v>
       </c>
       <c r="J17">
-        <v>5.6111400956234</v>
+        <v>10.83543273293319</v>
       </c>
       <c r="K17">
-        <v>20.14862279629781</v>
+        <v>18.7006833041295</v>
       </c>
       <c r="L17">
-        <v>5.738253527475373</v>
+        <v>5.789303907093431</v>
       </c>
       <c r="M17">
-        <v>15.97526799104948</v>
+        <v>24.57334395577185</v>
       </c>
       <c r="N17">
-        <v>12.78316884008584</v>
+        <v>5.228969606755395</v>
       </c>
       <c r="O17">
-        <v>15.40191009215866</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>17.46791000573275</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.085807342070398</v>
+        <v>6.437483745460228</v>
       </c>
       <c r="D18">
-        <v>6.611444234222668</v>
+        <v>4.619315019878515</v>
       </c>
       <c r="E18">
-        <v>8.300802059287456</v>
+        <v>6.661871080263546</v>
       </c>
       <c r="F18">
-        <v>22.01897830237898</v>
+        <v>25.54720865953389</v>
       </c>
       <c r="G18">
-        <v>24.91198429662865</v>
+        <v>31.50248292270403</v>
       </c>
       <c r="H18">
-        <v>9.147661024229249</v>
+        <v>5.146310678650769</v>
       </c>
       <c r="I18">
-        <v>16.38619163418134</v>
+        <v>3.291441278365826</v>
       </c>
       <c r="J18">
-        <v>5.621088452243238</v>
+        <v>11.20351689847535</v>
       </c>
       <c r="K18">
-        <v>19.90763426288506</v>
+        <v>19.5159748228607</v>
       </c>
       <c r="L18">
-        <v>5.745777990245755</v>
+        <v>5.78224075381397</v>
       </c>
       <c r="M18">
-        <v>15.81685772794692</v>
+        <v>24.20736297170107</v>
       </c>
       <c r="N18">
-        <v>12.79176154183236</v>
+        <v>5.230348530058425</v>
       </c>
       <c r="O18">
-        <v>15.3802968970116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>17.56938208721947</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.065162321407698</v>
+        <v>6.62505796799099</v>
       </c>
       <c r="D19">
-        <v>6.596677071437364</v>
+        <v>4.702748251042384</v>
       </c>
       <c r="E19">
-        <v>8.295247474634355</v>
+        <v>6.997793440119193</v>
       </c>
       <c r="F19">
-        <v>21.99225082386919</v>
+        <v>27.091247333338</v>
       </c>
       <c r="G19">
-        <v>24.87062050001149</v>
+        <v>33.91148956362797</v>
       </c>
       <c r="H19">
-        <v>9.1493607002577</v>
+        <v>3.88177042560152</v>
       </c>
       <c r="I19">
-        <v>16.37321420392911</v>
+        <v>3.272914788800758</v>
       </c>
       <c r="J19">
-        <v>5.624480916521327</v>
+        <v>11.65803049293755</v>
       </c>
       <c r="K19">
-        <v>19.82538525532435</v>
+        <v>20.55599406001362</v>
       </c>
       <c r="L19">
-        <v>5.748352102431891</v>
+        <v>5.839051567286964</v>
       </c>
       <c r="M19">
-        <v>15.76291025985412</v>
+        <v>24.02448945412333</v>
       </c>
       <c r="N19">
-        <v>12.79473902350486</v>
+        <v>5.295473480281892</v>
       </c>
       <c r="O19">
-        <v>15.37323207887507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.86459015382751</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.157881533835733</v>
+        <v>7.066173919603442</v>
       </c>
       <c r="D20">
-        <v>6.663023894087446</v>
+        <v>4.901966453743073</v>
       </c>
       <c r="E20">
-        <v>8.320469097600093</v>
+        <v>7.714250512034801</v>
       </c>
       <c r="F20">
-        <v>22.11368477173516</v>
+        <v>29.64550264722174</v>
       </c>
       <c r="G20">
-        <v>25.05837065263281</v>
+        <v>37.87234340067265</v>
       </c>
       <c r="H20">
-        <v>9.142172867736862</v>
+        <v>2.678379381808374</v>
       </c>
       <c r="I20">
-        <v>16.43252959248935</v>
+        <v>3.115318224310806</v>
       </c>
       <c r="J20">
-        <v>5.609310353040879</v>
+        <v>12.37600242560278</v>
       </c>
       <c r="K20">
-        <v>20.1929137518426</v>
+        <v>22.27964608225469</v>
       </c>
       <c r="L20">
-        <v>5.736873516582043</v>
+        <v>6.058503820227665</v>
       </c>
       <c r="M20">
-        <v>16.00443711171998</v>
+        <v>24.3696365600856</v>
       </c>
       <c r="N20">
-        <v>12.7816110566494</v>
+        <v>5.520516733307639</v>
       </c>
       <c r="O20">
-        <v>15.40603107529813</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>18.68148928301714</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.465910341655881</v>
+        <v>7.480659178696369</v>
       </c>
       <c r="D21">
-        <v>6.88388750956311</v>
+        <v>5.12052281372606</v>
       </c>
       <c r="E21">
-        <v>8.40915857267535</v>
+        <v>7.991393888756693</v>
       </c>
       <c r="F21">
-        <v>22.54199443073986</v>
+        <v>30.47041338433844</v>
       </c>
       <c r="G21">
-        <v>25.71725770307874</v>
+        <v>39.12063869372545</v>
       </c>
       <c r="H21">
-        <v>9.12631871096692</v>
+        <v>2.329807473729562</v>
       </c>
       <c r="I21">
-        <v>16.64805050396509</v>
+        <v>2.820840269472168</v>
       </c>
       <c r="J21">
-        <v>5.560028096835383</v>
+        <v>12.50254617597736</v>
       </c>
       <c r="K21">
-        <v>21.38238647716042</v>
+        <v>22.80619168434575</v>
       </c>
       <c r="L21">
-        <v>5.700166515147273</v>
+        <v>6.152298097115456</v>
       </c>
       <c r="M21">
-        <v>16.7938371334887</v>
+        <v>25.84005285902783</v>
       </c>
       <c r="N21">
-        <v>12.74234524075136</v>
+        <v>5.574198504686589</v>
       </c>
       <c r="O21">
-        <v>15.53423466622302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>19.69774118030433</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.664343673547371</v>
+        <v>7.750112330642908</v>
       </c>
       <c r="D22">
-        <v>7.026500504989258</v>
+        <v>5.24687769438321</v>
       </c>
       <c r="E22">
-        <v>8.470068122353727</v>
+        <v>8.137630932238467</v>
       </c>
       <c r="F22">
-        <v>22.83710159827258</v>
+        <v>30.9511334190191</v>
       </c>
       <c r="G22">
-        <v>26.16867753554393</v>
+        <v>39.85492070049928</v>
       </c>
       <c r="H22">
-        <v>9.122422771406589</v>
+        <v>2.117198208008703</v>
       </c>
       <c r="I22">
-        <v>16.80123776731005</v>
+        <v>2.62314022054531</v>
       </c>
       <c r="J22">
-        <v>5.529091542070543</v>
+        <v>12.57291376107533</v>
       </c>
       <c r="K22">
-        <v>22.12614939401843</v>
+        <v>23.11887856812002</v>
       </c>
       <c r="L22">
-        <v>5.677585521298337</v>
+        <v>6.202731699570759</v>
       </c>
       <c r="M22">
-        <v>17.29291544837082</v>
+        <v>26.76503963540838</v>
       </c>
       <c r="N22">
-        <v>12.720415820084</v>
+        <v>5.593566741301389</v>
       </c>
       <c r="O22">
-        <v>15.63189834225822</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>20.31552127973292</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.558716310825609</v>
+        <v>7.630350549987232</v>
       </c>
       <c r="D23">
-        <v>6.950556360935319</v>
+        <v>5.173105330572921</v>
       </c>
       <c r="E23">
-        <v>8.437289898787851</v>
+        <v>8.062605650778854</v>
       </c>
       <c r="F23">
-        <v>22.67820625245094</v>
+        <v>30.74320109398437</v>
       </c>
       <c r="G23">
-        <v>25.92585256768208</v>
+        <v>39.54680529985038</v>
       </c>
       <c r="H23">
-        <v>9.123892155658853</v>
+        <v>2.228667500870515</v>
       </c>
       <c r="I23">
-        <v>16.71833615723248</v>
+        <v>2.715459602152154</v>
       </c>
       <c r="J23">
-        <v>5.545485625809635</v>
+        <v>12.55169102851355</v>
       </c>
       <c r="K23">
-        <v>21.73225312493422</v>
+        <v>22.99420693078712</v>
       </c>
       <c r="L23">
-        <v>5.689506933914104</v>
+        <v>6.178500379942538</v>
       </c>
       <c r="M23">
-        <v>17.02810998801232</v>
+        <v>26.2753602988848</v>
       </c>
       <c r="N23">
-        <v>12.73177021863091</v>
+        <v>5.581196361851936</v>
       </c>
       <c r="O23">
-        <v>15.57847526751192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>19.98924346141284</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.152802234606595</v>
+        <v>7.121107947829468</v>
       </c>
       <c r="D24">
-        <v>6.65938761656284</v>
+        <v>4.897511855661869</v>
       </c>
       <c r="E24">
-        <v>8.319069205390281</v>
+        <v>7.768247377242048</v>
       </c>
       <c r="F24">
-        <v>22.10693996223856</v>
+        <v>29.88990840730428</v>
       </c>
       <c r="G24">
-        <v>25.04795445696037</v>
+        <v>38.26530263420079</v>
       </c>
       <c r="H24">
-        <v>9.142537091037338</v>
+        <v>2.660854813858704</v>
       </c>
       <c r="I24">
-        <v>16.42921185595992</v>
+        <v>3.095296327775523</v>
       </c>
       <c r="J24">
-        <v>5.6101371272536</v>
+        <v>12.45424424788303</v>
       </c>
       <c r="K24">
-        <v>20.17290199733708</v>
+        <v>22.46093735401158</v>
       </c>
       <c r="L24">
-        <v>5.737496927269524</v>
+        <v>6.080652232815791</v>
       </c>
       <c r="M24">
-        <v>15.99125568141494</v>
+        <v>24.33730178912155</v>
       </c>
       <c r="N24">
-        <v>12.78231407226283</v>
+        <v>5.537901950147727</v>
       </c>
       <c r="O24">
-        <v>15.40416337808934</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>18.70449184845781</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.704469054519332</v>
+        <v>6.531445996408575</v>
       </c>
       <c r="D25">
-        <v>6.339247183765688</v>
+        <v>4.586164776840553</v>
       </c>
       <c r="E25">
-        <v>8.204166583106234</v>
+        <v>7.438593014003166</v>
       </c>
       <c r="F25">
-        <v>21.55552208269272</v>
+        <v>29.00063135112203</v>
       </c>
       <c r="G25">
-        <v>24.19094206320632</v>
+        <v>36.9328236074233</v>
       </c>
       <c r="H25">
-        <v>9.18859217398585</v>
+        <v>3.143894469398641</v>
       </c>
       <c r="I25">
-        <v>16.1686889887906</v>
+        <v>3.524331959922471</v>
       </c>
       <c r="J25">
-        <v>5.685252395029428</v>
+        <v>12.36994833412411</v>
       </c>
       <c r="K25">
-        <v>18.34532835616679</v>
+        <v>21.90342366969359</v>
       </c>
       <c r="L25">
-        <v>5.795165387549375</v>
+        <v>5.970959670328214</v>
       </c>
       <c r="M25">
-        <v>14.80317148165506</v>
+        <v>22.06677442780529</v>
       </c>
       <c r="N25">
-        <v>12.85207304752029</v>
+        <v>5.491593786484763</v>
       </c>
       <c r="O25">
-        <v>15.2726869640783</v>
+        <v>17.21986269548</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.129572270791513</v>
+        <v>4.740857743374574</v>
       </c>
       <c r="D2">
-        <v>4.326787923836272</v>
+        <v>4.656842970997046</v>
       </c>
       <c r="E2">
-        <v>7.193081385746487</v>
+        <v>7.129892351132143</v>
       </c>
       <c r="F2">
-        <v>28.50207536134477</v>
+        <v>26.37511503584114</v>
       </c>
       <c r="G2">
-        <v>36.21926986642577</v>
+        <v>32.47807118503787</v>
       </c>
       <c r="H2">
-        <v>3.510802451962401</v>
+        <v>3.313269140093404</v>
       </c>
       <c r="I2">
-        <v>3.83107825618078</v>
+        <v>3.566203813805247</v>
       </c>
       <c r="J2">
-        <v>12.36630335773678</v>
+        <v>11.67098247839301</v>
       </c>
       <c r="K2">
-        <v>21.61797518442891</v>
+        <v>19.63846648506969</v>
       </c>
       <c r="L2">
-        <v>5.89327407934074</v>
+        <v>15.58969737943703</v>
       </c>
       <c r="M2">
-        <v>20.30169081521494</v>
+        <v>13.55680510700304</v>
       </c>
       <c r="N2">
-        <v>5.452763552321003</v>
+        <v>5.773250629602716</v>
       </c>
       <c r="O2">
-        <v>16.04722870482933</v>
+        <v>20.31528751299389</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>5.797526279935684</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.94400976748583</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.798470420983231</v>
+        <v>4.47773069585638</v>
       </c>
       <c r="D3">
-        <v>4.15476510611631</v>
+        <v>4.464418196004097</v>
       </c>
       <c r="E3">
-        <v>7.016343400434002</v>
+        <v>6.972829528124581</v>
       </c>
       <c r="F3">
-        <v>28.10871282425341</v>
+        <v>26.15949720529954</v>
       </c>
       <c r="G3">
-        <v>35.63684052612348</v>
+        <v>32.28126901447143</v>
       </c>
       <c r="H3">
-        <v>3.772422913000413</v>
+        <v>3.547550604955991</v>
       </c>
       <c r="I3">
-        <v>4.064270382634986</v>
+        <v>3.764947778199498</v>
       </c>
       <c r="J3">
-        <v>12.34917187954346</v>
+        <v>11.65792494895506</v>
       </c>
       <c r="K3">
-        <v>21.37169105539021</v>
+        <v>19.5340648277626</v>
       </c>
       <c r="L3">
-        <v>5.834321960217408</v>
+        <v>15.6041968169191</v>
       </c>
       <c r="M3">
-        <v>19.01676993524849</v>
+        <v>13.40255760248281</v>
       </c>
       <c r="N3">
-        <v>5.429319244772056</v>
+        <v>5.724998718951356</v>
       </c>
       <c r="O3">
-        <v>15.2006564930875</v>
+        <v>19.00238503297443</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5.782562930471062</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.09197462279025</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.582984690442178</v>
+        <v>4.306381746534954</v>
       </c>
       <c r="D4">
-        <v>4.046513780384413</v>
+        <v>4.343371827775597</v>
       </c>
       <c r="E4">
-        <v>6.90470831756186</v>
+        <v>6.873670647489188</v>
       </c>
       <c r="F4">
-        <v>27.87337097012429</v>
+        <v>26.03303135250423</v>
       </c>
       <c r="G4">
-        <v>35.28855405177269</v>
+        <v>32.17524966612413</v>
       </c>
       <c r="H4">
-        <v>3.938483302264548</v>
+        <v>3.69638005958785</v>
       </c>
       <c r="I4">
-        <v>4.213155403171513</v>
+        <v>3.892256971515137</v>
       </c>
       <c r="J4">
-        <v>12.3422740020143</v>
+        <v>11.65086603917434</v>
       </c>
       <c r="K4">
-        <v>21.22309104235136</v>
+        <v>19.47175461067201</v>
       </c>
       <c r="L4">
-        <v>5.796755821269818</v>
+        <v>15.60894660075576</v>
       </c>
       <c r="M4">
-        <v>18.18346506138737</v>
+        <v>13.32660748641042</v>
       </c>
       <c r="N4">
-        <v>5.415014062771321</v>
+        <v>5.694141307554305</v>
       </c>
       <c r="O4">
-        <v>14.656993946427</v>
+        <v>18.16019501397495</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.773993920156265</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.54380279683051</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.484252517496855</v>
+        <v>4.226873326111632</v>
       </c>
       <c r="D5">
-        <v>4.00391745692648</v>
+        <v>4.295368330615997</v>
       </c>
       <c r="E5">
-        <v>6.857619951463552</v>
+        <v>6.831860811991863</v>
       </c>
       <c r="F5">
-        <v>27.76515392311224</v>
+        <v>25.97055882240596</v>
       </c>
       <c r="G5">
-        <v>35.1247811796076</v>
+        <v>32.11430078717632</v>
       </c>
       <c r="H5">
-        <v>4.008057877493331</v>
+        <v>3.758759516424049</v>
       </c>
       <c r="I5">
-        <v>4.27790144255822</v>
+        <v>3.948483533070475</v>
       </c>
       <c r="J5">
-        <v>12.33588810500594</v>
+        <v>11.64418353166222</v>
       </c>
       <c r="K5">
-        <v>21.15144025261399</v>
+        <v>19.43647919521657</v>
       </c>
       <c r="L5">
-        <v>5.780341643625932</v>
+        <v>15.60082289801486</v>
       </c>
       <c r="M5">
-        <v>17.83301443532342</v>
+        <v>13.29382539033738</v>
       </c>
       <c r="N5">
-        <v>5.409717147963413</v>
+        <v>5.680630978861412</v>
       </c>
       <c r="O5">
-        <v>14.4292443660834</v>
+        <v>17.8056275373438</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>5.771189680337111</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.31393285179484</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.458065948435569</v>
+        <v>4.204754466002274</v>
       </c>
       <c r="D6">
-        <v>3.999423280891107</v>
+        <v>4.289800575363756</v>
       </c>
       <c r="E6">
-        <v>6.848742423521601</v>
+        <v>6.823984308311582</v>
       </c>
       <c r="F6">
-        <v>27.73029448892171</v>
+        <v>25.94512726226255</v>
       </c>
       <c r="G6">
-        <v>35.06812346963209</v>
+        <v>32.07836385300452</v>
       </c>
       <c r="H6">
-        <v>4.020322465386438</v>
+        <v>3.769752844802613</v>
       </c>
       <c r="I6">
-        <v>4.292074383400144</v>
+        <v>3.96174708197008</v>
       </c>
       <c r="J6">
-        <v>12.3294343282953</v>
+        <v>11.63815508524815</v>
       </c>
       <c r="K6">
-        <v>21.12519976057011</v>
+        <v>19.41804514014307</v>
       </c>
       <c r="L6">
-        <v>5.776669175224853</v>
+        <v>15.588419005926</v>
       </c>
       <c r="M6">
-        <v>17.77443512694223</v>
+        <v>13.28059356480482</v>
       </c>
       <c r="N6">
-        <v>5.409470718734104</v>
+        <v>5.677608617418159</v>
       </c>
       <c r="O6">
-        <v>14.39063360527178</v>
+        <v>17.74629547576438</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>5.771392373981903</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.27497458095512</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.55588851701825</v>
+        <v>4.289542093272783</v>
       </c>
       <c r="D7">
-        <v>4.052976510571769</v>
+        <v>4.355583921304261</v>
       </c>
       <c r="E7">
-        <v>6.901340381981172</v>
+        <v>6.872156616478069</v>
       </c>
       <c r="F7">
-        <v>27.82574779121951</v>
+        <v>25.96698151074939</v>
       </c>
       <c r="G7">
-        <v>35.20590313094231</v>
+        <v>32.15293826324293</v>
       </c>
       <c r="H7">
-        <v>3.941105673918901</v>
+        <v>3.699418668160614</v>
       </c>
       <c r="I7">
-        <v>4.222885308038755</v>
+        <v>3.903912438391777</v>
       </c>
       <c r="J7">
-        <v>12.32734363448457</v>
+        <v>11.59524320630331</v>
       </c>
       <c r="K7">
-        <v>21.18298956582004</v>
+        <v>19.42113306835259</v>
       </c>
       <c r="L7">
-        <v>5.794030892867027</v>
+        <v>15.56587547463763</v>
       </c>
       <c r="M7">
-        <v>18.17951172594544</v>
+        <v>13.29314537979165</v>
       </c>
       <c r="N7">
-        <v>5.416661349831177</v>
+        <v>5.691348391272774</v>
       </c>
       <c r="O7">
-        <v>14.65273499275806</v>
+        <v>18.15579471649265</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>5.775369692931204</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.54128756778484</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.985915849943118</v>
+        <v>4.646943833351604</v>
       </c>
       <c r="D8">
-        <v>4.276884659677515</v>
+        <v>4.619338902653844</v>
       </c>
       <c r="E8">
-        <v>7.129309987247166</v>
+        <v>7.078049834162818</v>
       </c>
       <c r="F8">
-        <v>28.3052806314218</v>
+        <v>26.16792204563764</v>
       </c>
       <c r="G8">
-        <v>35.91232486265199</v>
+        <v>32.47912525128621</v>
       </c>
       <c r="H8">
-        <v>3.60203533634015</v>
+        <v>3.397070466440044</v>
       </c>
       <c r="I8">
-        <v>3.921685517531404</v>
+        <v>3.64889087341298</v>
       </c>
       <c r="J8">
-        <v>12.34015647409245</v>
+        <v>11.51134012423843</v>
       </c>
       <c r="K8">
-        <v>21.48154369081901</v>
+        <v>19.50592207815515</v>
       </c>
       <c r="L8">
-        <v>5.870019903396124</v>
+        <v>15.51709245315958</v>
       </c>
       <c r="M8">
-        <v>19.86867837033132</v>
+        <v>13.43206543423283</v>
       </c>
       <c r="N8">
-        <v>5.446917547665515</v>
+        <v>5.752518284904863</v>
       </c>
       <c r="O8">
-        <v>15.75880109406301</v>
+        <v>19.86396341522473</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>5.793412728961626</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.65923271348885</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.774591160941501</v>
+        <v>5.281007254097061</v>
       </c>
       <c r="D9">
-        <v>4.681865834210703</v>
+        <v>5.077166359591743</v>
       </c>
       <c r="E9">
-        <v>7.555694771055981</v>
+        <v>7.458370615219138</v>
       </c>
       <c r="F9">
-        <v>29.3741340951833</v>
+        <v>26.77050802073293</v>
       </c>
       <c r="G9">
-        <v>37.51033136799398</v>
+        <v>33.18597367981081</v>
       </c>
       <c r="H9">
-        <v>2.976108856912622</v>
+        <v>2.83766502315944</v>
       </c>
       <c r="I9">
-        <v>3.360712343523275</v>
+        <v>3.170673357063885</v>
       </c>
       <c r="J9">
-        <v>12.42167951696666</v>
+        <v>11.52912411607693</v>
       </c>
       <c r="K9">
-        <v>22.1558521251077</v>
+        <v>19.80529708725861</v>
       </c>
       <c r="L9">
-        <v>6.012619816622796</v>
+        <v>15.48646443723396</v>
       </c>
       <c r="M9">
-        <v>22.85621779589588</v>
+        <v>13.93188801207559</v>
       </c>
       <c r="N9">
-        <v>5.504094371257592</v>
+        <v>5.868379800968957</v>
       </c>
       <c r="O9">
-        <v>17.73506561329193</v>
+        <v>22.91530580841756</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>5.832022619836814</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>17.64364049542864</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.25448883703681</v>
+        <v>5.712727022695</v>
       </c>
       <c r="D10">
-        <v>4.954785265697078</v>
+        <v>5.412348126448776</v>
       </c>
       <c r="E10">
-        <v>7.783819573548935</v>
+        <v>7.666131398280602</v>
       </c>
       <c r="F10">
-        <v>29.93903410430413</v>
+        <v>26.90742391464648</v>
       </c>
       <c r="G10">
-        <v>38.33895338083615</v>
+        <v>33.75019481589047</v>
       </c>
       <c r="H10">
-        <v>2.568484823149055</v>
+        <v>2.479294475394825</v>
       </c>
       <c r="I10">
-        <v>2.987509429006957</v>
+        <v>2.859401676177723</v>
       </c>
       <c r="J10">
-        <v>12.4262553197313</v>
+        <v>11.25829159297567</v>
       </c>
       <c r="K10">
-        <v>22.48927877438421</v>
+        <v>19.81257098612858</v>
       </c>
       <c r="L10">
-        <v>6.085213488124182</v>
+        <v>15.28042830857863</v>
       </c>
       <c r="M10">
-        <v>24.88737445750608</v>
+        <v>14.20740903093088</v>
       </c>
       <c r="N10">
-        <v>5.521184747891258</v>
+        <v>5.925526081446152</v>
       </c>
       <c r="O10">
-        <v>19.01498153640171</v>
+        <v>24.92959412378316</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>5.830113117016494</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>18.93269263825792</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.171025220473647</v>
+        <v>5.806495039893302</v>
       </c>
       <c r="D11">
-        <v>4.9771947891836</v>
+        <v>5.473588799366091</v>
       </c>
       <c r="E11">
-        <v>7.341044634778905</v>
+        <v>7.25288081513497</v>
       </c>
       <c r="F11">
-        <v>28.18379525144166</v>
+        <v>25.07560496887817</v>
       </c>
       <c r="G11">
-        <v>35.59012976953034</v>
+        <v>31.88468409324808</v>
       </c>
       <c r="H11">
-        <v>3.305180122037064</v>
+        <v>3.249364170286069</v>
       </c>
       <c r="I11">
-        <v>2.900045367604425</v>
+        <v>2.795558045518853</v>
       </c>
       <c r="J11">
-        <v>11.82297213548038</v>
+        <v>10.3417920848096</v>
       </c>
       <c r="K11">
-        <v>21.25332029831891</v>
+        <v>18.58759309679466</v>
       </c>
       <c r="L11">
-        <v>5.942342193034949</v>
+        <v>14.29722344279044</v>
       </c>
       <c r="M11">
-        <v>25.84617579854355</v>
+        <v>13.36983183427034</v>
       </c>
       <c r="N11">
-        <v>5.344959867817157</v>
+        <v>5.823695266361216</v>
       </c>
       <c r="O11">
-        <v>19.15944892113858</v>
+        <v>25.87758483975418</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>5.589629525504908</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.09871718653142</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.034807464454404</v>
+        <v>5.803352461368852</v>
       </c>
       <c r="D12">
-        <v>4.92725352187355</v>
+        <v>5.424509833110587</v>
       </c>
       <c r="E12">
-        <v>6.990219098681141</v>
+        <v>6.922057357135021</v>
       </c>
       <c r="F12">
-        <v>26.64183252099156</v>
+        <v>23.64421699106062</v>
       </c>
       <c r="G12">
-        <v>33.19141338145017</v>
+        <v>30.08663278414791</v>
       </c>
       <c r="H12">
-        <v>4.526564682507711</v>
+        <v>4.486881773118026</v>
       </c>
       <c r="I12">
-        <v>2.881182140481978</v>
+        <v>2.77982732815289</v>
       </c>
       <c r="J12">
-        <v>11.3385647654172</v>
+        <v>9.835447528919032</v>
       </c>
       <c r="K12">
-        <v>20.19866269957022</v>
+        <v>17.66714161632869</v>
       </c>
       <c r="L12">
-        <v>5.868473415629595</v>
+        <v>13.61224370076019</v>
       </c>
       <c r="M12">
-        <v>26.2453233664619</v>
+        <v>12.67666677087073</v>
       </c>
       <c r="N12">
-        <v>5.254031593756311</v>
+        <v>5.787243400793373</v>
       </c>
       <c r="O12">
-        <v>19.01291814545457</v>
+        <v>26.27278370906362</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.449361768785689</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.96451149818042</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.813912313477714</v>
+        <v>5.683594981117166</v>
       </c>
       <c r="D13">
-        <v>4.826395181810188</v>
+        <v>5.282077154750788</v>
       </c>
       <c r="E13">
-        <v>6.691174553153445</v>
+        <v>6.638426668537538</v>
       </c>
       <c r="F13">
-        <v>25.09485567391144</v>
+        <v>22.415454239804</v>
       </c>
       <c r="G13">
-        <v>30.7808317859974</v>
+        <v>27.99590020466892</v>
       </c>
       <c r="H13">
-        <v>5.875141020893924</v>
+        <v>5.839770782229191</v>
       </c>
       <c r="I13">
-        <v>2.92969942002494</v>
+        <v>2.817548346990571</v>
       </c>
       <c r="J13">
-        <v>10.89558619531717</v>
+        <v>9.611843179150595</v>
       </c>
       <c r="K13">
-        <v>19.15958884395539</v>
+        <v>16.90232492581384</v>
       </c>
       <c r="L13">
-        <v>5.839751253822405</v>
+        <v>13.08247679097979</v>
       </c>
       <c r="M13">
-        <v>26.25122869040684</v>
+        <v>12.04311115516226</v>
       </c>
       <c r="N13">
-        <v>5.227144402738964</v>
+        <v>5.793751319828633</v>
       </c>
       <c r="O13">
-        <v>18.6281505768105</v>
+        <v>26.28086548255592</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.384911889063942</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>18.58286821331339</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.613095696700204</v>
+        <v>5.541856539063988</v>
       </c>
       <c r="D14">
-        <v>4.733202914103849</v>
+        <v>5.141288028166771</v>
       </c>
       <c r="E14">
-        <v>6.520481997408371</v>
+        <v>6.478823617335559</v>
       </c>
       <c r="F14">
-        <v>24.00541971820907</v>
+        <v>21.63618289379136</v>
       </c>
       <c r="G14">
-        <v>29.07691214676581</v>
+        <v>26.4101844700999</v>
       </c>
       <c r="H14">
-        <v>6.855017215833338</v>
+        <v>6.819537798585884</v>
       </c>
       <c r="I14">
-        <v>2.997023556529416</v>
+        <v>2.87172989608592</v>
       </c>
       <c r="J14">
-        <v>10.60574666189321</v>
+        <v>9.554957074686715</v>
       </c>
       <c r="K14">
-        <v>18.43673821413369</v>
+        <v>16.42882308180636</v>
       </c>
       <c r="L14">
-        <v>5.847607771865461</v>
+        <v>12.7696664078335</v>
       </c>
       <c r="M14">
-        <v>26.07795455504589</v>
+        <v>11.62418814655754</v>
       </c>
       <c r="N14">
-        <v>5.245599366247092</v>
+        <v>5.823319432434108</v>
       </c>
       <c r="O14">
-        <v>18.24547901688255</v>
+        <v>26.11172811520413</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.383891715292551</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>18.19823248447273</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.537781003025916</v>
+        <v>5.476797024799985</v>
       </c>
       <c r="D15">
-        <v>4.702040888596001</v>
+        <v>5.090599692163688</v>
       </c>
       <c r="E15">
-        <v>6.480365236670776</v>
+        <v>6.442164799623484</v>
       </c>
       <c r="F15">
-        <v>23.72712533709584</v>
+        <v>21.47069576213</v>
       </c>
       <c r="G15">
-        <v>28.63870513280344</v>
+        <v>25.96221163956298</v>
       </c>
       <c r="H15">
-        <v>7.087912209539374</v>
+        <v>7.051197567636497</v>
       </c>
       <c r="I15">
-        <v>3.033038771050503</v>
+        <v>2.902303363620847</v>
       </c>
       <c r="J15">
-        <v>10.53987481474187</v>
+        <v>9.578978644838029</v>
       </c>
       <c r="K15">
-        <v>18.25296653847878</v>
+        <v>16.33079772655403</v>
       </c>
       <c r="L15">
-        <v>5.851068380342123</v>
+        <v>12.71042827977667</v>
       </c>
       <c r="M15">
-        <v>25.95070798300893</v>
+        <v>11.52641323773298</v>
       </c>
       <c r="N15">
-        <v>5.254017141121781</v>
+        <v>5.831577607726283</v>
       </c>
       <c r="O15">
-        <v>18.1005028825981</v>
+        <v>25.9867272107235</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.390182749791602</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>18.05095983905702</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.354989596022554</v>
+        <v>5.252026975852354</v>
       </c>
       <c r="D16">
-        <v>4.607682649494526</v>
+        <v>4.931407160708432</v>
       </c>
       <c r="E16">
-        <v>6.433902554132081</v>
+        <v>6.401422459253538</v>
       </c>
       <c r="F16">
-        <v>23.75120383991063</v>
+        <v>21.79214130674035</v>
       </c>
       <c r="G16">
-        <v>28.67961043205002</v>
+        <v>25.68561392683651</v>
       </c>
       <c r="H16">
-        <v>6.931591338831307</v>
+        <v>6.88222795142317</v>
       </c>
       <c r="I16">
-        <v>3.187974918483222</v>
+        <v>3.029662334912033</v>
       </c>
       <c r="J16">
-        <v>10.6217937645984</v>
+        <v>9.952788826955864</v>
       </c>
       <c r="K16">
-        <v>18.29094522638508</v>
+        <v>16.56494435237803</v>
       </c>
       <c r="L16">
-        <v>5.821366695008757</v>
+        <v>12.9233770198688</v>
       </c>
       <c r="M16">
-        <v>25.12502689503328</v>
+        <v>11.62667485627181</v>
       </c>
       <c r="N16">
-        <v>5.248003367542662</v>
+        <v>5.800346767888142</v>
       </c>
       <c r="O16">
-        <v>17.62567667378088</v>
+        <v>25.17218314846851</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.404711344121807</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>17.56036335107377</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.322861060927791</v>
+        <v>5.162810445214549</v>
       </c>
       <c r="D17">
-        <v>4.586151697018384</v>
+        <v>4.893165326680482</v>
       </c>
       <c r="E17">
-        <v>6.480734708237476</v>
+        <v>6.444103068382562</v>
       </c>
       <c r="F17">
-        <v>24.34749975776337</v>
+        <v>22.42852537023635</v>
       </c>
       <c r="G17">
-        <v>29.6167706084315</v>
+        <v>26.36857233254839</v>
       </c>
       <c r="H17">
-        <v>6.270012160193807</v>
+        <v>6.208387158224629</v>
       </c>
       <c r="I17">
-        <v>3.272029741664701</v>
+        <v>3.100232864704024</v>
       </c>
       <c r="J17">
-        <v>10.83543273293319</v>
+        <v>10.25993851307378</v>
       </c>
       <c r="K17">
-        <v>18.7006833041295</v>
+        <v>16.98032127754529</v>
       </c>
       <c r="L17">
-        <v>5.789303907093431</v>
+        <v>13.25275668020272</v>
       </c>
       <c r="M17">
-        <v>24.57334395577185</v>
+        <v>11.90714193911634</v>
       </c>
       <c r="N17">
-        <v>5.228969606755395</v>
+        <v>5.757007687199626</v>
       </c>
       <c r="O17">
-        <v>17.46791000573275</v>
+        <v>24.62615108222101</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.411022136585617</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>17.393441108764</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.437483745460228</v>
+        <v>5.185492542957149</v>
       </c>
       <c r="D18">
-        <v>4.619315019878515</v>
+        <v>4.938255198348202</v>
       </c>
       <c r="E18">
-        <v>6.661871080263546</v>
+        <v>6.609636748860434</v>
       </c>
       <c r="F18">
-        <v>25.54720865953389</v>
+        <v>23.49465121446379</v>
       </c>
       <c r="G18">
-        <v>31.50248292270403</v>
+        <v>27.90011728064184</v>
       </c>
       <c r="H18">
-        <v>5.146310678650769</v>
+        <v>5.069090922939018</v>
       </c>
       <c r="I18">
-        <v>3.291441278365826</v>
+        <v>3.114615501418771</v>
       </c>
       <c r="J18">
-        <v>11.20351689847535</v>
+        <v>10.61302304876405</v>
       </c>
       <c r="K18">
-        <v>19.5159748228607</v>
+        <v>17.66378328060006</v>
       </c>
       <c r="L18">
-        <v>5.78224075381397</v>
+        <v>13.77388141573472</v>
       </c>
       <c r="M18">
-        <v>24.20736297170107</v>
+        <v>12.41531011615577</v>
       </c>
       <c r="N18">
-        <v>5.230348530058425</v>
+        <v>5.726726108309978</v>
       </c>
       <c r="O18">
-        <v>17.56938208721947</v>
+        <v>24.26271634066332</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.446432855463297</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>17.48813652158524</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.62505796799099</v>
+        <v>5.259981271719201</v>
       </c>
       <c r="D19">
-        <v>4.702748251042384</v>
+        <v>5.050436790238278</v>
       </c>
       <c r="E19">
-        <v>6.997793440119193</v>
+        <v>6.921751932229483</v>
       </c>
       <c r="F19">
-        <v>27.091247333338</v>
+        <v>24.80121701201814</v>
       </c>
       <c r="G19">
-        <v>33.91148956362797</v>
+        <v>29.87692848758928</v>
       </c>
       <c r="H19">
-        <v>3.88177042560152</v>
+        <v>3.784328459250155</v>
       </c>
       <c r="I19">
-        <v>3.272914788800758</v>
+        <v>3.102091694083556</v>
       </c>
       <c r="J19">
-        <v>11.65803049293755</v>
+        <v>10.99107262258218</v>
       </c>
       <c r="K19">
-        <v>20.55599406001362</v>
+        <v>18.48941687101748</v>
       </c>
       <c r="L19">
-        <v>5.839051567286964</v>
+        <v>14.394543875347</v>
       </c>
       <c r="M19">
-        <v>24.02448945412333</v>
+        <v>13.04779669949469</v>
       </c>
       <c r="N19">
-        <v>5.295473480281892</v>
+        <v>5.7496720753115</v>
       </c>
       <c r="O19">
-        <v>17.86459015382751</v>
+        <v>24.07999249467956</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>5.552968228570515</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.77811618687846</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.066173919603442</v>
+        <v>5.52622030844936</v>
       </c>
       <c r="D20">
-        <v>4.901966453743073</v>
+        <v>5.323092178460924</v>
       </c>
       <c r="E20">
-        <v>7.714250512034801</v>
+        <v>7.59792088756353</v>
       </c>
       <c r="F20">
-        <v>29.64550264722174</v>
+        <v>26.82224063788233</v>
       </c>
       <c r="G20">
-        <v>37.87234340067265</v>
+        <v>33.20174203625314</v>
       </c>
       <c r="H20">
-        <v>2.678379381808374</v>
+        <v>2.573732199111977</v>
       </c>
       <c r="I20">
-        <v>3.115318224310806</v>
+        <v>2.974245614802627</v>
       </c>
       <c r="J20">
-        <v>12.37600242560278</v>
+        <v>11.43019121201448</v>
       </c>
       <c r="K20">
-        <v>22.27964608225469</v>
+        <v>19.75821421105153</v>
       </c>
       <c r="L20">
-        <v>6.058503820227665</v>
+        <v>15.29589548588881</v>
       </c>
       <c r="M20">
-        <v>24.3696365600856</v>
+        <v>14.0909371411737</v>
       </c>
       <c r="N20">
-        <v>5.520516733307639</v>
+        <v>5.906160698338471</v>
       </c>
       <c r="O20">
-        <v>18.68148928301714</v>
+        <v>24.41840136094235</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>5.83584481673527</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>18.59282031381434</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.480659178696369</v>
+        <v>5.986840249942701</v>
       </c>
       <c r="D21">
-        <v>5.12052281372606</v>
+        <v>5.694518794412199</v>
       </c>
       <c r="E21">
-        <v>7.991393888756693</v>
+        <v>7.88182681471417</v>
       </c>
       <c r="F21">
-        <v>30.47041338433844</v>
+        <v>26.84330953364479</v>
       </c>
       <c r="G21">
-        <v>39.12063869372545</v>
+        <v>35.10115503345384</v>
       </c>
       <c r="H21">
-        <v>2.329807473729562</v>
+        <v>2.273590026155768</v>
       </c>
       <c r="I21">
-        <v>2.820840269472168</v>
+        <v>2.737608245927761</v>
       </c>
       <c r="J21">
-        <v>12.50254617597736</v>
+        <v>10.61111515367299</v>
       </c>
       <c r="K21">
-        <v>22.80619168434575</v>
+        <v>19.70315363955826</v>
       </c>
       <c r="L21">
-        <v>6.152298097115456</v>
+        <v>15.09328837182875</v>
       </c>
       <c r="M21">
-        <v>25.84005285902783</v>
+        <v>14.26954695190134</v>
       </c>
       <c r="N21">
-        <v>5.574198504686589</v>
+        <v>5.970779344099464</v>
       </c>
       <c r="O21">
-        <v>19.69774118030433</v>
+        <v>25.8655337540766</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>5.878757362801038</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>19.63669861071664</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.750112330642908</v>
+        <v>6.299526023232362</v>
       </c>
       <c r="D22">
-        <v>5.24687769438321</v>
+        <v>5.923818022764808</v>
       </c>
       <c r="E22">
-        <v>8.137630932238467</v>
+        <v>8.037222522172257</v>
       </c>
       <c r="F22">
-        <v>30.9511334190191</v>
+        <v>26.78311353214892</v>
       </c>
       <c r="G22">
-        <v>39.85492070049928</v>
+        <v>36.38443949911935</v>
       </c>
       <c r="H22">
-        <v>2.117198208008703</v>
+        <v>2.091850387262417</v>
       </c>
       <c r="I22">
-        <v>2.62314022054531</v>
+        <v>2.574303116483269</v>
       </c>
       <c r="J22">
-        <v>12.57291376107533</v>
+        <v>10.0638951175912</v>
       </c>
       <c r="K22">
-        <v>23.11887856812002</v>
+        <v>19.62593785704258</v>
       </c>
       <c r="L22">
-        <v>6.202731699570759</v>
+        <v>14.93059082398885</v>
       </c>
       <c r="M22">
-        <v>26.76503963540838</v>
+        <v>14.36203842287447</v>
       </c>
       <c r="N22">
-        <v>5.593566741301389</v>
+        <v>6.004460957072314</v>
       </c>
       <c r="O22">
-        <v>20.31552127973292</v>
+        <v>26.77505897611902</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>5.887998467959966</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>20.27254244471301</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.630350549987232</v>
+        <v>6.138253427259001</v>
       </c>
       <c r="D23">
-        <v>5.173105330572921</v>
+        <v>5.78182987987765</v>
       </c>
       <c r="E23">
-        <v>8.062605650778854</v>
+        <v>7.952948310939127</v>
       </c>
       <c r="F23">
-        <v>30.74320109398437</v>
+        <v>26.91593936764346</v>
       </c>
       <c r="G23">
-        <v>39.54680529985038</v>
+        <v>35.64000548962707</v>
       </c>
       <c r="H23">
-        <v>2.228667500870515</v>
+        <v>2.186002864197476</v>
       </c>
       <c r="I23">
-        <v>2.715459602152154</v>
+        <v>2.645143568741788</v>
       </c>
       <c r="J23">
-        <v>12.55169102851355</v>
+        <v>10.45119021022272</v>
       </c>
       <c r="K23">
-        <v>22.99420693078712</v>
+        <v>19.74180264672627</v>
       </c>
       <c r="L23">
-        <v>6.178500379942538</v>
+        <v>15.07088273589131</v>
       </c>
       <c r="M23">
-        <v>26.2753602988848</v>
+        <v>14.37135210005495</v>
       </c>
       <c r="N23">
-        <v>5.581196361851936</v>
+        <v>5.98961230571303</v>
       </c>
       <c r="O23">
-        <v>19.98924346141284</v>
+        <v>26.29483848192882</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>5.881587311819128</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>19.93348488648054</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.121107947829468</v>
+        <v>5.562885789915727</v>
       </c>
       <c r="D24">
-        <v>4.897511855661869</v>
+        <v>5.321412124754138</v>
       </c>
       <c r="E24">
-        <v>7.768247377242048</v>
+        <v>7.64886840724512</v>
       </c>
       <c r="F24">
-        <v>29.88990840730428</v>
+        <v>27.03767579245891</v>
       </c>
       <c r="G24">
-        <v>38.26530263420079</v>
+        <v>33.53185086010468</v>
       </c>
       <c r="H24">
-        <v>2.660854813858704</v>
+        <v>2.556675022440483</v>
       </c>
       <c r="I24">
-        <v>3.095296327775523</v>
+        <v>2.951276694652869</v>
       </c>
       <c r="J24">
-        <v>12.45424424788303</v>
+        <v>11.50160122159885</v>
       </c>
       <c r="K24">
-        <v>22.46093735401158</v>
+        <v>19.91099573152676</v>
       </c>
       <c r="L24">
-        <v>6.080652232815791</v>
+        <v>15.41235688342475</v>
       </c>
       <c r="M24">
-        <v>24.33730178912155</v>
+        <v>14.20581619183911</v>
       </c>
       <c r="N24">
-        <v>5.537901950147727</v>
+        <v>5.923214786198564</v>
       </c>
       <c r="O24">
-        <v>18.70449184845781</v>
+        <v>24.38608973037033</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>5.857748443897762</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>18.61493813373914</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.531445996408575</v>
+        <v>5.073679413458274</v>
       </c>
       <c r="D25">
-        <v>4.586164776840553</v>
+        <v>4.958826206539157</v>
       </c>
       <c r="E25">
-        <v>7.438593014003166</v>
+        <v>7.351900001494214</v>
       </c>
       <c r="F25">
-        <v>29.00063135112203</v>
+        <v>26.56428036257367</v>
       </c>
       <c r="G25">
-        <v>36.9328236074233</v>
+        <v>32.7880286121005</v>
       </c>
       <c r="H25">
-        <v>3.143894469398641</v>
+        <v>2.986568607751053</v>
       </c>
       <c r="I25">
-        <v>3.524331959922471</v>
+        <v>3.314006576843419</v>
       </c>
       <c r="J25">
-        <v>12.36994833412411</v>
+        <v>11.55876734470196</v>
       </c>
       <c r="K25">
-        <v>21.90342366969359</v>
+        <v>19.68523788905332</v>
       </c>
       <c r="L25">
-        <v>5.970959670328214</v>
+        <v>15.46912508637866</v>
       </c>
       <c r="M25">
-        <v>22.06677442780529</v>
+        <v>13.75381898766477</v>
       </c>
       <c r="N25">
-        <v>5.491593786484763</v>
+        <v>5.835401267492293</v>
       </c>
       <c r="O25">
-        <v>17.21986269548</v>
+        <v>22.13184165947238</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>5.82488197979001</v>
       </c>
       <c r="Q25">
+        <v>17.12523906853162</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
